--- a/data/hotels_by_city/Dallas/Dallas_shard_664.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_664.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="759">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2181 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r579263945-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>55930</t>
+  </si>
+  <si>
+    <t>634997</t>
+  </si>
+  <si>
+    <t>579263945</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We enjoyed the big hotel room. It was the perfect size for traveling with a little one. The bed was extremely comfortable and having the kitchen was so nice. The breakfast was fantastic with lots to choose from. The staff was very friendly and the hotel was very clean. I would stay here again in a heartbeat.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r576040279-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>576040279</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Such a great Hotel</t>
+  </si>
+  <si>
+    <t>The staff are just so friendly, I always feel very welcome here, Rooms, fittings, furniture all very well maintained, clean, modern.Bar is great, breakfast great, What really makes this hotel so outstanding though are the staff..</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r548135704-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>548135704</t>
+  </si>
+  <si>
+    <t>12/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awful service </t>
+  </si>
+  <si>
+    <t>Terribly small bathrooms and bathtubs, poor quality rooms like a motel 6, terrible service, asked them to service room and they failed to.  AC very loud in bedroom. I would not recommend!!  Far better options like the Element.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Public Relations Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 21, 2017</t>
+  </si>
+  <si>
+    <t>Terribly small bathrooms and bathtubs, poor quality rooms like a motel 6, terrible service, asked them to service room and they failed to.  AC very loud in bedroom. I would not recommend!!  Far better options like the Element.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r520365068-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>520365068</t>
+  </si>
+  <si>
+    <t>09/01/2017</t>
+  </si>
+  <si>
+    <t>A very nice surprise</t>
+  </si>
+  <si>
+    <t>Didn't know much about location. Turned to be close to airport. More amenities than expected. Great breakfasts. Comfortable and quiet. Excellent staff. Nearby attractions very nice. Shopping and eating places close by.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r508488377-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>508488377</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>On Person Can Make It Special!</t>
+  </si>
+  <si>
+    <t>The trend in family-friendly hotels is a breakfast buffet. As one who travels frequently, I know that the quality of these buffets varies greatly. And then there is the new gold standard.Marriott's Residence Inn in Grapevine, TX, was a wonderful and convenient place to stay during a recent visit to Dallas. What puts this hotel in a category of its own was Nancy. During our stay she was the Marriott associate who made the breakfast buffet hum. My habit is to come down to breakfast early, have a light meal and then read the newspapers online over several cups of coffee. I got to watch Nancy work.She kept the food trays stocked, the coffee never ran out, she was quick to clear the tables as people finished and she was always there to help with the waffle maker. Well done.The hotel is near the north end of the Dallas-Fort Worth Airport. A shuttle runs between DFW and the hotel on demand. If you are meeting someone at the airport this saves you from paying the airport tolls.Nearby is downtown Grapevine with its historic buildings, wine bars and shopping.; a day trip not to be missed.Nancy, I will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>The trend in family-friendly hotels is a breakfast buffet. As one who travels frequently, I know that the quality of these buffets varies greatly. And then there is the new gold standard.Marriott's Residence Inn in Grapevine, TX, was a wonderful and convenient place to stay during a recent visit to Dallas. What puts this hotel in a category of its own was Nancy. During our stay she was the Marriott associate who made the breakfast buffet hum. My habit is to come down to breakfast early, have a light meal and then read the newspapers online over several cups of coffee. I got to watch Nancy work.She kept the food trays stocked, the coffee never ran out, she was quick to clear the tables as people finished and she was always there to help with the waffle maker. Well done.The hotel is near the north end of the Dallas-Fort Worth Airport. A shuttle runs between DFW and the hotel on demand. If you are meeting someone at the airport this saves you from paying the airport tolls.Nearby is downtown Grapevine with its historic buildings, wine bars and shopping.; a day trip not to be missed.Nancy, I will be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r495930396-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>495930396</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>convenient to major roads</t>
+  </si>
+  <si>
+    <t>Comfortable stay (with room to stretch out) during a post-conference weekend.  We were close to the airport for an easy commute the day we departed, but also very close to a major connecting road for trips to Dallas, Ft. Worth, and Arlington.  We so appreciate the consistency found the Marriott brands.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Comfortable stay (with room to stretch out) during a post-conference weekend.  We were close to the airport for an easy commute the day we departed, but also very close to a major connecting road for trips to Dallas, Ft. Worth, and Arlington.  We so appreciate the consistency found the Marriott brands.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r481967676-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>481967676</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>Great customer service &amp; newly updated rooms</t>
+  </si>
+  <si>
+    <t>Website stated limited airport shuttle on saturdays so I decided to call to be sure I could get shuttle around 7am Saturday.  Steven assured me I would have a lift &amp; would be here when I arrived as well as he was!  He arranged everything and his customer service was above and beyond!  He gave me a 1 bed suite with separate living room &amp; kitchen- see pics. Hotel smells and looks new.  Shuttle was prompt for pickup and drop off.  Windshield needs serious repair but that is my only complaint.  Breakfast is good as well! MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2017</t>
+  </si>
+  <si>
+    <t>Website stated limited airport shuttle on saturdays so I decided to call to be sure I could get shuttle around 7am Saturday.  Steven assured me I would have a lift &amp; would be here when I arrived as well as he was!  He arranged everything and his customer service was above and beyond!  He gave me a 1 bed suite with separate living room &amp; kitchen- see pics. Hotel smells and looks new.  Shuttle was prompt for pickup and drop off.  Windshield needs serious repair but that is my only complaint.  Breakfast is good as well! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r481110580-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>481110580</t>
+  </si>
+  <si>
+    <t>05/02/2017</t>
+  </si>
+  <si>
+    <t>Great staff, tired property</t>
+  </si>
+  <si>
+    <t>Staff are fantastic! Unfortunately, the property is a bit tired. Internet is slow, television reception was non-existent for much of the stay. Breakfast is good, the restaurant is somewhat "Blah". SMOKERS as you enter the lobby. What a place to have people smoking! Perhaps relocating the smoking area from the front entrance to somewhere else...middle of the car park..would be nice. Air conditioning was set to "HIGH" yet remained in "AUTO", thus no constant flow of air. Found myself awakening to a hot room in the middle of the night. Not pleasant. Laundry room is spacious, but only two washers and two dryers.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Michael W, Front Office Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2017</t>
+  </si>
+  <si>
+    <t>Staff are fantastic! Unfortunately, the property is a bit tired. Internet is slow, television reception was non-existent for much of the stay. Breakfast is good, the restaurant is somewhat "Blah". SMOKERS as you enter the lobby. What a place to have people smoking! Perhaps relocating the smoking area from the front entrance to somewhere else...middle of the car park..would be nice. Air conditioning was set to "HIGH" yet remained in "AUTO", thus no constant flow of air. Found myself awakening to a hot room in the middle of the night. Not pleasant. Laundry room is spacious, but only two washers and two dryers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r472651058-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>472651058</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>great hotel for the price</t>
+  </si>
+  <si>
+    <t>Overall....we had a great stay. You can't beat it for the price. You don't get anything fancy with a Residence Inn, but the hotel is clean, rooms are nice, bed is comfortable. The breakfast is nice. It was good, and convenient. Although it only goes to 9:30, so don't sleep in. I am still giving 4 stars, although we had a few things that were weird with our stay: There was some confusion with some special requests. I am allergic to down, and requested a "feather free" room, but they left two feather pillows, and two foam pillows on our bed. You would think "feather free" means feather free. By the time we got there, housekeeping was gone for the day, so we had to use those pillows for that night. There is a complimentary airport shuttle, which we learned on our way to the airport, as we were leaving, that they give short rides to the Grapevine area. That would have been nice to know ahead of time. Everything in the area is very close by, but with the rainy weather when we visited, we didn't want to always walk somewhere, so we took uber a lot. Ubers are sometimes inconvenient. Also, the hotel is somewhat hard to get to/find. Most GPS took us past the driveway to turn in, then we were on the freeway. It was a long detour around to get back to the correct parking...Overall....we had a great stay. You can't beat it for the price. You don't get anything fancy with a Residence Inn, but the hotel is clean, rooms are nice, bed is comfortable. The breakfast is nice. It was good, and convenient. Although it only goes to 9:30, so don't sleep in. I am still giving 4 stars, although we had a few things that were weird with our stay: There was some confusion with some special requests. I am allergic to down, and requested a "feather free" room, but they left two feather pillows, and two foam pillows on our bed. You would think "feather free" means feather free. By the time we got there, housekeeping was gone for the day, so we had to use those pillows for that night. There is a complimentary airport shuttle, which we learned on our way to the airport, as we were leaving, that they give short rides to the Grapevine area. That would have been nice to know ahead of time. Everything in the area is very close by, but with the rainy weather when we visited, we didn't want to always walk somewhere, so we took uber a lot. Ubers are sometimes inconvenient. Also, the hotel is somewhat hard to get to/find. Most GPS took us past the driveway to turn in, then we were on the freeway. It was a long detour around to get back to the correct parking lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2017</t>
+  </si>
+  <si>
+    <t>Overall....we had a great stay. You can't beat it for the price. You don't get anything fancy with a Residence Inn, but the hotel is clean, rooms are nice, bed is comfortable. The breakfast is nice. It was good, and convenient. Although it only goes to 9:30, so don't sleep in. I am still giving 4 stars, although we had a few things that were weird with our stay: There was some confusion with some special requests. I am allergic to down, and requested a "feather free" room, but they left two feather pillows, and two foam pillows on our bed. You would think "feather free" means feather free. By the time we got there, housekeeping was gone for the day, so we had to use those pillows for that night. There is a complimentary airport shuttle, which we learned on our way to the airport, as we were leaving, that they give short rides to the Grapevine area. That would have been nice to know ahead of time. Everything in the area is very close by, but with the rainy weather when we visited, we didn't want to always walk somewhere, so we took uber a lot. Ubers are sometimes inconvenient. Also, the hotel is somewhat hard to get to/find. Most GPS took us past the driveway to turn in, then we were on the freeway. It was a long detour around to get back to the correct parking...Overall....we had a great stay. You can't beat it for the price. You don't get anything fancy with a Residence Inn, but the hotel is clean, rooms are nice, bed is comfortable. The breakfast is nice. It was good, and convenient. Although it only goes to 9:30, so don't sleep in. I am still giving 4 stars, although we had a few things that were weird with our stay: There was some confusion with some special requests. I am allergic to down, and requested a "feather free" room, but they left two feather pillows, and two foam pillows on our bed. You would think "feather free" means feather free. By the time we got there, housekeeping was gone for the day, so we had to use those pillows for that night. There is a complimentary airport shuttle, which we learned on our way to the airport, as we were leaving, that they give short rides to the Grapevine area. That would have been nice to know ahead of time. Everything in the area is very close by, but with the rainy weather when we visited, we didn't want to always walk somewhere, so we took uber a lot. Ubers are sometimes inconvenient. Also, the hotel is somewhat hard to get to/find. Most GPS took us past the driveway to turn in, then we were on the freeway. It was a long detour around to get back to the correct parking lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r456056721-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>456056721</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Nothing much ....</t>
+  </si>
+  <si>
+    <t>I come to the area twice a year in business and in this occasion , I ended up here . I have been to most other hotels and long stays over the years and would put this one as lowest ranking .Rooms are fine if a little small , but the overall impression is no one really cares . Any customer relations is from the "teeth out " and meaningless .Breakfast is ok .Hallways were at 61 degrees with the outside temp at about 34 ..: when asked could the hallways and description be warmed I was told , I was first guest that asked such a thing ?!? Can't imagine most people accepting to be cold when it's cold outside .Complimentary coffee at reception is hit or miss affair and when asked ../ guess what ... I was the first guest the asked such a thing . !!?  Overall rooms are ok , but sound can be a factor from other rooms and doors .Staff really don't give a damm and as such won't be staying here again and ensuring no booking come from my Comany to here .There is far better value and standard , less then 300 m from here .:: take the optionMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded February 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2017</t>
+  </si>
+  <si>
+    <t>I come to the area twice a year in business and in this occasion , I ended up here . I have been to most other hotels and long stays over the years and would put this one as lowest ranking .Rooms are fine if a little small , but the overall impression is no one really cares . Any customer relations is from the "teeth out " and meaningless .Breakfast is ok .Hallways were at 61 degrees with the outside temp at about 34 ..: when asked could the hallways and description be warmed I was told , I was first guest that asked such a thing ?!? Can't imagine most people accepting to be cold when it's cold outside .Complimentary coffee at reception is hit or miss affair and when asked ../ guess what ... I was the first guest the asked such a thing . !!?  Overall rooms are ok , but sound can be a factor from other rooms and doors .Staff really don't give a damm and as such won't be staying here again and ensuring no booking come from my Comany to here .There is far better value and standard , less then 300 m from here .:: take the optionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r453295204-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>453295204</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Sleepless Nights</t>
+  </si>
+  <si>
+    <t>Although the location of this hotel is a plus given it's proximity to DFW, I spent two sleepless nights here. Despite being a Platinum Elite in Marriott's Rewards program and my profile specifically noting that I prefer to be away from the elevator, you guessed it, I was given a room that shared a wall with the elevator equipment room! The constant clanking every time the elevator was called from any floor was like someone rattling hangers in a closet. I called the front desk to ask if they had earplugs but was told "of course not". Why did that seem like an unreasonable request, especially for a hotel in the flight path of a major airport? I complained to Marriott but was referred back to the hotel. I checked out a day early and will find somewhere else to stay. This was the worst Marriott experience I've had in years. When you're spending $225/night it seems like the least you should expect is a quiet room!MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Although the location of this hotel is a plus given it's proximity to DFW, I spent two sleepless nights here. Despite being a Platinum Elite in Marriott's Rewards program and my profile specifically noting that I prefer to be away from the elevator, you guessed it, I was given a room that shared a wall with the elevator equipment room! The constant clanking every time the elevator was called from any floor was like someone rattling hangers in a closet. I called the front desk to ask if they had earplugs but was told "of course not". Why did that seem like an unreasonable request, especially for a hotel in the flight path of a major airport? I complained to Marriott but was referred back to the hotel. I checked out a day early and will find somewhere else to stay. This was the worst Marriott experience I've had in years. When you're spending $225/night it seems like the least you should expect is a quiet room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r452892259-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>452892259</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Close to the airport and a good stay!</t>
+  </si>
+  <si>
+    <t>I was in the hotel for an extended stay (~1 week), and found the location to be enjoyable.  The rooms were clean and quiet.  The internet was sufficient for checking email and general web surfing.  Even the shower pressure was decent.I found no problems with the people who worked in the building.  The front desk was helpful, the people tending to the (free) breakfast buffet were circulating constantly to keep the breakfast area clean, which was a challenge during the busy times.  The bartender in the hotel restaurant was also a good conversationalist.The hotel has a shuttle, but I had my own car.  Having your own car was quite maddening at times as the hotel is at the intersection of two busy limited access highways and it took time to figure out how to enter and exit the property from different directions (Heading towards the airport or the Gaylord Texan?  Exit near Fuddruckers and drive around the block).  I only used the housekeeping twice during my stay.  It was just me, and I was in the room to sleep and shower for most of the time.  I found that they do a good job of cleaning and straightening the room.The hotel is near several restaurants, the Grapevine Mills mall, and only a few miles from the airport.  I will try to stay again in the future, if I am back in the area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded January 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2017</t>
+  </si>
+  <si>
+    <t>I was in the hotel for an extended stay (~1 week), and found the location to be enjoyable.  The rooms were clean and quiet.  The internet was sufficient for checking email and general web surfing.  Even the shower pressure was decent.I found no problems with the people who worked in the building.  The front desk was helpful, the people tending to the (free) breakfast buffet were circulating constantly to keep the breakfast area clean, which was a challenge during the busy times.  The bartender in the hotel restaurant was also a good conversationalist.The hotel has a shuttle, but I had my own car.  Having your own car was quite maddening at times as the hotel is at the intersection of two busy limited access highways and it took time to figure out how to enter and exit the property from different directions (Heading towards the airport or the Gaylord Texan?  Exit near Fuddruckers and drive around the block).  I only used the housekeeping twice during my stay.  It was just me, and I was in the room to sleep and shower for most of the time.  I found that they do a good job of cleaning and straightening the room.The hotel is near several restaurants, the Grapevine Mills mall, and only a few miles from the airport.  I will try to stay again in the future, if I am back in the area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r441330229-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>441330229</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Ehhh....</t>
+  </si>
+  <si>
+    <t>This is one of those places where you say to yourself, "I can take it or leave". I'll definitely leave it. The housekeeping staff sucks. We waited for a cleaning for the better half of two hours, after calling down twice, and when I left out to run some errands, I stopped pass the front desk to see when they were going to send up someone and the receptionist told me that they were gone for the day. She said that the housekeeping manager said that she came to our door and we told her to come back, and then when she came back we were sleep. This was a complete and total LIE!!! All I could do was just walk away, to keep from cussing. Needless to say, out of a four day stay, we NEVER HAD OUR ROOM CLEANED!!! The only reason that I'm giving this place three stars, instead of two, is because the room was set up for an extended stay and the gentleman in their bar area was extremely nice and welcoming but I won't be coming back, nor do I recommend anyone else staying here either. They should never lie on the customer, just own up to it and say "we forgot" or "I'm sorry but we couldn't get to your room" but to LIE and make it MY FAULT is totally unacceptable.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>Michael W, Front Office Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded December 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2016</t>
+  </si>
+  <si>
+    <t>This is one of those places where you say to yourself, "I can take it or leave". I'll definitely leave it. The housekeeping staff sucks. We waited for a cleaning for the better half of two hours, after calling down twice, and when I left out to run some errands, I stopped pass the front desk to see when they were going to send up someone and the receptionist told me that they were gone for the day. She said that the housekeeping manager said that she came to our door and we told her to come back, and then when she came back we were sleep. This was a complete and total LIE!!! All I could do was just walk away, to keep from cussing. Needless to say, out of a four day stay, we NEVER HAD OUR ROOM CLEANED!!! The only reason that I'm giving this place three stars, instead of two, is because the room was set up for an extended stay and the gentleman in their bar area was extremely nice and welcoming but I won't be coming back, nor do I recommend anyone else staying here either. They should never lie on the customer, just own up to it and say "we forgot" or "I'm sorry but we couldn't get to your room" but to LIE and make it MY FAULT is totally unacceptable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r424856522-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>424856522</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>Here now.  The good.  The staff at check in  was great.  There was a mess up w our reservation and we were given a studio instead of a 1 bedroom and Maria (pretty sure that is her name) was excellent.  She corrected the mistake w outstanding customer service.  The hotel is recently renovated which its Embassy Suites neighbor sorely needs. The negative.  The nightly Managers Reception which I usually thoroughly enjoy was very sad.  Nothing more than some chips and veggies and ranch dip.  When we inquired about the traditional (and advertised) RI "Eat Meet Mix" receptions the employee looked at us like we were crazy and said.  "We can't do that in Texas". Ironically, the Embassy Suites next door has no problem doing it.  If a newly renovated room is important to you.  RI wins.  If the decent happy hour is important then Embassy Suites wins.  But RI shouldn't advertise something it doesn't plan to fulfill. Nor should its employees bait and switch and then make the guests feel bad for expecting what other RI's offer.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Here now.  The good.  The staff at check in  was great.  There was a mess up w our reservation and we were given a studio instead of a 1 bedroom and Maria (pretty sure that is her name) was excellent.  She corrected the mistake w outstanding customer service.  The hotel is recently renovated which its Embassy Suites neighbor sorely needs. The negative.  The nightly Managers Reception which I usually thoroughly enjoy was very sad.  Nothing more than some chips and veggies and ranch dip.  When we inquired about the traditional (and advertised) RI "Eat Meet Mix" receptions the employee looked at us like we were crazy and said.  "We can't do that in Texas". Ironically, the Embassy Suites next door has no problem doing it.  If a newly renovated room is important to you.  RI wins.  If the decent happy hour is important then Embassy Suites wins.  But RI shouldn't advertise something it doesn't plan to fulfill. Nor should its employees bait and switch and then make the guests feel bad for expecting what other RI's offer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r418676397-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>418676397</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Excellent location, free airport shuttle and great customer service!</t>
+  </si>
+  <si>
+    <t>First time to this property.  They have omelette bar 2 days/week.  This is the only Residence Inn that I've ever had omelettes. Free, fast shuttle to/from DFW and local shopping.  Many dining choices within a 10 minute drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded September 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2016</t>
+  </si>
+  <si>
+    <t>First time to this property.  They have omelette bar 2 days/week.  This is the only Residence Inn that I've ever had omelettes. Free, fast shuttle to/from DFW and local shopping.  Many dining choices within a 10 minute drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r381269064-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>381269064</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad start.  Great staff.  </t>
+  </si>
+  <si>
+    <t>Shuttle service from the airport was terrible.  We waited for over an hour after a 19 hour journey.  Matt the front desk guy was awesome! He really made the difference. Dining options in the sister property next door closed early because it was a slow night apparently! Breakfast is basic but very good.  We enjoyed the waffles! Will be back.  Thank you.  MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 13, 2016</t>
+  </si>
+  <si>
+    <t>Shuttle service from the airport was terrible.  We waited for over an hour after a 19 hour journey.  Matt the front desk guy was awesome! He really made the difference. Dining options in the sister property next door closed early because it was a slow night apparently! Breakfast is basic but very good.  We enjoyed the waffles! Will be back.  Thank you.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r378048199-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>378048199</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and comfortable </t>
+  </si>
+  <si>
+    <t>We stayed 2 nights with our 2 toddlers. Our studio room was spacious and most importantly- clean! The staff was all extremely friendly and helpful. The breakfast was great with plenty of variety. Would definitely recommend and stay there again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed 2 nights with our 2 toddlers. Our studio room was spacious and most importantly- clean! The staff was all extremely friendly and helpful. The breakfast was great with plenty of variety. Would definitely recommend and stay there again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r376918108-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>376918108</t>
+  </si>
+  <si>
+    <t>05/26/2016</t>
+  </si>
+  <si>
+    <t>Hotel nice but shuttle service horrible.</t>
+  </si>
+  <si>
+    <t>I call for shuttle service to hotel and wait right where they tell me.I waited 40 minutes on the shuttle . When he finally gets there he drives right past me. I chase him down and he keeps going.When he finally comes back around he says he didn't see me.  Doesn't attempt to help me with my bags.I said how can you see me when you are on the phone and don't even slow down.  He starts blaming me that I didn't wave big enough and then he starts blaming the hotel that he just got there and they should have sent out the driver before him.I told him in a customer service industry he should say I am so sorry that I didn't see you ... Instead he blamed everyone else from the hotel to me. Then he gets back on the phone to his personal call and talks on the phone the next 10 minutes to the hotel. Doesn't attempt to help me with my bags and then speeds off while still on the phone. I have to say.... First impressions of how this hotel is being run...horrible if that is the type of employee they hire.I check in and there is sweet Mariam.If everyone had employees like her we'd all be millionaires. Unfortunately the hotel shuttle driver ruined it for meMoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded May 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2016</t>
+  </si>
+  <si>
+    <t>I call for shuttle service to hotel and wait right where they tell me.I waited 40 minutes on the shuttle . When he finally gets there he drives right past me. I chase him down and he keeps going.When he finally comes back around he says he didn't see me.  Doesn't attempt to help me with my bags.I said how can you see me when you are on the phone and don't even slow down.  He starts blaming me that I didn't wave big enough and then he starts blaming the hotel that he just got there and they should have sent out the driver before him.I told him in a customer service industry he should say I am so sorry that I didn't see you ... Instead he blamed everyone else from the hotel to me. Then he gets back on the phone to his personal call and talks on the phone the next 10 minutes to the hotel. Doesn't attempt to help me with my bags and then speeds off while still on the phone. I have to say.... First impressions of how this hotel is being run...horrible if that is the type of employee they hire.I check in and there is sweet Mariam.If everyone had employees like her we'd all be millionaires. Unfortunately the hotel shuttle driver ruined it for meMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r366589863-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>366589863</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Clean Suites- Great Shuttle Service</t>
+  </si>
+  <si>
+    <t>This Residence Inn is located north of DFW (10 minutes) near a Bass Pro Shop complex and a shopping mall. I'm not into fishing or malls so to me it's another clean hotel with a small bar and ample breakfast which gets 4 stars in the way of rating a clean hotel for business travel. I was on the 8th floor and the room was pretty sound proof...no airplane/highway noise. The suite style room was super clean. Bedding/towels were clean and not worn out...full size kitchen area was impressive which I had no use for, but great if you are there for an extended stay. I did eat dinner one night in the hotel bar. It was just okay- it filled the void for an exhausted traveller. But the shuttle will take you anywhere within reason for some great dinner options- so take advantage if you are willing. The drivers and front desk were very sociable and had plenty of nearby dinner recommendations. Breakfasts in the hotel were generous with the usual fresh assortment of pastry and fruit along with coffee and an extended assortment of teas with To Go cups (with good covers-win!)- waffles, eggs, egg bacon sandwiches...along with grab and go items. Overall- it's a good stay for business travelers especially if you are there for a few days. Fitness Center attached and whirlpool/swimming pool outside.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded April 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2016</t>
+  </si>
+  <si>
+    <t>This Residence Inn is located north of DFW (10 minutes) near a Bass Pro Shop complex and a shopping mall. I'm not into fishing or malls so to me it's another clean hotel with a small bar and ample breakfast which gets 4 stars in the way of rating a clean hotel for business travel. I was on the 8th floor and the room was pretty sound proof...no airplane/highway noise. The suite style room was super clean. Bedding/towels were clean and not worn out...full size kitchen area was impressive which I had no use for, but great if you are there for an extended stay. I did eat dinner one night in the hotel bar. It was just okay- it filled the void for an exhausted traveller. But the shuttle will take you anywhere within reason for some great dinner options- so take advantage if you are willing. The drivers and front desk were very sociable and had plenty of nearby dinner recommendations. Breakfasts in the hotel were generous with the usual fresh assortment of pastry and fruit along with coffee and an extended assortment of teas with To Go cups (with good covers-win!)- waffles, eggs, egg bacon sandwiches...along with grab and go items. Overall- it's a good stay for business travelers especially if you are there for a few days. Fitness Center attached and whirlpool/swimming pool outside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r366081329-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>366081329</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Perfect stay!</t>
+  </si>
+  <si>
+    <t>We experienced a true "Marriott" stay at this property.  The breakfast attendant is out of this world amazing and makes you feel like the place is her own.  The room was amazing and you can tell the staff loves what they do.  The location is perfect and if you want a place that you don't have to get back in your car and fight traffic, this is the place!  We were the annoying guests that forgot our Ipad.  They immediately sent it back to me!  I have to mention that you can walk to Bass Pro and they offer a shuttle to all Grapevine venues including Grapevine Mills Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We experienced a true "Marriott" stay at this property.  The breakfast attendant is out of this world amazing and makes you feel like the place is her own.  The room was amazing and you can tell the staff loves what they do.  The location is perfect and if you want a place that you don't have to get back in your car and fight traffic, this is the place!  We were the annoying guests that forgot our Ipad.  They immediately sent it back to me!  I have to mention that you can walk to Bass Pro and they offer a shuttle to all Grapevine venues including Grapevine Mills Mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r361012484-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>361012484</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Stayed night before flight out of DFW</t>
+  </si>
+  <si>
+    <t>Performed the reservations with mobile phone application.   The check in was easy and fast.   The room and property were clean, the laundry room that was a very needed necessity since I had been traveling for over two weeks and needed a laundry room.   The laundry room was clean and had adequate number of machines for me to do all my laundry at once.   This hotel is right in the landing path of the airport and you can hear landing aircraft when outside, however I was surprised that I couldn't hear any airport noise inside my room.   I would stay here again if having an early morning flight out of DFW again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2016</t>
+  </si>
+  <si>
+    <t>Performed the reservations with mobile phone application.   The check in was easy and fast.   The room and property were clean, the laundry room that was a very needed necessity since I had been traveling for over two weeks and needed a laundry room.   The laundry room was clean and had adequate number of machines for me to do all my laundry at once.   This hotel is right in the landing path of the airport and you can hear landing aircraft when outside, however I was surprised that I couldn't hear any airport noise inside my room.   I would stay here again if having an early morning flight out of DFW again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r350679825-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>350679825</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Dissapointing</t>
+  </si>
+  <si>
+    <t>Checked in today (on a Wed) for 3 days.  This chain is one of my favorites, as I enjoy the Manager's receptions Mon-Thur.Problem 1- this hotel only has it Mon-Wed.Problem 2- tonight, the so-called reception is some dessert squares and popcorn (which ran out).  Seriously?  What happened to finger food and beer and wine?  Have never seen this at a Residence Inn. Already regretting I even checked in.I stayed at the Staybridge Suites across the street for the last 3 nights.  I moved over to take advantage of a Marriott promotion.  Over there, they had beer and wine each night and some great finger food (tonight included).Also, the window's here don't open which is also disappointing.  I prefer fresh air to recycled air.  The windows opened across the street at the Staybridge.Lastly, I've been given a handicapped room.  I am far from handicapped.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2016</t>
+  </si>
+  <si>
+    <t>Checked in today (on a Wed) for 3 days.  This chain is one of my favorites, as I enjoy the Manager's receptions Mon-Thur.Problem 1- this hotel only has it Mon-Wed.Problem 2- tonight, the so-called reception is some dessert squares and popcorn (which ran out).  Seriously?  What happened to finger food and beer and wine?  Have never seen this at a Residence Inn. Already regretting I even checked in.I stayed at the Staybridge Suites across the street for the last 3 nights.  I moved over to take advantage of a Marriott promotion.  Over there, they had beer and wine each night and some great finger food (tonight included).Also, the window's here don't open which is also disappointing.  I prefer fresh air to recycled air.  The windows opened across the street at the Staybridge.Lastly, I've been given a handicapped room.  I am far from handicapped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r341581227-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>341581227</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Amazing!! with a few little hiccups</t>
+  </si>
+  <si>
+    <t>Lee working the front desk was amazing!!  He was super friendly and very knowledgeable.  Very accommodating!!  Sheran worked the front desk when we were waiting for our shuttle to take a family member to the airport.  We were down there on time and never saw the driver come in but we saw the shuttle waiting outside.  Next thing we knew he was driving off.  The next shuttle was not for another 30 minutes therefore a chance to miss the plane.  Sheran called the driver, etc. We signed up the night before for the shuttle but the driver left anyway without his count of passengers.  Sheran went above and beyond her scope of work.....she drove our family member to the airport herself to make sure the plane was not missed!!!  Kuddos to you Sheran for your great Customer Service and generosity!!  Will not stay anywhere else when taking a plane out of DFW!!!  The breakfast is SO good and the hotel is kept very clean.....  We stayed in the suite........bed was SO comfy, room was wonderful and the shower pressure was awesome...  The shower water backed up to my ankles and the caulking was coming off in some places.  The writing was still on the marble in the shower from when they were building it.  All in all, the events with the staff helped me over look the hiccups in the other stuff....MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2016</t>
+  </si>
+  <si>
+    <t>Lee working the front desk was amazing!!  He was super friendly and very knowledgeable.  Very accommodating!!  Sheran worked the front desk when we were waiting for our shuttle to take a family member to the airport.  We were down there on time and never saw the driver come in but we saw the shuttle waiting outside.  Next thing we knew he was driving off.  The next shuttle was not for another 30 minutes therefore a chance to miss the plane.  Sheran called the driver, etc. We signed up the night before for the shuttle but the driver left anyway without his count of passengers.  Sheran went above and beyond her scope of work.....she drove our family member to the airport herself to make sure the plane was not missed!!!  Kuddos to you Sheran for your great Customer Service and generosity!!  Will not stay anywhere else when taking a plane out of DFW!!!  The breakfast is SO good and the hotel is kept very clean.....  We stayed in the suite........bed was SO comfy, room was wonderful and the shower pressure was awesome...  The shower water backed up to my ankles and the caulking was coming off in some places.  The writing was still on the marble in the shower from when they were building it.  All in all, the events with the staff helped me over look the hiccups in the other stuff....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r327222205-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>327222205</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Good hotel</t>
+  </si>
+  <si>
+    <t>There is a free bus shuttle to the airport.Around the area there is a huge mall, food court and at walking distance from the hotel there are some restaurants and burgers. The hotel is quite good, clean. The breakfast could be more inviting but at the end for few days is quite honest.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Joseph C, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded November 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 17, 2015</t>
+  </si>
+  <si>
+    <t>There is a free bus shuttle to the airport.Around the area there is a huge mall, food court and at walking distance from the hotel there are some restaurants and burgers. The hotel is quite good, clean. The breakfast could be more inviting but at the end for few days is quite honest.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r301908094-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>301908094</t>
+  </si>
+  <si>
+    <t>08/21/2015</t>
+  </si>
+  <si>
+    <t>Excellant</t>
+  </si>
+  <si>
+    <t>Very pleased with the condition, cleanliness, and friendliness of the staff.There appeared to a major event taking place and the hotel had a lot of attendees staying there. Although there quite a few people checking in all at the same time there was plenty of staff and check in was quick.I'm always impressed when management anticipates potential situations and plans accordingly.Rooms were great! Everything in good repair and nicely furnished. Bed was very comfortable.I will stay here again and highly recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Very pleased with the condition, cleanliness, and friendliness of the staff.There appeared to a major event taking place and the hotel had a lot of attendees staying there. Although there quite a few people checking in all at the same time there was plenty of staff and check in was quick.I'm always impressed when management anticipates potential situations and plans accordingly.Rooms were great! Everything in good repair and nicely furnished. Bed was very comfortable.I will stay here again and highly recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r301022991-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>301022991</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>Hotel is Good If You Can Get a Ride</t>
+  </si>
+  <si>
+    <t>We used this hotel twice for our quarterly meetings because of its proximity to the airport. (Only 5-10 minutes away) In both of my experiences I called for the shuttle. The first tie i was left at the airport for 3 hours. The second time I was left for 1 hour. When I attempted to use the service to leave I was told at he front desk have a seat and the shuttle will leave shortly. The shuttle left me. I went to the desk and notified the attendant. He ran outside and tried to stop the shuttle.. He had to call him on the phone to get him to come back. Luckily I didn't have a close flight. The rooms are good the food is good the people seem nice but the shuttle service is un-organized. at least on the evening shifts. Have not experienced the morning shift.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>We used this hotel twice for our quarterly meetings because of its proximity to the airport. (Only 5-10 minutes away) In both of my experiences I called for the shuttle. The first tie i was left at the airport for 3 hours. The second time I was left for 1 hour. When I attempted to use the service to leave I was told at he front desk have a seat and the shuttle will leave shortly. The shuttle left me. I went to the desk and notified the attendant. He ran outside and tried to stop the shuttle.. He had to call him on the phone to get him to come back. Luckily I didn't have a close flight. The rooms are good the food is good the people seem nice but the shuttle service is un-organized. at least on the evening shifts. Have not experienced the morning shift.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r292141787-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>292141787</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Fantastic Stay and Exellent Customer Service!!</t>
+  </si>
+  <si>
+    <t>We had booked a one-bedroom King suite for our stay for our family of four.  We arrived prior to check-in time and Lee at the front desk was wonderful to us.  He found a room for us quickly, even though we were early.  He was very informative and gave us all sorts of tips and information for the area.  He told us of all the amenities and times of everything at the hotel.  Lee goes above and beyond and you can tell he loves helping people which is a great asset to this Residence Inn!  It was a very quiet hotel and was over 85% booked that particular Sunday.  It was booked even more the nights after and was extremely quiet.  It was very clean and organized.  We always like to stay at Residence Inn and I rank this particular location at the top!  They provide free Wi-Fi.  I had problems at first connecting our laptop and XBox and called the front desk and Lee called me by my name when he answered the phone.  Great personal touch!  He had their internet service provide call me back and they had us up and going in no time.  There is no indoor pool but the outdoor pool was clean and just right for our family.  The workout room worked out great for our sons and it was not crowded when they went which was later in the evening.  The breakfast was...We had booked a one-bedroom King suite for our stay for our family of four.  We arrived prior to check-in time and Lee at the front desk was wonderful to us.  He found a room for us quickly, even though we were early.  He was very informative and gave us all sorts of tips and information for the area.  He told us of all the amenities and times of everything at the hotel.  Lee goes above and beyond and you can tell he loves helping people which is a great asset to this Residence Inn!  It was a very quiet hotel and was over 85% booked that particular Sunday.  It was booked even more the nights after and was extremely quiet.  It was very clean and organized.  We always like to stay at Residence Inn and I rank this particular location at the top!  They provide free Wi-Fi.  I had problems at first connecting our laptop and XBox and called the front desk and Lee called me by my name when he answered the phone.  Great personal touch!  He had their internet service provide call me back and they had us up and going in no time.  There is no indoor pool but the outdoor pool was clean and just right for our family.  The workout room worked out great for our sons and it was not crowded when they went which was later in the evening.  The breakfast was great.  They had items such as scrambled eggs, bacon, sausage, waffles, oatmeal, yogurt, milk, juices, bagels, donuts, fruit and other things as well.  It was a well rounded breakfast with a great selection.  On Tuesdays and Wednesdays, the gentleman that appears to run the breakfast area will custom make omelettes for you and does an excellent job.  The entire staff at this hotel was excellent.  I can't say enough about this particular location.  We will definitely stay here again when we come back to Grapevine!  Thank you Residence Inn Grapevine for a wonderful stay and thank you Lee for your excellent customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded July 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2015</t>
+  </si>
+  <si>
+    <t>We had booked a one-bedroom King suite for our stay for our family of four.  We arrived prior to check-in time and Lee at the front desk was wonderful to us.  He found a room for us quickly, even though we were early.  He was very informative and gave us all sorts of tips and information for the area.  He told us of all the amenities and times of everything at the hotel.  Lee goes above and beyond and you can tell he loves helping people which is a great asset to this Residence Inn!  It was a very quiet hotel and was over 85% booked that particular Sunday.  It was booked even more the nights after and was extremely quiet.  It was very clean and organized.  We always like to stay at Residence Inn and I rank this particular location at the top!  They provide free Wi-Fi.  I had problems at first connecting our laptop and XBox and called the front desk and Lee called me by my name when he answered the phone.  Great personal touch!  He had their internet service provide call me back and they had us up and going in no time.  There is no indoor pool but the outdoor pool was clean and just right for our family.  The workout room worked out great for our sons and it was not crowded when they went which was later in the evening.  The breakfast was...We had booked a one-bedroom King suite for our stay for our family of four.  We arrived prior to check-in time and Lee at the front desk was wonderful to us.  He found a room for us quickly, even though we were early.  He was very informative and gave us all sorts of tips and information for the area.  He told us of all the amenities and times of everything at the hotel.  Lee goes above and beyond and you can tell he loves helping people which is a great asset to this Residence Inn!  It was a very quiet hotel and was over 85% booked that particular Sunday.  It was booked even more the nights after and was extremely quiet.  It was very clean and organized.  We always like to stay at Residence Inn and I rank this particular location at the top!  They provide free Wi-Fi.  I had problems at first connecting our laptop and XBox and called the front desk and Lee called me by my name when he answered the phone.  Great personal touch!  He had their internet service provide call me back and they had us up and going in no time.  There is no indoor pool but the outdoor pool was clean and just right for our family.  The workout room worked out great for our sons and it was not crowded when they went which was later in the evening.  The breakfast was great.  They had items such as scrambled eggs, bacon, sausage, waffles, oatmeal, yogurt, milk, juices, bagels, donuts, fruit and other things as well.  It was a well rounded breakfast with a great selection.  On Tuesdays and Wednesdays, the gentleman that appears to run the breakfast area will custom make omelettes for you and does an excellent job.  The entire staff at this hotel was excellent.  I can't say enough about this particular location.  We will definitely stay here again when we come back to Grapevine!  Thank you Residence Inn Grapevine for a wonderful stay and thank you Lee for your excellent customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r273178995-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>273178995</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>CAAB</t>
+  </si>
+  <si>
+    <t>Great location, staff and in a very central location to a huge outlet Mall, and lots of restaurants. Very near the center of Grapevine.Excellent free breakfast and some days, snacks at night. Too bad they discontinued free happy hour some of the days.Facilities for a BBQ and washer &amp; dryer.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 21, 2015</t>
+  </si>
+  <si>
+    <t>Great location, staff and in a very central location to a huge outlet Mall, and lots of restaurants. Very near the center of Grapevine.Excellent free breakfast and some days, snacks at night. Too bad they discontinued free happy hour some of the days.Facilities for a BBQ and washer &amp; dryer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r273118834-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>273118834</t>
+  </si>
+  <si>
+    <t>Convenient Location, Great Staff, Very Good Suburb/Airport Hotel</t>
+  </si>
+  <si>
+    <t>Stayed a night at Residence Inn DFW/Grapevine for a wedding. The location is close enough to the airport, also across the street from a giant mall, and a quick Uber ride to downtown Grapevine. The room was great, the customer service was unbeatable. The only issue I had was the "free shuttle". It seemed like it was always booked, and you had to call well ahead to get it to take you somewhere. Not the worst thing, but I didn't use it for Airport transportation at all because I didn't schedule it in advance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed a night at Residence Inn DFW/Grapevine for a wedding. The location is close enough to the airport, also across the street from a giant mall, and a quick Uber ride to downtown Grapevine. The room was great, the customer service was unbeatable. The only issue I had was the "free shuttle". It seemed like it was always booked, and you had to call well ahead to get it to take you somewhere. Not the worst thing, but I didn't use it for Airport transportation at all because I didn't schedule it in advance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r270839543-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>270839543</t>
+  </si>
+  <si>
+    <t>05/08/2015</t>
+  </si>
+  <si>
+    <t>Although Our First Room Had People Already in It...Good Stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for two nights for a family wedding in Grapevine.  When we checked in, we were given our room key and were surprised to find people already in our room...however, we weren't as surprised as the individuals we walked in on!   We went back to the front desk and she laughed at her mistake and just gave us a new key and room.  I kept our door bolted our entire stay...just in case that front desk lady had a habit of doing this.The room itself was clean and spacious.  The bed was comfortable and the breakfast each morning had plenty of options.  It was an affordable room with not much to walk to besides a burger place and a Bass Pro shop.  We had a pleasant stay and you will too, if you have a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for two nights for a family wedding in Grapevine.  When we checked in, we were given our room key and were surprised to find people already in our room...however, we weren't as surprised as the individuals we walked in on!   We went back to the front desk and she laughed at her mistake and just gave us a new key and room.  I kept our door bolted our entire stay...just in case that front desk lady had a habit of doing this.The room itself was clean and spacious.  The bed was comfortable and the breakfast each morning had plenty of options.  It was an affordable room with not much to walk to besides a burger place and a Bass Pro shop.  We had a pleasant stay and you will too, if you have a car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r267008199-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>267008199</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I stayed here in October 2014, so my review is a little late. I'll start with the positives: this hotel has amazing staff, whether at the front desk, in the breakfast area, or at the bar. The bed was comfortable, water was hot, the food was decent, the coffee was great, and the TV was giant. Now the cons: whoever installed a motion controlled air conditioning system in Texas must not be from or live in Texas and should have to suffer through a hotel stay using it.  If you're asleep the A/C shuts off and it takes a while to kick on and cool the room down. Second, the location is a pain to get to/from by car. That being said, the mall is across the street and Bass Pro Shops is walking distance across the parking lot, and there are a few fast food places in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded April 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here in October 2014, so my review is a little late. I'll start with the positives: this hotel has amazing staff, whether at the front desk, in the breakfast area, or at the bar. The bed was comfortable, water was hot, the food was decent, the coffee was great, and the TV was giant. Now the cons: whoever installed a motion controlled air conditioning system in Texas must not be from or live in Texas and should have to suffer through a hotel stay using it.  If you're asleep the A/C shuts off and it takes a while to kick on and cool the room down. Second, the location is a pain to get to/from by car. That being said, the mall is across the street and Bass Pro Shops is walking distance across the parking lot, and there are a few fast food places in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r266916928-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>266916928</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Super service, comfortable room, but..........</t>
+  </si>
+  <si>
+    <t>I just got back from a meeting held at this location.  The service at Residence Inn is outstanding.  Karen deserves a round of applause and commendation for the extraordinary care and attentiveness she brings to her job.  The room was spacious and clean, but I was disappointed to see water damage in the bathroom above the shower.  I brought it to the attention of the front desk, and was told it would be looked into.  I heard nothing more.  The room was functional, but I was disappointed that the room was not up to the standards I expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>I just got back from a meeting held at this location.  The service at Residence Inn is outstanding.  Karen deserves a round of applause and commendation for the extraordinary care and attentiveness she brings to her job.  The room was spacious and clean, but I was disappointed to see water damage in the bathroom above the shower.  I brought it to the attention of the front desk, and was told it would be looked into.  I heard nothing more.  The room was functional, but I was disappointed that the room was not up to the standards I expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r265760527-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>265760527</t>
+  </si>
+  <si>
+    <t>04/14/2015</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This is my 2nd time to stay here. My handicap room was very nice. I don't understand why they are SO far from the elevators?Breakfast is great, service is attentive, hotel feels fresh &amp; clean after being recently remodeled. Would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded April 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2015</t>
+  </si>
+  <si>
+    <t>This is my 2nd time to stay here. My handicap room was very nice. I don't understand why they are SO far from the elevators?Breakfast is great, service is attentive, hotel feels fresh &amp; clean after being recently remodeled. Would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r251196348-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>251196348</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>a perfect place to stay close to the airport</t>
+  </si>
+  <si>
+    <t>Everything so cosy and neat, the staff is amazingly nice and welcoming, starting from the front desk, to the sweet lady at breakfast.the rooms are spacious and the kitchen is fully equipped.the location is good for a walk, or jogging session, or even going shopping or dining.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Everything so cosy and neat, the staff is amazingly nice and welcoming, starting from the front desk, to the sweet lady at breakfast.the rooms are spacious and the kitchen is fully equipped.the location is good for a walk, or jogging session, or even going shopping or dining.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r249053490-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>249053490</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>Team was extremely helpful from the get go. Brandi answered me when I called and requested shuttle service from the airport to the hotel and she even coached me where to go to quickly get to a pick up spot. She was very helpful upon check in - particularly because I'm quite needy. Great place to stay if you're doing business close to the airport. The hotel restaurant is good and the service was solid. The entire team was pretty friendly and eager to help. I'd definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2015</t>
+  </si>
+  <si>
+    <t>Team was extremely helpful from the get go. Brandi answered me when I called and requested shuttle service from the airport to the hotel and she even coached me where to go to quickly get to a pick up spot. She was very helpful upon check in - particularly because I'm quite needy. Great place to stay if you're doing business close to the airport. The hotel restaurant is good and the service was solid. The entire team was pretty friendly and eager to help. I'd definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r240491900-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>240491900</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>Excellent Airport Property</t>
+  </si>
+  <si>
+    <t>We spent one night at the Residence Inn prior to travel from DFW.  The hotel shuttle was quick and efficient in getting us to/from the hotel.  The staff members were friendly and professional.  We stayed in a very nice suite with a stovetop, full-size refrigerator and a microwave.  We were at the property on a Sunday night and a dinner buffet was served from 5:30P – 7:30P.  It was a nice treat!  In addition to complimentary beer and wine, there was a baked rice dish, a pasta dish, chili and a mixed green salad.  There also were several desserts.  It was a filling and delicious meal!  The following morning, a breakfast buffet was served in the same area.  It featured both hot and cold items including scrambled eggs with cheese, breakfast meats, roasted potatoes, oatmeal, cold cereal, bagels, toast, etc. along with fresh fruit and juices.  We enjoyed our stay and recommend this property to others!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>We spent one night at the Residence Inn prior to travel from DFW.  The hotel shuttle was quick and efficient in getting us to/from the hotel.  The staff members were friendly and professional.  We stayed in a very nice suite with a stovetop, full-size refrigerator and a microwave.  We were at the property on a Sunday night and a dinner buffet was served from 5:30P – 7:30P.  It was a nice treat!  In addition to complimentary beer and wine, there was a baked rice dish, a pasta dish, chili and a mixed green salad.  There also were several desserts.  It was a filling and delicious meal!  The following morning, a breakfast buffet was served in the same area.  It featured both hot and cold items including scrambled eggs with cheese, breakfast meats, roasted potatoes, oatmeal, cold cereal, bagels, toast, etc. along with fresh fruit and juices.  We enjoyed our stay and recommend this property to others!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r236819346-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>236819346</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Average (Attempted Scam)</t>
+  </si>
+  <si>
+    <t>You could say this is a somewhat typical Residence Inn. Located north of DFW - our GPS could not find it. After much frustration, call to the property and getting on the expressway by accident, we were told when we arrived the address given on their website was their MAILING address. Now that would have been nice to know ahead of time! Was told to use the "Bass Pro Drive" address for GPS. Again, would have been nice to know ahead of time.  They do not have an entrance to their property off the main street in front of the hotel. So, if you are using your GPS, please save yourself much frustration and use the address for the Bass Pro Shop. Residence Inn is across the parking lot from them.  
+This hotel is what you'd typically expect. Initially, it had that hotel perfume smell which I do not care for at all.  Makes me wonder what they are trying to cover up!
+The staff was very friendly which was nice. The room was just about average - some minor cosmetic issues (loose tile in the bathroom, nicked tub, light bulbs out in light fixture).  Other than that, was o.k. for a few days. Don't hear any road noise despite the fact they are located between a major highway and a major thoroughfare.
+The lobby is very pretty and gives a warm feeling. They have a bar/restaurant (very small) but...You could say this is a somewhat typical Residence Inn. Located north of DFW - our GPS could not find it. After much frustration, call to the property and getting on the expressway by accident, we were told when we arrived the address given on their website was their MAILING address. Now that would have been nice to know ahead of time! Was told to use the "Bass Pro Drive" address for GPS. Again, would have been nice to know ahead of time.  They do not have an entrance to their property off the main street in front of the hotel. So, if you are using your GPS, please save yourself much frustration and use the address for the Bass Pro Shop. Residence Inn is across the parking lot from them.  This hotel is what you'd typically expect. Initially, it had that hotel perfume smell which I do not care for at all.  Makes me wonder what they are trying to cover up!The staff was very friendly which was nice. The room was just about average - some minor cosmetic issues (loose tile in the bathroom, nicked tub, light bulbs out in light fixture).  Other than that, was o.k. for a few days. Don't hear any road noise despite the fact they are located between a major highway and a major thoroughfare.The lobby is very pretty and gives a warm feeling. They have a bar/restaurant (very small) but adequate if you don't want to go out. They will also take you anywhere within a 5 mile radius free of charge on their shuttle which is really a nice ammenity.  While we were sleeping the first night of our stay, we had a call at 1:30 AM. The man on the other end said he was sorry to call us at this time, but the hotel computer had a problem and lost 30% of the guests information. Due to Texas law and safety issues, we needed to give them all our information again.  Sounded very professional and convincing! Told him  we would come down to the lobby but was told since there was only one clerk, that would take 30 to 40 min.  My husband said he would return the call and was told "no" as the man calling had to be on the phone with other guests.  Yes, it was a potential scam. Other guests reported as well.  My husband called the front desk and asked the night clerk to call police to which she replied it wouldn't do any good. He insisted. The police came to the property (called us) and searched every floor. We were told it had to be someone in the hotel as no calls came from the outside. Not a very safe feeling.  Next morning we asked the desk clerk what the result of the investigation was and she had no idea what we were talking about. She said the night clerk had not mentioned it to her when she went off duty.  She phoned the property manager who was not on property and he subsequently called us. He was not aware either. Told us that the policy of the hotel is that if cops are called, the property manager must be notified immediately.  He was not informed.  Kind of makes you wonder.  If we had not had plans for the day and had to leave immediately, we would have checked out of the hotel. The manager did offer for us to change rooms, but we didn't really see the point in that with our checking out in the a.m.  We stayed the second night and no further incidents.The breakfast is good - only scrambled eggs with cheese on top though and one breakfast meat. The sausage patty seemed overcooked - probably from sitting in the heater. They had yogurt, fresh fruit, oatmeal, toast, bagels, waffle machine...all the usual. The lady who ran the breakfast was very accommodating and helpful.  They even had take out boxes in case you needed food to go. (Also had REAL coffee cups and silverware.)Overall, this was an average place to stay. The best was the friendly staff (although the housekeeper didn't speak English and we had a hard time asking her to bring us towels.). Would probably try someplace else next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded October 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2014</t>
+  </si>
+  <si>
+    <t>You could say this is a somewhat typical Residence Inn. Located north of DFW - our GPS could not find it. After much frustration, call to the property and getting on the expressway by accident, we were told when we arrived the address given on their website was their MAILING address. Now that would have been nice to know ahead of time! Was told to use the "Bass Pro Drive" address for GPS. Again, would have been nice to know ahead of time.  They do not have an entrance to their property off the main street in front of the hotel. So, if you are using your GPS, please save yourself much frustration and use the address for the Bass Pro Shop. Residence Inn is across the parking lot from them.  
+This hotel is what you'd typically expect. Initially, it had that hotel perfume smell which I do not care for at all.  Makes me wonder what they are trying to cover up!
+The staff was very friendly which was nice. The room was just about average - some minor cosmetic issues (loose tile in the bathroom, nicked tub, light bulbs out in light fixture).  Other than that, was o.k. for a few days. Don't hear any road noise despite the fact they are located between a major highway and a major thoroughfare.
+The lobby is very pretty and gives a warm feeling. They have a bar/restaurant (very small) but...You could say this is a somewhat typical Residence Inn. Located north of DFW - our GPS could not find it. After much frustration, call to the property and getting on the expressway by accident, we were told when we arrived the address given on their website was their MAILING address. Now that would have been nice to know ahead of time! Was told to use the "Bass Pro Drive" address for GPS. Again, would have been nice to know ahead of time.  They do not have an entrance to their property off the main street in front of the hotel. So, if you are using your GPS, please save yourself much frustration and use the address for the Bass Pro Shop. Residence Inn is across the parking lot from them.  This hotel is what you'd typically expect. Initially, it had that hotel perfume smell which I do not care for at all.  Makes me wonder what they are trying to cover up!The staff was very friendly which was nice. The room was just about average - some minor cosmetic issues (loose tile in the bathroom, nicked tub, light bulbs out in light fixture).  Other than that, was o.k. for a few days. Don't hear any road noise despite the fact they are located between a major highway and a major thoroughfare.The lobby is very pretty and gives a warm feeling. They have a bar/restaurant (very small) but adequate if you don't want to go out. They will also take you anywhere within a 5 mile radius free of charge on their shuttle which is really a nice ammenity.  While we were sleeping the first night of our stay, we had a call at 1:30 AM. The man on the other end said he was sorry to call us at this time, but the hotel computer had a problem and lost 30% of the guests information. Due to Texas law and safety issues, we needed to give them all our information again.  Sounded very professional and convincing! Told him  we would come down to the lobby but was told since there was only one clerk, that would take 30 to 40 min.  My husband said he would return the call and was told "no" as the man calling had to be on the phone with other guests.  Yes, it was a potential scam. Other guests reported as well.  My husband called the front desk and asked the night clerk to call police to which she replied it wouldn't do any good. He insisted. The police came to the property (called us) and searched every floor. We were told it had to be someone in the hotel as no calls came from the outside. Not a very safe feeling.  Next morning we asked the desk clerk what the result of the investigation was and she had no idea what we were talking about. She said the night clerk had not mentioned it to her when she went off duty.  She phoned the property manager who was not on property and he subsequently called us. He was not aware either. Told us that the policy of the hotel is that if cops are called, the property manager must be notified immediately.  He was not informed.  Kind of makes you wonder.  If we had not had plans for the day and had to leave immediately, we would have checked out of the hotel. The manager did offer for us to change rooms, but we didn't really see the point in that with our checking out in the a.m.  We stayed the second night and no further incidents.The breakfast is good - only scrambled eggs with cheese on top though and one breakfast meat. The sausage patty seemed overcooked - probably from sitting in the heater. They had yogurt, fresh fruit, oatmeal, toast, bagels, waffle machine...all the usual. The lady who ran the breakfast was very accommodating and helpful.  They even had take out boxes in case you needed food to go. (Also had REAL coffee cups and silverware.)Overall, this was an average place to stay. The best was the friendly staff (although the housekeeper didn't speak English and we had a hard time asking her to bring us towels.). Would probably try someplace else next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r234629512-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>234629512</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Clean Hotel and Convenient Location</t>
+  </si>
+  <si>
+    <t>Check in was a breeze and room very clean.  Numerous places to eat and right next to bass pro shops. Walls are thin so if you have people above you, pray they don't have kids running back and forth. Very easy to get to DFW. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 21, 2014</t>
+  </si>
+  <si>
+    <t>Check in was a breeze and room very clean.  Numerous places to eat and right next to bass pro shops. Walls are thin so if you have people above you, pray they don't have kids running back and forth. Very easy to get to DFW. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r233560077-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>233560077</t>
+  </si>
+  <si>
+    <t>10/09/2014</t>
+  </si>
+  <si>
+    <t>Good Hotel with nice service</t>
+  </si>
+  <si>
+    <t>Stayed here for several times. Always clean, friendly and helpful staff. Typically American hotel. Close to BrassPro Shop with a good steak house and Fuddruckers. The breakfast is Texas style with nice picco, jalapenos and several egg choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded October 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for several times. Always clean, friendly and helpful staff. Typically American hotel. Close to BrassPro Shop with a good steak house and Fuddruckers. The breakfast is Texas style with nice picco, jalapenos and several egg choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r226526867-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>226526867</t>
+  </si>
+  <si>
+    <t>09/02/2014</t>
+  </si>
+  <si>
+    <t>I Love This Hotel!!</t>
+  </si>
+  <si>
+    <t>When we go to grapevine, this is our favorite place to stay. Impeccable service and cleanliness.  Cannot say enough. You will be treated well from a proffessional staff and they are friendly and very helpful with whatever you need from directions to whatever else!! The rooms are a wonderful place to kick back and feel right at home with your kitchen and bar, couch, coffee table and bed. Dont hesitate to boom your grapevine stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded September 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2014</t>
+  </si>
+  <si>
+    <t>When we go to grapevine, this is our favorite place to stay. Impeccable service and cleanliness.  Cannot say enough. You will be treated well from a proffessional staff and they are friendly and very helpful with whatever you need from directions to whatever else!! The rooms are a wonderful place to kick back and feel right at home with your kitchen and bar, couch, coffee table and bed. Dont hesitate to boom your grapevine stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r221449163-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>221449163</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Great Business Hotel you are visit the Dallas/Forth Worth metro area</t>
+  </si>
+  <si>
+    <t>Arrived early, no problem for an early check in, very welcoming. Rooms are big, spacious and with great light. Kitchenette available if you want to cook. I went to the near by places and there is also a outlet mall across the street. Perfect match for a 24h stop over for business next to the Airport. Reception service also impeccable. Will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Arrived early, no problem for an early check in, very welcoming. Rooms are big, spacious and with great light. Kitchenette available if you want to cook. I went to the near by places and there is also a outlet mall across the street. Perfect match for a 24h stop over for business next to the Airport. Reception service also impeccable. Will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r216925403-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>216925403</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>One off for an "upscale" RI</t>
+  </si>
+  <si>
+    <t>This property brags about itself being an upscale RI in their in room welcome package.  Is there such a thing?  This property was just average in terms of RIs I have stayed in.  Desk staff could have been a bit more welcoming and receptive.  Airport shuttle was prompt and convenient - offering late night pick-up service. Somehow a shopping list that was dropped off at the front desk with promised delivery the next morning got thrown in the trash and the employee even admitted that they were confused and threw it away.  Room was average and well used - time for new mattresses.  Will likely look for another place to stay next time I have to overnight at DFW.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>This property brags about itself being an upscale RI in their in room welcome package.  Is there such a thing?  This property was just average in terms of RIs I have stayed in.  Desk staff could have been a bit more welcoming and receptive.  Airport shuttle was prompt and convenient - offering late night pick-up service. Somehow a shopping list that was dropped off at the front desk with promised delivery the next morning got thrown in the trash and the employee even admitted that they were confused and threw it away.  Room was average and well used - time for new mattresses.  Will likely look for another place to stay next time I have to overnight at DFW.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r204459175-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>204459175</t>
+  </si>
+  <si>
+    <t>05/07/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel, good area</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 weeks and had a great experience.  Hotel staff was helpful and friendly.    The rooms are large and standard for a residence inn.  It was quiet during the day and at night.  There are plenty of restaurants and shopping in the area.  Hotel shuttle takes you where you want to go if you don't have a car.  I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded May 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for 2 weeks and had a great experience.  Hotel staff was helpful and friendly.    The rooms are large and standard for a residence inn.  It was quiet during the day and at night.  There are plenty of restaurants and shopping in the area.  Hotel shuttle takes you where you want to go if you don't have a car.  I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r203619223-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>203619223</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>From the moment you walk in the door, the staff greets you with a smile and treats you like a valued guest. I got through check-in quickly, and was given a tip as to where to park and which entrance to use that was the most convenient to my room.When I got to my room, it was clean, quiet, spacious and comfortable. I slept great, and had a tasty breakfast the next morning.I can't say enough nice things about this property. If you need a hotel in the area, THIS is the place to choose!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded May 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2014</t>
+  </si>
+  <si>
+    <t>From the moment you walk in the door, the staff greets you with a smile and treats you like a valued guest. I got through check-in quickly, and was given a tip as to where to park and which entrance to use that was the most convenient to my room.When I got to my room, it was clean, quiet, spacious and comfortable. I slept great, and had a tasty breakfast the next morning.I can't say enough nice things about this property. If you need a hotel in the area, THIS is the place to choose!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r201674321-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>201674321</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Don't Miss This Gem!</t>
+  </si>
+  <si>
+    <t>I'm writing this as a guest of this hotel right now.  This is probably one of the best properties I've stayed in during our many trips to Grapevine, TX.From the moment we checked in, everyone we encountered were professional and friendly.  We enjoyed our conversation with Terry, the sales manager as well as Karen who we found out was Marriott Employee of the Year. I can see why with her personality and helpfulness.  She keeps the breakfast top notch with adding her special touches such as blueberries for waffles.  Last night they had a light supper which included two types of soups, pasta, salad with all the trimmings and even included beer and wine.  Karen also had delicious pastries and cheese cake ice cream cones for dessert.  Along with her Easter decorations she went above and beyond.Our room is spacious and has all the comforts of home. King size bed, with pleasant tones of gold and blues for decor.  Kitchen area is fully stocked and immaculately clean.  Whenever I'm in Grapevine, this will be my home.  Great job done by a wonderful staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded April 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2014</t>
+  </si>
+  <si>
+    <t>I'm writing this as a guest of this hotel right now.  This is probably one of the best properties I've stayed in during our many trips to Grapevine, TX.From the moment we checked in, everyone we encountered were professional and friendly.  We enjoyed our conversation with Terry, the sales manager as well as Karen who we found out was Marriott Employee of the Year. I can see why with her personality and helpfulness.  She keeps the breakfast top notch with adding her special touches such as blueberries for waffles.  Last night they had a light supper which included two types of soups, pasta, salad with all the trimmings and even included beer and wine.  Karen also had delicious pastries and cheese cake ice cream cones for dessert.  Along with her Easter decorations she went above and beyond.Our room is spacious and has all the comforts of home. King size bed, with pleasant tones of gold and blues for decor.  Kitchen area is fully stocked and immaculately clean.  Whenever I'm in Grapevine, this will be my home.  Great job done by a wonderful staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r193568627-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>193568627</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>Customer services A#1</t>
+  </si>
+  <si>
+    <t>An extraordinary staff, from the driver, jessica to the Director of sales and marketing Lori Bollman, We stayed one week and they treat us wonderful. I wish we would stayed longer. Nice rooms, with kitchen, outstanding breakfast, very well located. Highly recommended. To all of you thank you for making our statying so pleasent.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded February 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2014</t>
+  </si>
+  <si>
+    <t>An extraordinary staff, from the driver, jessica to the Director of sales and marketing Lori Bollman, We stayed one week and they treat us wonderful. I wish we would stayed longer. Nice rooms, with kitchen, outstanding breakfast, very well located. Highly recommended. To all of you thank you for making our statying so pleasent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r187296719-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>187296719</t>
+  </si>
+  <si>
+    <t>12/10/2013</t>
+  </si>
+  <si>
+    <t>Friendly service, clean rooms, but . . .</t>
+  </si>
+  <si>
+    <t>I can't be more complemintary about how nice and friendly the hotel staff was.  The rooms were spacious and clean.  I will say this though, do not get a room anywhere near (I mean as far away as possible) the elevators.  It's weird, the elevators make this pounding noise that can be heard all the way down the hallway.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded December 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2013</t>
+  </si>
+  <si>
+    <t>I can't be more complemintary about how nice and friendly the hotel staff was.  The rooms were spacious and clean.  I will say this though, do not get a room anywhere near (I mean as far away as possible) the elevators.  It's weird, the elevators make this pounding noise that can be heard all the way down the hallway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r183978667-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>183978667</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>Great value. Great for business and pleasure</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here while I was in Dallas for business. So we combined a business's trip with a personal trip. We really enjoyed this hotel. Our  suite was perfect. We liked the having the on site Resturaunt but only used it for drinks and appetizers (which were great). The staff was friendly and attentive to our needs.  There was an fortune 100 executive convention nearby so there were many executives milling about and everyone got the VIP treatmentMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded November 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 11, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here while I was in Dallas for business. So we combined a business's trip with a personal trip. We really enjoyed this hotel. Our  suite was perfect. We liked the having the on site Resturaunt but only used it for drinks and appetizers (which were great). The staff was friendly and attentive to our needs.  There was an fortune 100 executive convention nearby so there were many executives milling about and everyone got the VIP treatmentMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r175459187-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>175459187</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Weekend get away</t>
+  </si>
+  <si>
+    <t>Our family rescued an 80 lbs Labrador Retriever in Jan. This would be our first "road trip" with him and we needed a pet friendly hotel. My husband found this hotel by calling Marriott directly. It was a perfect match for our needs. Also only 1 of 3 Residence Inn's in the country who offer a full restaurant/bar. Excellent location. Outlet Mall across the street. Bass Pro Shop next door. Multiple restaurantswithin walking distance.We found the staff friendly and helpful.  We stayed in a suite and had all the room we needed. The breakfast fare was excellent. Staffers in the breakfast area on hand to continue the service without interruption. We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded September 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2013</t>
+  </si>
+  <si>
+    <t>Our family rescued an 80 lbs Labrador Retriever in Jan. This would be our first "road trip" with him and we needed a pet friendly hotel. My husband found this hotel by calling Marriott directly. It was a perfect match for our needs. Also only 1 of 3 Residence Inn's in the country who offer a full restaurant/bar. Excellent location. Outlet Mall across the street. Bass Pro Shop next door. Multiple restaurantswithin walking distance.We found the staff friendly and helpful.  We stayed in a suite and had all the room we needed. The breakfast fare was excellent. Staffers in the breakfast area on hand to continue the service without interruption. We will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r171749228-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>171749228</t>
+  </si>
+  <si>
+    <t>08/11/2013</t>
+  </si>
+  <si>
+    <t>Poor Experience for a Marriot</t>
+  </si>
+  <si>
+    <t>The rooms are smaller than they appear, with two kids we had to ask for towels and shampoo every single day, and some times had to call twice to remind them. Breakfast is really poor and the attendant will "close", before closure. The hotel is clean and probably well located if you are not going to downtown Dallas. Just in front of Grapevine Mills, which is a good outlet, better than Allen. I could have chosen another hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded August 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2013</t>
+  </si>
+  <si>
+    <t>The rooms are smaller than they appear, with two kids we had to ask for towels and shampoo every single day, and some times had to call twice to remind them. Breakfast is really poor and the attendant will "close", before closure. The hotel is clean and probably well located if you are not going to downtown Dallas. Just in front of Grapevine Mills, which is a good outlet, better than Allen. I could have chosen another hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r166923854-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>166923854</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Not a good Residence Inn</t>
+  </si>
+  <si>
+    <t>Pros: Quiet, good location
+Cons: Customer Service, room size
+Probably one of the worst Residence Inns I have stayed (amongst 100s). When I walked in to check in, the front desk gal was stuffing cookies (from the cookie plate for guests) into her mouth. When she was able to talk she said hello while wiping crumbs off the counter. She checked me in and made no mention of my Marriott Rewards status. I asked her about it just to make sure I would get my points and to see if I was offered a complimentary upgraded room for being Gold. She had to look it up and finally said "it's in there". I asked if my room was upgraded, she said she had no idea, that it was all in the computer already. I then asked if there would be a manager's reception in the evening. Again she had no idea what that even was. Luckily the manager was walking by and jumped in. He said they only have the reception two days a week since this is one of two Residence Inns in the country with a restaurant and that the restaurant wouldn't make any money if they did manager's receptions every night (like all other Residence Inns). At least he was direct.
+I went up to my room. The room is very small if you are used to other Residence Inns. There was a used, open bottle of...Pros: Quiet, good locationCons: Customer Service, room sizeProbably one of the worst Residence Inns I have stayed (amongst 100s). When I walked in to check in, the front desk gal was stuffing cookies (from the cookie plate for guests) into her mouth. When she was able to talk she said hello while wiping crumbs off the counter. She checked me in and made no mention of my Marriott Rewards status. I asked her about it just to make sure I would get my points and to see if I was offered a complimentary upgraded room for being Gold. She had to look it up and finally said "it's in there". I asked if my room was upgraded, she said she had no idea, that it was all in the computer already. I then asked if there would be a manager's reception in the evening. Again she had no idea what that even was. Luckily the manager was walking by and jumped in. He said they only have the reception two days a week since this is one of two Residence Inns in the country with a restaurant and that the restaurant wouldn't make any money if they did manager's receptions every night (like all other Residence Inns). At least he was direct.I went up to my room. The room is very small if you are used to other Residence Inns. There was a used, open bottle of water in the freezer I am guessing came from the previous guest. The stay was fine. It was quiet despite the proximity to the freeway. Note that using your GPS on the address listed will get you lost. If you call the hotel, they will give you a different address to use or you can just use the Bass Pro Shop in Grapevine since it is right next door.On the final morning of my stay, I went down for coffee. I asked the same young lady who checked me in if there were any newspapers. She said she just took the last one. Later when leaving the hotel, she was nice enough to holler at me walking out the door and let me know she was now finished with the newspaper and that I could have it if I wanted it.The only other notable memory was that I had to call the front desk to get our garbage can under the sink emptied. It was overflowing but housekeeping somehow missed it when servicing the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2013</t>
+  </si>
+  <si>
+    <t>Pros: Quiet, good location
+Cons: Customer Service, room size
+Probably one of the worst Residence Inns I have stayed (amongst 100s). When I walked in to check in, the front desk gal was stuffing cookies (from the cookie plate for guests) into her mouth. When she was able to talk she said hello while wiping crumbs off the counter. She checked me in and made no mention of my Marriott Rewards status. I asked her about it just to make sure I would get my points and to see if I was offered a complimentary upgraded room for being Gold. She had to look it up and finally said "it's in there". I asked if my room was upgraded, she said she had no idea, that it was all in the computer already. I then asked if there would be a manager's reception in the evening. Again she had no idea what that even was. Luckily the manager was walking by and jumped in. He said they only have the reception two days a week since this is one of two Residence Inns in the country with a restaurant and that the restaurant wouldn't make any money if they did manager's receptions every night (like all other Residence Inns). At least he was direct.
+I went up to my room. The room is very small if you are used to other Residence Inns. There was a used, open bottle of...Pros: Quiet, good locationCons: Customer Service, room sizeProbably one of the worst Residence Inns I have stayed (amongst 100s). When I walked in to check in, the front desk gal was stuffing cookies (from the cookie plate for guests) into her mouth. When she was able to talk she said hello while wiping crumbs off the counter. She checked me in and made no mention of my Marriott Rewards status. I asked her about it just to make sure I would get my points and to see if I was offered a complimentary upgraded room for being Gold. She had to look it up and finally said "it's in there". I asked if my room was upgraded, she said she had no idea, that it was all in the computer already. I then asked if there would be a manager's reception in the evening. Again she had no idea what that even was. Luckily the manager was walking by and jumped in. He said they only have the reception two days a week since this is one of two Residence Inns in the country with a restaurant and that the restaurant wouldn't make any money if they did manager's receptions every night (like all other Residence Inns). At least he was direct.I went up to my room. The room is very small if you are used to other Residence Inns. There was a used, open bottle of water in the freezer I am guessing came from the previous guest. The stay was fine. It was quiet despite the proximity to the freeway. Note that using your GPS on the address listed will get you lost. If you call the hotel, they will give you a different address to use or you can just use the Bass Pro Shop in Grapevine since it is right next door.On the final morning of my stay, I went down for coffee. I asked the same young lady who checked me in if there were any newspapers. She said she just took the last one. Later when leaving the hotel, she was nice enough to holler at me walking out the door and let me know she was now finished with the newspaper and that I could have it if I wanted it.The only other notable memory was that I had to call the front desk to get our garbage can under the sink emptied. It was overflowing but housekeeping somehow missed it when servicing the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r163119275-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>163119275</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>Lovely Property, Unhelpful Front Desk</t>
+  </si>
+  <si>
+    <t>Very nice property.  Rooms with full kitchen.  Very good complimentary hot breakfast.  What more can a guest ask for?  Well, for one a clean, made-up room on a daily basis.  Two days out of a five day stay, we had to call several times for someone to make up the room.  On both occasions the front desk promised someone "right away."  After several calls and a face to face conversation, a housekeeping staff arrived at 6:00pm.  We also asked about the free shuttle to the DFW airport.  We were told it operated on the half-hour.  But the front desk never informed us that they kept a reservation sheet.  So, the morning we needed to get to the airport we asked the front desk staff at 7:00am whether we could make the 8:00am shuttle.  Oh no, they replied, you didn't sign-up and it's full.  I won't stay there again simply because the hotel is run by amateurs.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded June 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2013</t>
+  </si>
+  <si>
+    <t>Very nice property.  Rooms with full kitchen.  Very good complimentary hot breakfast.  What more can a guest ask for?  Well, for one a clean, made-up room on a daily basis.  Two days out of a five day stay, we had to call several times for someone to make up the room.  On both occasions the front desk promised someone "right away."  After several calls and a face to face conversation, a housekeeping staff arrived at 6:00pm.  We also asked about the free shuttle to the DFW airport.  We were told it operated on the half-hour.  But the front desk never informed us that they kept a reservation sheet.  So, the morning we needed to get to the airport we asked the front desk staff at 7:00am whether we could make the 8:00am shuttle.  Oh no, they replied, you didn't sign-up and it's full.  I won't stay there again simply because the hotel is run by amateurs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r162958317-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>162958317</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>Breakfast was excellent</t>
+  </si>
+  <si>
+    <t>This is a very well priced hotel and is convenient to the DFW area.  The breakfast was excellent - I usually am not very impressed with "hotel" breakfasts but there selection was great and the food was outstanding.  Bacon, eggs, sausage, biscuits - highly recommend for business and family travelers.  The room was nice and comfortable.  If you are wanting a reasonable rate for the area - note Great Wolf and Gaylord are nearby if you want a more luxury stay and don't mind spending another $100 more per night at those locations.  Front desk staff was adequate I certainly didn't feel valued for being a Marriott Gold customer but not rude just not very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very well priced hotel and is convenient to the DFW area.  The breakfast was excellent - I usually am not very impressed with "hotel" breakfasts but there selection was great and the food was outstanding.  Bacon, eggs, sausage, biscuits - highly recommend for business and family travelers.  The room was nice and comfortable.  If you are wanting a reasonable rate for the area - note Great Wolf and Gaylord are nearby if you want a more luxury stay and don't mind spending another $100 more per night at those locations.  Front desk staff was adequate I certainly didn't feel valued for being a Marriott Gold customer but not rude just not very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r162675655-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>162675655</t>
+  </si>
+  <si>
+    <t>06/01/2013</t>
+  </si>
+  <si>
+    <t>Highly recommended</t>
+  </si>
+  <si>
+    <t>We chose this hotel because I wanted a hotel in the area with an outdoor pool and free breakfast. This place exceeded our expectations. The room was modern and very clean with a full kitchen. We not only had free breakfast but on Sunday and Thursday free dinners are also offered. On thursday the dinner was a very nice salad, bread, and two different kinds of pasta. Also free beer, wine and soft drinks. The kitchen and dining area were maintained well and very clean. Staff was friendly and helpful overall. Would definately return next time we're in the area. Be aware that with all the construction, your GPS may not take you there if you use the hotel address. We had to call the hotel when we couldn't find it a they gave us another address to put into the GPS.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded June 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2013</t>
+  </si>
+  <si>
+    <t>We chose this hotel because I wanted a hotel in the area with an outdoor pool and free breakfast. This place exceeded our expectations. The room was modern and very clean with a full kitchen. We not only had free breakfast but on Sunday and Thursday free dinners are also offered. On thursday the dinner was a very nice salad, bread, and two different kinds of pasta. Also free beer, wine and soft drinks. The kitchen and dining area were maintained well and very clean. Staff was friendly and helpful overall. Would definately return next time we're in the area. Be aware that with all the construction, your GPS may not take you there if you use the hotel address. We had to call the hotel when we couldn't find it a they gave us another address to put into the GPS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r156020177-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>156020177</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel, good breakfast, walk to Bass Pro!</t>
+  </si>
+  <si>
+    <t>Stayed here 4 nights in comfortable, spacious room with full kitchen (full-sized refrig. which didn't work so we reported that but didn't need it), excellent hot breakfast choices &amp; cookies at front desk. Also had a Bar-B-Que Sunday night but we stayed too long at Bass Pro across the street so missed it. Friendly staff.  Newer area also close to Grapevine Mills Mall &amp; not too far from DFW airport.  Would have given it an excellent, but bed was a little too firm, refrig. issue, and no in-room safe.  Very friendly staff at desk &amp; at breakfast.   Free business area 24/7 for printing boarding passes, checking email.  Free WiFi in room if you register.  Plenty of parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded April 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here 4 nights in comfortable, spacious room with full kitchen (full-sized refrig. which didn't work so we reported that but didn't need it), excellent hot breakfast choices &amp; cookies at front desk. Also had a Bar-B-Que Sunday night but we stayed too long at Bass Pro across the street so missed it. Friendly staff.  Newer area also close to Grapevine Mills Mall &amp; not too far from DFW airport.  Would have given it an excellent, but bed was a little too firm, refrig. issue, and no in-room safe.  Very friendly staff at desk &amp; at breakfast.   Free business area 24/7 for printing boarding passes, checking email.  Free WiFi in room if you register.  Plenty of parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r154515191-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>154515191</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel in Grapevine</t>
+  </si>
+  <si>
+    <t>Clean, friendly helpful staff, good location if you need to be near DFW.  The bar was a good place to get food late.  Nice breakfast in the morning. Comfortable room and lots of restaurants nearby.  Grapevine is a nice little town too.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded March 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2013</t>
+  </si>
+  <si>
+    <t>Clean, friendly helpful staff, good location if you need to be near DFW.  The bar was a good place to get food late.  Nice breakfast in the morning. Comfortable room and lots of restaurants nearby.  Grapevine is a nice little town too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r153575292-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>153575292</t>
+  </si>
+  <si>
+    <t>03/02/2013</t>
+  </si>
+  <si>
+    <t>Enjoyable stay with a friendly staff</t>
+  </si>
+  <si>
+    <t>Recently stayed here while on a business trip.  Found the hotel to be clean and comfortable.  The hotel was very busy during my stay but the staff was always very friendly and helpful.Two of the things that I appreciated the most was the shuttle service to nerby attractions in Grapevine and the attentiveness of the kitchen staff to the breakfast items.  They really looked as if they took great pride in their work by keeping the food areas clean and the food refreshed at all times.I'll be in Grapevine again in May and plan on staying at the property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded March 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2013</t>
+  </si>
+  <si>
+    <t>Recently stayed here while on a business trip.  Found the hotel to be clean and comfortable.  The hotel was very busy during my stay but the staff was always very friendly and helpful.Two of the things that I appreciated the most was the shuttle service to nerby attractions in Grapevine and the attentiveness of the kitchen staff to the breakfast items.  They really looked as if they took great pride in their work by keeping the food areas clean and the food refreshed at all times.I'll be in Grapevine again in May and plan on staying at the property again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r152292466-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>152292466</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Another great Marriott property!!!</t>
+  </si>
+  <si>
+    <t>Stayed at this RI in January and had a pleasant experience. Checkin was breeze and clerk informed us of the free breakfast and dining options they had. Room was clean, a bit dated though. Room is spacious, with a kitchenette like the rest of RI's propertys. AC in the room works great. Hotel is right across grapevine mall (legoland, sea life). Hotel restaurant offered some good choices but did not try it. Breakfast was good, a bit crowed at times. Loved the waffles! Bass pro is right next door and in between that and the hotel is  a whataburger. Also plenty of choices right across the street, and if you go in town to grapevine.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Stayed at this RI in January and had a pleasant experience. Checkin was breeze and clerk informed us of the free breakfast and dining options they had. Room was clean, a bit dated though. Room is spacious, with a kitchenette like the rest of RI's propertys. AC in the room works great. Hotel is right across grapevine mall (legoland, sea life). Hotel restaurant offered some good choices but did not try it. Breakfast was good, a bit crowed at times. Loved the waffles! Bass pro is right next door and in between that and the hotel is  a whataburger. Also plenty of choices right across the street, and if you go in town to grapevine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r148818325-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>148818325</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Really nice Residence Inn</t>
+  </si>
+  <si>
+    <t>Good location, nice amenities and great breakfast. Weekend stay with my wife. Close to my corp office and attractions. Staff was very helpful and friendly. Nice pool and hot tub area. Room was comfortable and spacious.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded January 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 7, 2013</t>
+  </si>
+  <si>
+    <t>Good location, nice amenities and great breakfast. Weekend stay with my wife. Close to my corp office and attractions. Staff was very helpful and friendly. Nice pool and hot tub area. Room was comfortable and spacious.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r146455732-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>146455732</t>
+  </si>
+  <si>
+    <t>11/29/2012</t>
+  </si>
+  <si>
+    <t>Great hotel with excellent service</t>
+  </si>
+  <si>
+    <t>We were in town visiting family for Thanksgiving and stayed at this hotel for 3 nights.  The room was very spacious and kept very clean.  The staff was courteous, even when we walked in for a last minute dinner on our first night there (sometimes holidays can mean less than stellar service at some hotels, but we had no problems our entire stay).  We would definitely stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>We were in town visiting family for Thanksgiving and stayed at this hotel for 3 nights.  The room was very spacious and kept very clean.  The staff was courteous, even when we walked in for a last minute dinner on our first night there (sometimes holidays can mean less than stellar service at some hotels, but we had no problems our entire stay).  We would definitely stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r144556646-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>144556646</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Location, location, location.</t>
+  </si>
+  <si>
+    <t>Location is great with easy access to all the local attractions.  Rooms were comfortable and spacious.  Lack of a restaurant is made up by the fact that there are 2 in the parking lot. Texas Motor Speedway is about 10 miles away, but is an easy drive up 114.MoreShow less</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded November 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2012</t>
+  </si>
+  <si>
+    <t>Location is great with easy access to all the local attractions.  Rooms were comfortable and spacious.  Lack of a restaurant is made up by the fact that there are 2 in the parking lot. Texas Motor Speedway is about 10 miles away, but is an easy drive up 114.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r143162893-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>143162893</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>Great girls' getaway!</t>
+  </si>
+  <si>
+    <t>For a girls' getaway weekend, three of us met up in Grapevine and stayed at the Renaissance.  The location was perfect - close to shopping and restaurants.  We had no complaints whatsoever about our room, and the front desk graciously provided us with additional towels and washcloths when we asked.  Note: The address of the hotel may not map properly into some mapping software.  The hotel is aware of this and can provide a better address to plug into your GPS.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>ClementeEspinosa, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded October 22, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2012</t>
+  </si>
+  <si>
+    <t>For a girls' getaway weekend, three of us met up in Grapevine and stayed at the Renaissance.  The location was perfect - close to shopping and restaurants.  We had no complaints whatsoever about our room, and the front desk graciously provided us with additional towels and washcloths when we asked.  Note: The address of the hotel may not map properly into some mapping software.  The hotel is aware of this and can provide a better address to plug into your GPS.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r142393424-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>142393424</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>Perfect for a girls' weekend in Grapevine...</t>
+  </si>
+  <si>
+    <t>I've stayed at 3 Residence Inns now, usually with family, and really like the set-up. This one was very nice. My friends and I stayed here for 2 nights for a shopping weekend. Directly across from Grapevine Mills Mall and shares the parking lot with Bass Pro Shop. We spent a great deal of time in South Lake, but the travel was quick to that area. Very quiet, despite its location next to the highway. Breakfast was fresh, staff was friendly, room was clean and comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>cespinosa12, Manager at Residence Inn DFW Airport North/Grapevine, responded to this reviewResponded October 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2012</t>
+  </si>
+  <si>
+    <t>I've stayed at 3 Residence Inns now, usually with family, and really like the set-up. This one was very nice. My friends and I stayed here for 2 nights for a shopping weekend. Directly across from Grapevine Mills Mall and shares the parking lot with Bass Pro Shop. We spent a great deal of time in South Lake, but the travel was quick to that area. Very quiet, despite its location next to the highway. Breakfast was fresh, staff was friendly, room was clean and comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r139302553-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>139302553</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Superb!</t>
+  </si>
+  <si>
+    <t>My boyfriend came in town to help the Delta staff at DFW with a special event this past Labor Day weekend. I was lucky fly out and stay here with him and I could not have been more pleased with this property. Clean, spacious rooms with a kitchenette, equipped with a stove, full-sized fridge, sink, etc. Sad I had to miss it, but the hotel offers a free happy-hour on Thursday and Sunday, with appetizers and drinks at either the Library Bar or poolside. Great pool with a jacuzzi! Also there's a nice little gym and the breakfast is amazing. It's a full breakfast complete with eggs, yogurt, cereal, bacon, biscuits and gravy, juice, coffee, potatoes, fruit and more. The main items changed daily, so it wasn't repetitious and the wifi is free. Great location, walking distance to a few restaurants and right across from the Grapevine Mills mall and the Sea Life Aquarium. The shuttle is free and goes back and forth to the airport as well as surrounding attractions. Staff was very friendly and I'm planning another trip to come back for holiday shopping. We will stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>My boyfriend came in town to help the Delta staff at DFW with a special event this past Labor Day weekend. I was lucky fly out and stay here with him and I could not have been more pleased with this property. Clean, spacious rooms with a kitchenette, equipped with a stove, full-sized fridge, sink, etc. Sad I had to miss it, but the hotel offers a free happy-hour on Thursday and Sunday, with appetizers and drinks at either the Library Bar or poolside. Great pool with a jacuzzi! Also there's a nice little gym and the breakfast is amazing. It's a full breakfast complete with eggs, yogurt, cereal, bacon, biscuits and gravy, juice, coffee, potatoes, fruit and more. The main items changed daily, so it wasn't repetitious and the wifi is free. Great location, walking distance to a few restaurants and right across from the Grapevine Mills mall and the Sea Life Aquarium. The shuttle is free and goes back and forth to the airport as well as surrounding attractions. Staff was very friendly and I'm planning another trip to come back for holiday shopping. We will stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r137184227-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>137184227</t>
+  </si>
+  <si>
+    <t>08/14/2012</t>
+  </si>
+  <si>
+    <t>Great hotel, awesome location and good amenitites</t>
+  </si>
+  <si>
+    <t>This hotel was fabulous!  The free breakfast is really good.  The free shuttle to downtown Grapevine is very convenient...they even shuttled us home from the bars at 2am are were happy to do so.  The location of the hotel is great...close to downtown Grapevine and right across the street from the huge outlet mall.  The rooms were extremely spacious and we loved having the full size refridgerator and kitchen.  The price was extremely reasonable for the area.  I would definitely reccommend this hotel to everyone I know!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r135031005-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>135031005</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>THE STAFF TOOK EXCELLENT CARE OF ME</t>
+  </si>
+  <si>
+    <t>First a shout out to the young lady who went to the kitchen and gave me the milk and yogurt.  She is what hospitality is all about.  I was not feeling well and she went out of her way to help.
+Now.  The hotel is very convenient to DFW and shares a parking lot with the Bass Pro Shop.  There is plenty of parking and I was steps from the door everytime I returned to the hotel.  I arrived a little before check in time but they gave me a room without a bit of trouble. 
+ My room was scrupulously clean and modern.  The  kitchen is wonderful and fully stocked with dishes and cookware.  I did not cook but one certainly could.  The air conditioning worked flawlessly and the bed was very comfortable.  Yes it has an old fashioned TV but is worked great.  The high-speed internet was fast and free.  One of the fastest internetsI have seen in a hotel.  I did not hear a sound from the adjoining room.  The area is very secure, in a good neighborhood and there are inside hallways.  
+The evening dinner was really something.  There was a shrimp fettuchini dish, home-made peach cobler and bread  by a nice lady who sure knows how to make them.    It really looked like they put some thought and pride into the food.  Free is my favorite price for this too.  If one were wanted to make...First a shout out to the young lady who went to the kitchen and gave me the milk and yogurt.  She is what hospitality is all about.  I was not feeling well and she went out of her way to help.Now.  The hotel is very convenient to DFW and shares a parking lot with the Bass Pro Shop.  There is plenty of parking and I was steps from the door everytime I returned to the hotel.  I arrived a little before check in time but they gave me a room without a bit of trouble.  My room was scrupulously clean and modern.  The  kitchen is wonderful and fully stocked with dishes and cookware.  I did not cook but one certainly could.  The air conditioning worked flawlessly and the bed was very comfortable.  Yes it has an old fashioned TV but is worked great.  The high-speed internet was fast and free.  One of the fastest internetsI have seen in a hotel.  I did not hear a sound from the adjoining room.  The area is very secure, in a good neighborhood and there are inside hallways.  The evening dinner was really something.  There was a shrimp fettuchini dish, home-made peach cobler and bread  by a nice lady who sure knows how to make them.    It really looked like they put some thought and pride into the food.  Free is my favorite price for this too.  If one were wanted to make that their main meal they could easily do it.  I did not eat in their restaurant but the menu looks super and very affordably priced.  It is quiet and well appointed.  Good wine list and fair prices for that too.  There is a Fudruckers and Whataburger in the parking lot as well but on my next trip I am going to try their restaurant.  Of course the super restaurants of Grapevine are within easy driving distance.   So here is the deal.  I was attending a conference down the road a short way at the Gaylord Texan.  The rooms there were more expensive, smaller and I was going to have to pay to park there even if I stayed there anyway.  So I chose the residence inn because I have had consistently good experiences with them.  This one is not the biggest Residence Inn but it is the nicest one I have stayed in.  Why?  Because of the staff.  This is a very well managed hotel.  I travel most of the time and I hold the bar pretty high.  If you find yourself in the DFW area you absolutely can't go wrong with this hotel.  You will be glad you stayed.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>First a shout out to the young lady who went to the kitchen and gave me the milk and yogurt.  She is what hospitality is all about.  I was not feeling well and she went out of her way to help.
+Now.  The hotel is very convenient to DFW and shares a parking lot with the Bass Pro Shop.  There is plenty of parking and I was steps from the door everytime I returned to the hotel.  I arrived a little before check in time but they gave me a room without a bit of trouble. 
+ My room was scrupulously clean and modern.  The  kitchen is wonderful and fully stocked with dishes and cookware.  I did not cook but one certainly could.  The air conditioning worked flawlessly and the bed was very comfortable.  Yes it has an old fashioned TV but is worked great.  The high-speed internet was fast and free.  One of the fastest internetsI have seen in a hotel.  I did not hear a sound from the adjoining room.  The area is very secure, in a good neighborhood and there are inside hallways.  
+The evening dinner was really something.  There was a shrimp fettuchini dish, home-made peach cobler and bread  by a nice lady who sure knows how to make them.    It really looked like they put some thought and pride into the food.  Free is my favorite price for this too.  If one were wanted to make...First a shout out to the young lady who went to the kitchen and gave me the milk and yogurt.  She is what hospitality is all about.  I was not feeling well and she went out of her way to help.Now.  The hotel is very convenient to DFW and shares a parking lot with the Bass Pro Shop.  There is plenty of parking and I was steps from the door everytime I returned to the hotel.  I arrived a little before check in time but they gave me a room without a bit of trouble.  My room was scrupulously clean and modern.  The  kitchen is wonderful and fully stocked with dishes and cookware.  I did not cook but one certainly could.  The air conditioning worked flawlessly and the bed was very comfortable.  Yes it has an old fashioned TV but is worked great.  The high-speed internet was fast and free.  One of the fastest internetsI have seen in a hotel.  I did not hear a sound from the adjoining room.  The area is very secure, in a good neighborhood and there are inside hallways.  The evening dinner was really something.  There was a shrimp fettuchini dish, home-made peach cobler and bread  by a nice lady who sure knows how to make them.    It really looked like they put some thought and pride into the food.  Free is my favorite price for this too.  If one were wanted to make that their main meal they could easily do it.  I did not eat in their restaurant but the menu looks super and very affordably priced.  It is quiet and well appointed.  Good wine list and fair prices for that too.  There is a Fudruckers and Whataburger in the parking lot as well but on my next trip I am going to try their restaurant.  Of course the super restaurants of Grapevine are within easy driving distance.   So here is the deal.  I was attending a conference down the road a short way at the Gaylord Texan.  The rooms there were more expensive, smaller and I was going to have to pay to park there even if I stayed there anyway.  So I chose the residence inn because I have had consistently good experiences with them.  This one is not the biggest Residence Inn but it is the nicest one I have stayed in.  Why?  Because of the staff.  This is a very well managed hotel.  I travel most of the time and I hold the bar pretty high.  If you find yourself in the DFW area you absolutely can't go wrong with this hotel.  You will be glad you stayed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r133790431-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>133790431</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this staff and our stay!</t>
+  </si>
+  <si>
+    <t>The rooms were beautiful, just as shown in the pictures. We swam but it was so windy we didn't stay out there very long! We opted to walk across the parking lot and visit Bass Pro Shop instead.
+Now, I am a single mom who was dropping a girlfriend off at the airport about 4:30 AM and we decided to stay close to the airport so it would be much more convenient to go back to sleep after such an early morning departure. My three young children and I went back to sleep after going to the airport and was completely unprepared for what awaited us at breakfast. 
+It can be just a little chaotic trying to help three young children get breakfast at a hotel and as I was juggling this task a staff member stepped up and asked if they could help my son make a waffle. I was stunned because normally people walk the other way and come back later when they see a mom with several kids. Not only did this staff member help my son with the waffle but helped with the rest of his plate and while that was going on the chef came to check on food levels and stepped in to help my daughter with filling her plate while I was helping my other daughter. Again, I was pleasantly surprised, but it doesn't stop there. 
+Once we were seated the food was...The rooms were beautiful, just as shown in the pictures. We swam but it was so windy we didn't stay out there very long! We opted to walk across the parking lot and visit Bass Pro Shop instead.Now, I am a single mom who was dropping a girlfriend off at the airport about 4:30 AM and we decided to stay close to the airport so it would be much more convenient to go back to sleep after such an early morning departure. My three young children and I went back to sleep after going to the airport and was completely unprepared for what awaited us at breakfast. It can be just a little chaotic trying to help three young children get breakfast at a hotel and as I was juggling this task a staff member stepped up and asked if they could help my son make a waffle. I was stunned because normally people walk the other way and come back later when they see a mom with several kids. Not only did this staff member help my son with the waffle but helped with the rest of his plate and while that was going on the chef came to check on food levels and stepped in to help my daughter with filling her plate while I was helping my other daughter. Again, I was pleasantly surprised, but it doesn't stop there. Once we were seated the food was wonderful! Definitely not your average breakfast. As our plates are being emptied the same chef came by and collected our plates and as we were getting up to leave he brought out three little bowls of candies for my kids to eat in the car on the way home. The staff went way above and beyond in helping me and it left me speechless. Without question if I am ever in need of a place to stay around the airport I won't even look anywhere else! I'd like to add in that the hotel has a shuttle that would have taken my friend to the airport that early but my kids and I really wanted to take her ourselves as we rarely get to see her.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were beautiful, just as shown in the pictures. We swam but it was so windy we didn't stay out there very long! We opted to walk across the parking lot and visit Bass Pro Shop instead.
+Now, I am a single mom who was dropping a girlfriend off at the airport about 4:30 AM and we decided to stay close to the airport so it would be much more convenient to go back to sleep after such an early morning departure. My three young children and I went back to sleep after going to the airport and was completely unprepared for what awaited us at breakfast. 
+It can be just a little chaotic trying to help three young children get breakfast at a hotel and as I was juggling this task a staff member stepped up and asked if they could help my son make a waffle. I was stunned because normally people walk the other way and come back later when they see a mom with several kids. Not only did this staff member help my son with the waffle but helped with the rest of his plate and while that was going on the chef came to check on food levels and stepped in to help my daughter with filling her plate while I was helping my other daughter. Again, I was pleasantly surprised, but it doesn't stop there. 
+Once we were seated the food was...The rooms were beautiful, just as shown in the pictures. We swam but it was so windy we didn't stay out there very long! We opted to walk across the parking lot and visit Bass Pro Shop instead.Now, I am a single mom who was dropping a girlfriend off at the airport about 4:30 AM and we decided to stay close to the airport so it would be much more convenient to go back to sleep after such an early morning departure. My three young children and I went back to sleep after going to the airport and was completely unprepared for what awaited us at breakfast. It can be just a little chaotic trying to help three young children get breakfast at a hotel and as I was juggling this task a staff member stepped up and asked if they could help my son make a waffle. I was stunned because normally people walk the other way and come back later when they see a mom with several kids. Not only did this staff member help my son with the waffle but helped with the rest of his plate and while that was going on the chef came to check on food levels and stepped in to help my daughter with filling her plate while I was helping my other daughter. Again, I was pleasantly surprised, but it doesn't stop there. Once we were seated the food was wonderful! Definitely not your average breakfast. As our plates are being emptied the same chef came by and collected our plates and as we were getting up to leave he brought out three little bowls of candies for my kids to eat in the car on the way home. The staff went way above and beyond in helping me and it left me speechless. Without question if I am ever in need of a place to stay around the airport I won't even look anywhere else! I'd like to add in that the hotel has a shuttle that would have taken my friend to the airport that early but my kids and I really wanted to take her ourselves as we rarely get to see her.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r131054184-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>131054184</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>Great Airport Location - Business Traveler Friendly</t>
+  </si>
+  <si>
+    <t>Exceptionally Quiet Room. Glass double or triple glazed. Hotel is minutes from the airport in Grapevine, next to I-635. Very convenient for commuting to meetings in the North Dallas area. I had a studio suite, but it was spacious. Oddly, my room still had an old CRT-screen TV, but it did work. Everything worked. Bed had a great feel to it. The kitchen was nicely arranged and had all the bits I needed to do minor cooking. Two-burner stove top even. Hotel offers standard complimentary breakfast 0630-0930 weekdays. 0700-1000 AM weekends. Evening snacks are a mite truncated compared to most Residence Inns, but this was a classier offering than most Residence Inns. Hotel has a bar/restaurant, "The Library", which offers reasonably priced real food and beverages of the adult kind. A free airport shuttle is offered. Very handy. Will pick up at the airport if one calls the hotel, or drop off as well. Hotel has three vans in rotation. Standard aerobics workout room with two treadmills, elliptical treadmill and stationary bike.  A Whataburger is next door to the right of the hotel, and a Fuddruckers is to the left. Around the corner from Uncle Bucks Brewery and Steakhouse (One could walk). Next to a Bass Pro Shop as well. This is a good extended-stay property.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Exceptionally Quiet Room. Glass double or triple glazed. Hotel is minutes from the airport in Grapevine, next to I-635. Very convenient for commuting to meetings in the North Dallas area. I had a studio suite, but it was spacious. Oddly, my room still had an old CRT-screen TV, but it did work. Everything worked. Bed had a great feel to it. The kitchen was nicely arranged and had all the bits I needed to do minor cooking. Two-burner stove top even. Hotel offers standard complimentary breakfast 0630-0930 weekdays. 0700-1000 AM weekends. Evening snacks are a mite truncated compared to most Residence Inns, but this was a classier offering than most Residence Inns. Hotel has a bar/restaurant, "The Library", which offers reasonably priced real food and beverages of the adult kind. A free airport shuttle is offered. Very handy. Will pick up at the airport if one calls the hotel, or drop off as well. Hotel has three vans in rotation. Standard aerobics workout room with two treadmills, elliptical treadmill and stationary bike.  A Whataburger is next door to the right of the hotel, and a Fuddruckers is to the left. Around the corner from Uncle Bucks Brewery and Steakhouse (One could walk). Next to a Bass Pro Shop as well. This is a good extended-stay property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r131032970-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>131032970</t>
+  </si>
+  <si>
+    <t>Best free breakfast around</t>
+  </si>
+  <si>
+    <t>I never thought I'd base a review on the free breakfast, but seriously, the breakfast provided was a much higher quality than the standard hotel free breakfast offered at similar hotels I've stayed at in the last couple of years.  It didn't have that "pre-fab" look and taste that a lot of hotel breakfasts have (because they are pre-fabricated and ready to be warmed and served).  OK, so the breakfast was great, but so was the rest of my hotel experience. The room was clean and comfortable.  The maid staff was friendly and accomodating.  The front desk staff was very helpful in both hotel matters and in pointing out good places to eat and visit. Both check-in and check-out were fast and easy.   I was at the hotel for a group meeting.  The entire group was amazed at the great value associated with the meeting room cost (and the flexibility and provision associated with AV equipment).  The group was extremely pleased with the overall experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>I never thought I'd base a review on the free breakfast, but seriously, the breakfast provided was a much higher quality than the standard hotel free breakfast offered at similar hotels I've stayed at in the last couple of years.  It didn't have that "pre-fab" look and taste that a lot of hotel breakfasts have (because they are pre-fabricated and ready to be warmed and served).  OK, so the breakfast was great, but so was the rest of my hotel experience. The room was clean and comfortable.  The maid staff was friendly and accomodating.  The front desk staff was very helpful in both hotel matters and in pointing out good places to eat and visit. Both check-in and check-out were fast and easy.   I was at the hotel for a group meeting.  The entire group was amazed at the great value associated with the meeting room cost (and the flexibility and provision associated with AV equipment).  The group was extremely pleased with the overall experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r129944404-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>129944404</t>
+  </si>
+  <si>
+    <t>05/14/2012</t>
+  </si>
+  <si>
+    <t>Great Place to Stay - Very Convenient to DFW</t>
+  </si>
+  <si>
+    <t>Typical Residence Inn with very quiet rooms - considering proximity to DFW.  Several restaurants nearby - ranging from fast food to sit down.  Outlet mall nearby.  Responsive and friendly front desk.  Nice bar in the lobby.  Good selection at breakfast.  Shuttle leaves for airport every half hour.  Will pick-up with phone call to desk.  Make sure you know where you are before calling.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r129238944-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>129238944</t>
+  </si>
+  <si>
+    <t>05/02/2012</t>
+  </si>
+  <si>
+    <t>Handy Airport Hotel</t>
+  </si>
+  <si>
+    <t>Residence Inns allow travelers on diets, and who who want a bit of space to have those things.This one is located across from Grapevine Mills Mall, LA fitness, and some other handy things.They do a good job with small meetings. The hotel is well kept, and provides a shuttle to the airport. Staff was pleasant, and it seems among the newer properties around.The only flaw was mid-morning before checking out that day, a big roach ran across the bathroom floor. Can't say that gave me a good feeling, so there may be need a of bit better upkeep in terms of pest control.There is handy little store in the hotel with usual snacks and junk food.There are lots of airport hotels around the north exit of DFW, so depending on needs, and likes and dislikes, I'd say look them all over.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Residence Inns allow travelers on diets, and who who want a bit of space to have those things.This one is located across from Grapevine Mills Mall, LA fitness, and some other handy things.They do a good job with small meetings. The hotel is well kept, and provides a shuttle to the airport. Staff was pleasant, and it seems among the newer properties around.The only flaw was mid-morning before checking out that day, a big roach ran across the bathroom floor. Can't say that gave me a good feeling, so there may be need a of bit better upkeep in terms of pest control.There is handy little store in the hotel with usual snacks and junk food.There are lots of airport hotels around the north exit of DFW, so depending on needs, and likes and dislikes, I'd say look them all over.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r128956667-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>128956667</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>A good place to stay but a couple issues</t>
+  </si>
+  <si>
+    <t>Nice larger rooms, comfy beds, and a good breakfast as is true with most all Residence Inns.  The staff was friendly.   There was a decent exercise room and a basic business center (2 computers and printers).   Elevators were reasonably quick.It's located in walking distance of a few restaurants and the giant Outdoor World store.  It is possible to walk across the major street to the Hilton DFW Lakes conference center, but it takes a little finessing to make it over there.It is very near the airport but sound proofing for normal plane noise seemed pretty good.   There did seem to be loud motorcycles zooming by with some regularity and that noise came through pretty strongly.There were 2 negatives in our recent stay:1) the elevator made strange clanks and noises which were very audible in any room nearby (like ours).  Didn't keep me from sleeping, but was irritating.2) the internet, which worked ok in the day, was really slow in the evening and then went out completely on our last evening.   Couldn't even print a boarding pass and the front desk staff couldn't give any alternatives or an ETA on a fix.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice larger rooms, comfy beds, and a good breakfast as is true with most all Residence Inns.  The staff was friendly.   There was a decent exercise room and a basic business center (2 computers and printers).   Elevators were reasonably quick.It's located in walking distance of a few restaurants and the giant Outdoor World store.  It is possible to walk across the major street to the Hilton DFW Lakes conference center, but it takes a little finessing to make it over there.It is very near the airport but sound proofing for normal plane noise seemed pretty good.   There did seem to be loud motorcycles zooming by with some regularity and that noise came through pretty strongly.There were 2 negatives in our recent stay:1) the elevator made strange clanks and noises which were very audible in any room nearby (like ours).  Didn't keep me from sleeping, but was irritating.2) the internet, which worked ok in the day, was really slow in the evening and then went out completely on our last evening.   Couldn't even print a boarding pass and the front desk staff couldn't give any alternatives or an ETA on a fix.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r124926612-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>124926612</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>A little pricy for what you get!</t>
+  </si>
+  <si>
+    <t>We stayed one night in Feb. 2012 in a king suite and paid $139.00 + tax. The room was typical for a Residence Inn with kitchen, dining area, living room and separate bedroom. I've stayed at several Residence Inns over the years but this one is a little different. Instead of the typical one or two story buildings this one is a seven story with entry to all rooms via the lobby. It seems that the room was a little smaller than the others where I've stayed. The room was clean and comfortable. The kitchen well equipped as long as you don't plan on cooking a four course meal. The bed was pretty hard (uncomfortable) and that is unusual for Residence Inn. We enjoyed the hot breakfast and the dining room was comfortable. Our experience was not bad but for the money I don't think I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>We stayed one night in Feb. 2012 in a king suite and paid $139.00 + tax. The room was typical for a Residence Inn with kitchen, dining area, living room and separate bedroom. I've stayed at several Residence Inns over the years but this one is a little different. Instead of the typical one or two story buildings this one is a seven story with entry to all rooms via the lobby. It seems that the room was a little smaller than the others where I've stayed. The room was clean and comfortable. The kitchen well equipped as long as you don't plan on cooking a four course meal. The bed was pretty hard (uncomfortable) and that is unusual for Residence Inn. We enjoyed the hot breakfast and the dining room was comfortable. Our experience was not bad but for the money I don't think I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r124891607-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>124891607</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>Stayed here for a three week stint doing some company training. The hotel is clean and right next to the Bass Pro Shop. I did have some minor issues getting my room properly serviced but the front desk staff quickly remedied the problems. I have found that this hotel seemed to be a bit noisy. Not because of the jets flying overhead but just misc. sounds, water dripping, elevators etc... .</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r124679563-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>124679563</t>
+  </si>
+  <si>
+    <t>02/16/2012</t>
+  </si>
+  <si>
+    <t>Nice Clean hotel (4star for cleanliness)...good value for business travelers</t>
+  </si>
+  <si>
+    <t>This hotel is located directly across the street from Grapevine Mills mall, and clustered with a group of large hotels including Embassy Suites and Hilton and some others.  Lots of choices for food, including fast food.  Bass Shop is right in between Embassy and Residence Inn...Bucks steak house and a great sports bar located in Embassy suites is easy walking distance from Residence Inn.
+Rooms are very good size, very clean and all the comforts of home with kitchen, utensils as most suite hotels have.  The included breakfest is very good quality and plenty of offerings from cold to hote items.  Excellent service and clean up in the morning by staff.
+The Library (their dining/bar area) is cozy and fine for a after work cocktail or beer.  The menu doesn't offer much in the way of choices.  I did try a seafood soup that was very disapointing because I couldn't locate any seafood in it...flavor was good but that's about it.  The house salad looked like it came out of a bag of mixed greens, they threw in a couple of cherry tomatoes and that's it.  It was fresh out out of  bag though! Prices were reasonable.  Got a pizza the next night and it was fine.  Frankly, I think their food is probably fine in a pinch but with so many choices nearby  I think you'd be better off goinig across the street to the mall area or even...This hotel is located directly across the street from Grapevine Mills mall, and clustered with a group of large hotels including Embassy Suites and Hilton and some others.  Lots of choices for food, including fast food.  Bass Shop is right in between Embassy and Residence Inn...Bucks steak house and a great sports bar located in Embassy suites is easy walking distance from Residence Inn.Rooms are very good size, very clean and all the comforts of home with kitchen, utensils as most suite hotels have.  The included breakfest is very good quality and plenty of offerings from cold to hote items.  Excellent service and clean up in the morning by staff.The Library (their dining/bar area) is cozy and fine for a after work cocktail or beer.  The menu doesn't offer much in the way of choices.  I did try a seafood soup that was very disapointing because I couldn't locate any seafood in it...flavor was good but that's about it.  The house salad looked like it came out of a bag of mixed greens, they threw in a couple of cherry tomatoes and that's it.  It was fresh out out of  bag though! Prices were reasonable.  Got a pizza the next night and it was fine.  Frankly, I think their food is probably fine in a pinch but with so many choices nearby  I think you'd be better off goinig across the street to the mall area or even the other nearby hotels for more diverse dining choices.  Overall nice hote, very clean and service was very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is located directly across the street from Grapevine Mills mall, and clustered with a group of large hotels including Embassy Suites and Hilton and some others.  Lots of choices for food, including fast food.  Bass Shop is right in between Embassy and Residence Inn...Bucks steak house and a great sports bar located in Embassy suites is easy walking distance from Residence Inn.
+Rooms are very good size, very clean and all the comforts of home with kitchen, utensils as most suite hotels have.  The included breakfest is very good quality and plenty of offerings from cold to hote items.  Excellent service and clean up in the morning by staff.
+The Library (their dining/bar area) is cozy and fine for a after work cocktail or beer.  The menu doesn't offer much in the way of choices.  I did try a seafood soup that was very disapointing because I couldn't locate any seafood in it...flavor was good but that's about it.  The house salad looked like it came out of a bag of mixed greens, they threw in a couple of cherry tomatoes and that's it.  It was fresh out out of  bag though! Prices were reasonable.  Got a pizza the next night and it was fine.  Frankly, I think their food is probably fine in a pinch but with so many choices nearby  I think you'd be better off goinig across the street to the mall area or even...This hotel is located directly across the street from Grapevine Mills mall, and clustered with a group of large hotels including Embassy Suites and Hilton and some others.  Lots of choices for food, including fast food.  Bass Shop is right in between Embassy and Residence Inn...Bucks steak house and a great sports bar located in Embassy suites is easy walking distance from Residence Inn.Rooms are very good size, very clean and all the comforts of home with kitchen, utensils as most suite hotels have.  The included breakfest is very good quality and plenty of offerings from cold to hote items.  Excellent service and clean up in the morning by staff.The Library (their dining/bar area) is cozy and fine for a after work cocktail or beer.  The menu doesn't offer much in the way of choices.  I did try a seafood soup that was very disapointing because I couldn't locate any seafood in it...flavor was good but that's about it.  The house salad looked like it came out of a bag of mixed greens, they threw in a couple of cherry tomatoes and that's it.  It was fresh out out of  bag though! Prices were reasonable.  Got a pizza the next night and it was fine.  Frankly, I think their food is probably fine in a pinch but with so many choices nearby  I think you'd be better off goinig across the street to the mall area or even the other nearby hotels for more diverse dining choices.  Overall nice hote, very clean and service was very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r121086206-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>121086206</t>
+  </si>
+  <si>
+    <t>11/27/2011</t>
+  </si>
+  <si>
+    <t>Everyone very nice</t>
+  </si>
+  <si>
+    <t>The staff at this hotel were great!  Which besides cleanliness is one of the most important factors.  Breakfast was very good, much better than most.  The hotel has a nice location and the room are very spacious.  Can't go wrong choosing this hotel.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r120746335-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>120746335</t>
+  </si>
+  <si>
+    <t>11/18/2011</t>
+  </si>
+  <si>
+    <t>Good value and enjoy it !</t>
+  </si>
+  <si>
+    <t>We stay for 3 nights for the running race event in Grapevine in October. It took a while to wait for the hotel free shuttle upon arrival at DFW airport. The room is very spacious with good facilities but not much sport facilities in the hotel. The breakfast is included in room rates and it's good. We find the location very good by US standard even we did not rent a car. The Mills Shopping mall is just 10 minutes walk but need to cross the busy traffic !! There are several fast food restaurants in the area within walking distance but the food variety is almost identical which is typical in US!The only bad experience was the shuttle driver as he was very rude to tourists. We got up very early in morning to catch flight back to Hong Kong and he kept talking loudly and asking questions non-shop! Instead of calling Sir or Mr, he screamed at us and force us to talk to him while he was driving. Honest speaking, we just want to be left alone and not interest in knowing his view on US politics or gossip as not everyone are interested in US politics !!I advise the hotel to find another driver with good attitude and manner to their customers and remember to keep their mouth shut and to focus while driving !!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay for 3 nights for the running race event in Grapevine in October. It took a while to wait for the hotel free shuttle upon arrival at DFW airport. The room is very spacious with good facilities but not much sport facilities in the hotel. The breakfast is included in room rates and it's good. We find the location very good by US standard even we did not rent a car. The Mills Shopping mall is just 10 minutes walk but need to cross the busy traffic !! There are several fast food restaurants in the area within walking distance but the food variety is almost identical which is typical in US!The only bad experience was the shuttle driver as he was very rude to tourists. We got up very early in morning to catch flight back to Hong Kong and he kept talking loudly and asking questions non-shop! Instead of calling Sir or Mr, he screamed at us and force us to talk to him while he was driving. Honest speaking, we just want to be left alone and not interest in knowing his view on US politics or gossip as not everyone are interested in US politics !!I advise the hotel to find another driver with good attitude and manner to their customers and remember to keep their mouth shut and to focus while driving !!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r118251996-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>118251996</t>
+  </si>
+  <si>
+    <t>09/17/2011</t>
+  </si>
+  <si>
+    <t>Great upscale Residence Inn</t>
+  </si>
+  <si>
+    <t>Great location in Grapevine. Beautiful rooms with full kitchens. Comfy beds. Great service</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r114789985-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>114789985</t>
+  </si>
+  <si>
+    <t>06/27/2011</t>
+  </si>
+  <si>
+    <t>Excellent customer service and overall amenities!</t>
+  </si>
+  <si>
+    <t>It was our first time in the area and we weren't sure where best to stay.  Residence Inn was conveniently located across the mall and Legoland so we went in with no reservation which made me nervous a bit.  The receptionist (Uza) was so warm and friendly and gave us a great room with a great view.  They had a welcome box with toys and goodies for my 5 yr old which was surprising gift and a nice touch.  Breakfast buffet had a nice healthy selection and the hotel overall was super clean and well maintained.   All the staff that we met were friendly and had a smile on their face.   It was a great experience overall.  Would highly recommend this hotel!  Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>It was our first time in the area and we weren't sure where best to stay.  Residence Inn was conveniently located across the mall and Legoland so we went in with no reservation which made me nervous a bit.  The receptionist (Uza) was so warm and friendly and gave us a great room with a great view.  They had a welcome box with toys and goodies for my 5 yr old which was surprising gift and a nice touch.  Breakfast buffet had a nice healthy selection and the hotel overall was super clean and well maintained.   All the staff that we met were friendly and had a smile on their face.   It was a great experience overall.  Would highly recommend this hotel!  Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r114765645-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>114765645</t>
+  </si>
+  <si>
+    <t>06/26/2011</t>
+  </si>
+  <si>
+    <t>Great Support and Staff</t>
+  </si>
+  <si>
+    <t>We held our family reunion at this hotel.  We had approximately 35 people for 2 nights.  The hotel staff was extremely pleasant to work with and went the extra step to ensure our reunion was a pleasant event even though not all aspects were handled by the hotel.  They provided us ice for our coolers for boating trips, they provided meeting space for impromptu gatherings, the housekeeping staff went above the minimum to meet our needs.The rooms were pleasant and more than met our needs as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r112714839-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>112714839</t>
+  </si>
+  <si>
+    <t>06/11/2011</t>
+  </si>
+  <si>
+    <t>Exactly what we needed</t>
+  </si>
+  <si>
+    <t>Quite exceptional Residence Inn. Close by to Grapevine Mills and the airport as well as the Gaylord convention center. Property looks fairly new. Pool and gym are decent sized. Rooms are large and well appointed. They have room service which worked for us as well as a surpisingly nice bar/restaurant downstairs. Overall it exceeded my expectations and would surely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r104556706-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>104556706</t>
+  </si>
+  <si>
+    <t>04/18/2011</t>
+  </si>
+  <si>
+    <t>Rip off scam, customers beware!</t>
+  </si>
+  <si>
+    <t>We were inpressed with the facility and enjoyed our stay. We got to know several of the staff by name during the stay and had absolutely NO complaints till after we checked out. Two days after our checkout we were billed $250.00 on credit card with no explanation. I called the business and politely asked if I could have the charges explained to me. I was transferred to an employee (with no name) who was rude with me from hello. She started by saying "You know what the charges is for and I do not want to hear your argument, I have heard it all before". I insisted on the reason for the charge and was told that it was because we smoked in our room. The staff member continued to be rude and informed me "I have heard it all before, thats what they all say" when I explained that we did not smoke in our room. We spent half our time there outside in the beautiful weather smoking in the smoking area. I feel that this is a scam and that customers should beware due to the fact the hotel does not have to produce ANY proof in order to charge you the fee. I was planning on staying at this location repeatedly in the future but will NOT ever stay there again after this charge topped by the unbelievably rude employee!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>We were inpressed with the facility and enjoyed our stay. We got to know several of the staff by name during the stay and had absolutely NO complaints till after we checked out. Two days after our checkout we were billed $250.00 on credit card with no explanation. I called the business and politely asked if I could have the charges explained to me. I was transferred to an employee (with no name) who was rude with me from hello. She started by saying "You know what the charges is for and I do not want to hear your argument, I have heard it all before". I insisted on the reason for the charge and was told that it was because we smoked in our room. The staff member continued to be rude and informed me "I have heard it all before, thats what they all say" when I explained that we did not smoke in our room. We spent half our time there outside in the beautiful weather smoking in the smoking area. I feel that this is a scam and that customers should beware due to the fact the hotel does not have to produce ANY proof in order to charge you the fee. I was planning on staying at this location repeatedly in the future but will NOT ever stay there again after this charge topped by the unbelievably rude employee!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r89619071-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>89619071</t>
+  </si>
+  <si>
+    <t>12/11/2010</t>
+  </si>
+  <si>
+    <t>I always have a great stay at the Residence Inn. This particular one has King suites with a queen sofa bed. The rooms are modern but noy flat screen TV. My son is autistic and is very picky about where we stay.  He loved the room and had no problem sleeping on the sofa sleeper. This means the hotel passed the clean test.    The front desk employees were friendly and efficient. We used the shuttle for transportation to and from the cheer competition we were participating in. That worked out perfectly for us on Saturday but not so well on Sunday. The shuttle only runs every 30 minutes on Sunday and my husband and son missed the competition on that day.     The breakfast was great. They had real sausage and not that microwave junk. There was whip cream and chocolate chips for the Texas waffles. My children loved those extra toppings.     The Internet and parking was free. This is very important to a family that travels with 5 laptops.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>I always have a great stay at the Residence Inn. This particular one has King suites with a queen sofa bed. The rooms are modern but noy flat screen TV. My son is autistic and is very picky about where we stay.  He loved the room and had no problem sleeping on the sofa sleeper. This means the hotel passed the clean test.    The front desk employees were friendly and efficient. We used the shuttle for transportation to and from the cheer competition we were participating in. That worked out perfectly for us on Saturday but not so well on Sunday. The shuttle only runs every 30 minutes on Sunday and my husband and son missed the competition on that day.     The breakfast was great. They had real sausage and not that microwave junk. There was whip cream and chocolate chips for the Texas waffles. My children loved those extra toppings.     The Internet and parking was free. This is very important to a family that travels with 5 laptops.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r83981164-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>83981164</t>
+  </si>
+  <si>
+    <t>10/18/2010</t>
+  </si>
+  <si>
+    <t>Worst Hotel I have stayed at in Grapevine</t>
+  </si>
+  <si>
+    <t>This hotel was the most unprofessional, rudest staff I have ever met!  I travel alot and I am a Marriott rewards card holder, but now am thinking I will be switching to Hilton Honors after this horrific stay.  This hotel is very plain and the pics on the website are nothing like it looks like in person.  The shuttle driver was incredably rude, and the General Manager charged my credit card that was on file $740.00!!!!  My rate was suppossed to be $72.00 plus tax!  This is illegle and fraud just in case you do not know!  No one should ever pay more than $70.00 to stay at this property.  IT is a rip off, and nothing more then a over priced Motel 6.  They advertise the restraunt to open daily, it wasn't , tried to call front desk serveral times with no answer, and the room smelled like dog pee when we arrived.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>This hotel was the most unprofessional, rudest staff I have ever met!  I travel alot and I am a Marriott rewards card holder, but now am thinking I will be switching to Hilton Honors after this horrific stay.  This hotel is very plain and the pics on the website are nothing like it looks like in person.  The shuttle driver was incredably rude, and the General Manager charged my credit card that was on file $740.00!!!!  My rate was suppossed to be $72.00 plus tax!  This is illegle and fraud just in case you do not know!  No one should ever pay more than $70.00 to stay at this property.  IT is a rip off, and nothing more then a over priced Motel 6.  They advertise the restraunt to open daily, it wasn't , tried to call front desk serveral times with no answer, and the room smelled like dog pee when we arrived.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r72899041-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>72899041</t>
+  </si>
+  <si>
+    <t>07/29/2010</t>
+  </si>
+  <si>
+    <t>Excellent service, accomodating staff!</t>
+  </si>
+  <si>
+    <t>My husband and I, along with two 7 year old twins, stayed overnight here on a trip to visit family in Muenster, Texas. We arrived late on a Thursday evening, and were happy to find a What-a-Burger still open right next door. Our room was clean, spacious, and looked very inviting with new looking furniture and stainless appliances in the kitchen. The bed was very comfortable. The next day our family picked us up. When we left Texas, the following Tuesday, we were unaware how awful the traffic is from Muenster to the DFW airport. I called the hotel and Caroline, the front desk manager graciously allowed us to use the hotel van to go to the airport, so our relatives could drop us off at the hotel and return to Muenster therby avoiding the worst of the traffic. We have decided that we will always stay here at the beginning and the end of any trip we make to the area. The staff is wonderful and the property exceeded our expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>My husband and I, along with two 7 year old twins, stayed overnight here on a trip to visit family in Muenster, Texas. We arrived late on a Thursday evening, and were happy to find a What-a-Burger still open right next door. Our room was clean, spacious, and looked very inviting with new looking furniture and stainless appliances in the kitchen. The bed was very comfortable. The next day our family picked us up. When we left Texas, the following Tuesday, we were unaware how awful the traffic is from Muenster to the DFW airport. I called the hotel and Caroline, the front desk manager graciously allowed us to use the hotel van to go to the airport, so our relatives could drop us off at the hotel and return to Muenster therby avoiding the worst of the traffic. We have decided that we will always stay here at the beginning and the end of any trip we make to the area. The staff is wonderful and the property exceeded our expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r59444084-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>59444084</t>
+  </si>
+  <si>
+    <t>03/24/2010</t>
+  </si>
+  <si>
+    <t>Liars and Thieves</t>
+  </si>
+  <si>
+    <t>I stayed at this Marriott on my way home from my wedding. I realized on the day that I checked out, that I had left my video camera on the bedside table. I immediately called the hotel to ask them if they could go to the room and retrieve my camera for me. The guy on the phone told me he would go see if it was there. I explained to him that I wasn't asking to see if I had left it in the room, and if he could check...I told him I know I left it there. He told me he would call me back in about an hour. I ended up calling him about three hours later with a response of "I will need to check with housekeeping to see if anything was turned in. He told me the next day that housekeeping didn't turn in anything. My questions is, where did it go? I left it right there! If housekeeping didn't find it, who did?
+Four calls and three months later. I finally called back one final time to check on the status. Caroline, the front desk manager, rudely interrupted me as I was trying to explain the situation, flat out lied to my face, telling me that they always call back on these situations. If that was true, I would be calling them three months later to check on the situation that still didn't have...I stayed at this Marriott on my way home from my wedding. I realized on the day that I checked out, that I had left my video camera on the bedside table. I immediately called the hotel to ask them if they could go to the room and retrieve my camera for me. The guy on the phone told me he would go see if it was there. I explained to him that I wasn't asking to see if I had left it in the room, and if he could check...I told him I know I left it there. He told me he would call me back in about an hour. I ended up calling him about three hours later with a response of "I will need to check with housekeeping to see if anything was turned in. He told me the next day that housekeeping didn't turn in anything. My questions is, where did it go? I left it right there! If housekeeping didn't find it, who did?Four calls and three months later. I finally called back one final time to check on the status. Caroline, the front desk manager, rudely interrupted me as I was trying to explain the situation, flat out lied to my face, telling me that they always call back on these situations. If that was true, I would be calling them three months later to check on the situation that still didn't have a resolution.Long story short, I left me camera with my wedding video on it, and called about it. The answer I got was "we are not responsible for items left in the room". I guess they're not responsible for returning phone calls or being rude to a paying customers either.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>I stayed at this Marriott on my way home from my wedding. I realized on the day that I checked out, that I had left my video camera on the bedside table. I immediately called the hotel to ask them if they could go to the room and retrieve my camera for me. The guy on the phone told me he would go see if it was there. I explained to him that I wasn't asking to see if I had left it in the room, and if he could check...I told him I know I left it there. He told me he would call me back in about an hour. I ended up calling him about three hours later with a response of "I will need to check with housekeeping to see if anything was turned in. He told me the next day that housekeeping didn't turn in anything. My questions is, where did it go? I left it right there! If housekeeping didn't find it, who did?
+Four calls and three months later. I finally called back one final time to check on the status. Caroline, the front desk manager, rudely interrupted me as I was trying to explain the situation, flat out lied to my face, telling me that they always call back on these situations. If that was true, I would be calling them three months later to check on the situation that still didn't have...I stayed at this Marriott on my way home from my wedding. I realized on the day that I checked out, that I had left my video camera on the bedside table. I immediately called the hotel to ask them if they could go to the room and retrieve my camera for me. The guy on the phone told me he would go see if it was there. I explained to him that I wasn't asking to see if I had left it in the room, and if he could check...I told him I know I left it there. He told me he would call me back in about an hour. I ended up calling him about three hours later with a response of "I will need to check with housekeeping to see if anything was turned in. He told me the next day that housekeeping didn't turn in anything. My questions is, where did it go? I left it right there! If housekeeping didn't find it, who did?Four calls and three months later. I finally called back one final time to check on the status. Caroline, the front desk manager, rudely interrupted me as I was trying to explain the situation, flat out lied to my face, telling me that they always call back on these situations. If that was true, I would be calling them three months later to check on the situation that still didn't have a resolution.Long story short, I left me camera with my wedding video on it, and called about it. The answer I got was "we are not responsible for items left in the room". I guess they're not responsible for returning phone calls or being rude to a paying customers either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r33307677-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>33307677</t>
+  </si>
+  <si>
+    <t>06/27/2009</t>
+  </si>
+  <si>
+    <t>Very Nice Place With Friendly Staff</t>
+  </si>
+  <si>
+    <t>I have stayed here with my family twice in the past four weeks.  This is a new property  with very nice and relatively large rooms with full sized refrigerators as well as a cooktop and microwave.  Rooms are well insulated and quiet.  Pool area is outdoors and very nice.  Included breakfast is standard fare ... good but not great.  Apparently they have a reception on Thursday nights with free food and drink.  Unfortunately we had other plans so didn't stick around.  Unfortunately, between our first and second visit the roof seam was torn by a storm and water leaked in most of the rooms from the 5th floor on up.  They were working hard to get everything cleaned up.  We hardly noticed the workers and I'm confident it will be fully opened and as good as ever soon.  I highly recommend this place.  Walking distance to Grapevine Mills Mall, Bass Pro Shop and Whataburger!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>I have stayed here with my family twice in the past four weeks.  This is a new property  with very nice and relatively large rooms with full sized refrigerators as well as a cooktop and microwave.  Rooms are well insulated and quiet.  Pool area is outdoors and very nice.  Included breakfast is standard fare ... good but not great.  Apparently they have a reception on Thursday nights with free food and drink.  Unfortunately we had other plans so didn't stick around.  Unfortunately, between our first and second visit the roof seam was torn by a storm and water leaked in most of the rooms from the 5th floor on up.  They were working hard to get everything cleaned up.  We hardly noticed the workers and I'm confident it will be fully opened and as good as ever soon.  I highly recommend this place.  Walking distance to Grapevine Mills Mall, Bass Pro Shop and Whataburger!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r14420682-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>14420682</t>
+  </si>
+  <si>
+    <t>03/21/2008</t>
+  </si>
+  <si>
+    <t>Decent place</t>
+  </si>
+  <si>
+    <t>Pretty darn good hotel for the price.  Nice suites, close to DFW and really exactly in between Dallas and Fort worth.  Great location with great people working there.  A few hiccups but that was it.  CLEAN. Nice breakfast, they cater to every whim.  Stayed 2 nights at the Gaylord and they can't hold a candle to this Marriott.........</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r14026181-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>14026181</t>
+  </si>
+  <si>
+    <t>03/03/2008</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>My husband and I chose to stay at this Residence Inn only because of the its close proximity to DFW airport, as we had an early flight to take and did not want to fight morning traffic.  However, we enjoyed our stay so much AND the hotel was so nice that we chose to book a couple of extra nights upon our return flight.This hotel seems brand new and has many upgrades like: granite countertops, tiled floor, full sized stainless steel appliances, wireless connection; it felt just like home! They also have free airport shuttle service, a great complimentary breakfast (not your typical bagel, juice and coffee) with bacon, sausage, scrambled eggs, a State of Texas-shaped waffle maker, etc. very neat!They even have an Italian restaurant on the premises.I would absolutely recommend this hotel to anyone looking for a hotel close to DFW!   Great deal for the price of the room too.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2008</t>
+  </si>
+  <si>
+    <t>My husband and I chose to stay at this Residence Inn only because of the its close proximity to DFW airport, as we had an early flight to take and did not want to fight morning traffic.  However, we enjoyed our stay so much AND the hotel was so nice that we chose to book a couple of extra nights upon our return flight.This hotel seems brand new and has many upgrades like: granite countertops, tiled floor, full sized stainless steel appliances, wireless connection; it felt just like home! They also have free airport shuttle service, a great complimentary breakfast (not your typical bagel, juice and coffee) with bacon, sausage, scrambled eggs, a State of Texas-shaped waffle maker, etc. very neat!They even have an Italian restaurant on the premises.I would absolutely recommend this hotel to anyone looking for a hotel close to DFW!   Great deal for the price of the room too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r13315266-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>13315266</t>
+  </si>
+  <si>
+    <t>02/06/2008</t>
+  </si>
+  <si>
+    <t>Honestly, the staff was so attentive it was like the Ritz</t>
+  </si>
+  <si>
+    <t>I travel for business, and I have enough days away from home that I don't like staying at hotels unless I'm sure they will be full-service, absolutely comfortable, clean, etc.  I called Marriott reservations at the last minute because Hyatt at the airport had lost my reservation and was over-booked.  I didn't have high expectations for the Residence Inn (based on previous stays at extended stay hotels), but I knew that the hotel had been built in 2006.  I have to say that I would rank this hotel as one of the highest quality hotels I've visited.  The room is very nice - stainless steel appliances, granite countertops, spotlessly clean, comfortable bed - but it's really the service that gives this hotel the extra points.  I ran out of toothpaste and the front desk gave me a new tube.  The hotel will take your grocery orders and deliver (free of charge) your order before the end of the day.  They will shuttle you anywhere within 5 miles of the hotel.  The breakfast has just about everything, and it's all fresh and custom-prepared (for example, they bent over backwards to make hard-boiled eggs for me.)  Granted, you will probably notice the difference between this hotel and the Ritz if you are picky about plush towels and top-of-the-line bed sheets, but otherwise I would say that this is just an excellent hotel and one I would recommend without any hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel for business, and I have enough days away from home that I don't like staying at hotels unless I'm sure they will be full-service, absolutely comfortable, clean, etc.  I called Marriott reservations at the last minute because Hyatt at the airport had lost my reservation and was over-booked.  I didn't have high expectations for the Residence Inn (based on previous stays at extended stay hotels), but I knew that the hotel had been built in 2006.  I have to say that I would rank this hotel as one of the highest quality hotels I've visited.  The room is very nice - stainless steel appliances, granite countertops, spotlessly clean, comfortable bed - but it's really the service that gives this hotel the extra points.  I ran out of toothpaste and the front desk gave me a new tube.  The hotel will take your grocery orders and deliver (free of charge) your order before the end of the day.  They will shuttle you anywhere within 5 miles of the hotel.  The breakfast has just about everything, and it's all fresh and custom-prepared (for example, they bent over backwards to make hard-boiled eggs for me.)  Granted, you will probably notice the difference between this hotel and the Ritz if you are picky about plush towels and top-of-the-line bed sheets, but otherwise I would say that this is just an excellent hotel and one I would recommend without any hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r7772322-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>7772322</t>
+  </si>
+  <si>
+    <t>06/04/2007</t>
+  </si>
+  <si>
+    <t>Spotless and Friendly!</t>
+  </si>
+  <si>
+    <t>Although near the airport, this hotel is very quiet.  The included breakfast has pancakes/waffles/eggs/bacon/sausage/ biscuits &amp; gravy/muffins/donuts/cereals/fresh fruit/yogurt - much too numerous to mention everything, but you get the point.  The rooms are spotlessly clean and include a full size kitchen, including refrigerator and dishwasher.  All countertops granite.  Although bathroom counterspace is lacking, there are drawers in the vanity in which to store everything.  You truly feel like you are in a home.  Internet access is free.  The outdoor pool is kept very clean.  The one day they had a chemical problem they offered us the Springhill Suites pool across the street and offered us transportation there.  Huge outlet mall across the street, Bass Pro Shop in attached parking lot.  The staff is very helpful, outgoing and friendly.  Great Place to Stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>Although near the airport, this hotel is very quiet.  The included breakfast has pancakes/waffles/eggs/bacon/sausage/ biscuits &amp; gravy/muffins/donuts/cereals/fresh fruit/yogurt - much too numerous to mention everything, but you get the point.  The rooms are spotlessly clean and include a full size kitchen, including refrigerator and dishwasher.  All countertops granite.  Although bathroom counterspace is lacking, there are drawers in the vanity in which to store everything.  You truly feel like you are in a home.  Internet access is free.  The outdoor pool is kept very clean.  The one day they had a chemical problem they offered us the Springhill Suites pool across the street and offered us transportation there.  Huge outlet mall across the street, Bass Pro Shop in attached parking lot.  The staff is very helpful, outgoing and friendly.  Great Place to Stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r7350485-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>7350485</t>
+  </si>
+  <si>
+    <t>04/13/2007</t>
+  </si>
+  <si>
+    <t>great experience</t>
+  </si>
+  <si>
+    <t>I am very particular about hotels and booked here because of location and the fact that it is NEW.  The staff was extremely polite, helpful and accommodating.  Cleanliness is number one on my list and I was not disappointed.  The studio room type was nicely arranged. The complimentary breakfast was also well managed and more than I had expected.  My experiences at some four star hotels could not compare with the pleasure of this stay.  Because I check with tripadvisor before I book rooms I felt this Residence Inn deserves to be acknowedged.</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r6842358-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
+  </si>
+  <si>
+    <t>6842358</t>
+  </si>
+  <si>
+    <t>02/25/2007</t>
+  </si>
+  <si>
+    <t>A Great First Stay at a Residence Inn!!!</t>
+  </si>
+  <si>
+    <t>My wife and I recently stayed at this newly built Residence Inn in Grapevine!  I must say that we were a little hesitent since we had never stayed at a Residence Inn before.  However, I must give credit where credit is due.  This Residence Inn was a great find for us.  We reserved a suite which consisted of a full kitchen, separate living area, as well as a separate room with a king size bed and adjacent bathroom.  The room was spotless.  Very well laid out.  The full size refrigerator, microwave, dishwasher, stove top, etc. were very nice to have access to.  We had free wireless or wired internet service.  There was a fairly good free buffet breakfast available.  The front desk clerk, who was extremely busy and overworked, was very accomidating.  There was a hateful individual who was complaining about not receiving her foam pillows, but please........we all know that in order to get great service you simply need to be polite and respectful.  We were granted every request we made with no hesitations.  She on the otherhand did not and I am assuming because of her horrible attitude.  Granted, you are paying for a room and I am sure you would like it to your specifics, but downgrading and ridiculing an overworked desk clerk is uncalled for.  The hotel is in a great location.  Very close to Grapevine Mills Mall, tons of Restaurant choices, easy access to the...My wife and I recently stayed at this newly built Residence Inn in Grapevine!  I must say that we were a little hesitent since we had never stayed at a Residence Inn before.  However, I must give credit where credit is due.  This Residence Inn was a great find for us.  We reserved a suite which consisted of a full kitchen, separate living area, as well as a separate room with a king size bed and adjacent bathroom.  The room was spotless.  Very well laid out.  The full size refrigerator, microwave, dishwasher, stove top, etc. were very nice to have access to.  We had free wireless or wired internet service.  There was a fairly good free buffet breakfast available.  The front desk clerk, who was extremely busy and overworked, was very accomidating.  There was a hateful individual who was complaining about not receiving her foam pillows, but please........we all know that in order to get great service you simply need to be polite and respectful.  We were granted every request we made with no hesitations.  She on the otherhand did not and I am assuming because of her horrible attitude.  Granted, you are paying for a room and I am sure you would like it to your specifics, but downgrading and ridiculing an overworked desk clerk is uncalled for.  The hotel is in a great location.  Very close to Grapevine Mills Mall, tons of Restaurant choices, easy access to the highway and very centrally located in the DFW area.  When we are in the DFW area again, we would most definately reserve a room at this Residence Inn with no hesitations!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>My wife and I recently stayed at this newly built Residence Inn in Grapevine!  I must say that we were a little hesitent since we had never stayed at a Residence Inn before.  However, I must give credit where credit is due.  This Residence Inn was a great find for us.  We reserved a suite which consisted of a full kitchen, separate living area, as well as a separate room with a king size bed and adjacent bathroom.  The room was spotless.  Very well laid out.  The full size refrigerator, microwave, dishwasher, stove top, etc. were very nice to have access to.  We had free wireless or wired internet service.  There was a fairly good free buffet breakfast available.  The front desk clerk, who was extremely busy and overworked, was very accomidating.  There was a hateful individual who was complaining about not receiving her foam pillows, but please........we all know that in order to get great service you simply need to be polite and respectful.  We were granted every request we made with no hesitations.  She on the otherhand did not and I am assuming because of her horrible attitude.  Granted, you are paying for a room and I am sure you would like it to your specifics, but downgrading and ridiculing an overworked desk clerk is uncalled for.  The hotel is in a great location.  Very close to Grapevine Mills Mall, tons of Restaurant choices, easy access to the...My wife and I recently stayed at this newly built Residence Inn in Grapevine!  I must say that we were a little hesitent since we had never stayed at a Residence Inn before.  However, I must give credit where credit is due.  This Residence Inn was a great find for us.  We reserved a suite which consisted of a full kitchen, separate living area, as well as a separate room with a king size bed and adjacent bathroom.  The room was spotless.  Very well laid out.  The full size refrigerator, microwave, dishwasher, stove top, etc. were very nice to have access to.  We had free wireless or wired internet service.  There was a fairly good free buffet breakfast available.  The front desk clerk, who was extremely busy and overworked, was very accomidating.  There was a hateful individual who was complaining about not receiving her foam pillows, but please........we all know that in order to get great service you simply need to be polite and respectful.  We were granted every request we made with no hesitations.  She on the otherhand did not and I am assuming because of her horrible attitude.  Granted, you are paying for a room and I am sure you would like it to your specifics, but downgrading and ridiculing an overworked desk clerk is uncalled for.  The hotel is in a great location.  Very close to Grapevine Mills Mall, tons of Restaurant choices, easy access to the highway and very centrally located in the DFW area.  When we are in the DFW area again, we would most definately reserve a room at this Residence Inn with no hesitations!!!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2823,6137 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>67</v>
+      </c>
+      <c r="X4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>99</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>76</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>160</v>
+      </c>
+      <c r="X15" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>163</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>169</v>
+      </c>
+      <c r="X16" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>172</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>173</v>
+      </c>
+      <c r="J17" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" t="s">
+        <v>175</v>
+      </c>
+      <c r="L17" t="s">
+        <v>176</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+      <c r="O17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>178</v>
+      </c>
+      <c r="X17" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>177</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>169</v>
+      </c>
+      <c r="X18" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>201</v>
+      </c>
+      <c r="X20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" t="s">
+        <v>206</v>
+      </c>
+      <c r="K21" t="s">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s">
+        <v>208</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>209</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>201</v>
+      </c>
+      <c r="X21" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>216</v>
+      </c>
+      <c r="X22" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>219</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>220</v>
+      </c>
+      <c r="J23" t="s">
+        <v>221</v>
+      </c>
+      <c r="K23" t="s">
+        <v>222</v>
+      </c>
+      <c r="L23" t="s">
+        <v>223</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>224</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>225</v>
+      </c>
+      <c r="X23" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" t="s">
+        <v>230</v>
+      </c>
+      <c r="K24" t="s">
+        <v>231</v>
+      </c>
+      <c r="L24" t="s">
+        <v>232</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>243</v>
+      </c>
+      <c r="X25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>268</v>
+      </c>
+      <c r="X28" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>271</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>275</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>280</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>281</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>282</v>
+      </c>
+      <c r="L30" t="s">
+        <v>283</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>285</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>286</v>
+      </c>
+      <c r="J31" t="s">
+        <v>287</v>
+      </c>
+      <c r="K31" t="s">
+        <v>288</v>
+      </c>
+      <c r="L31" t="s">
+        <v>289</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>290</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>291</v>
+      </c>
+      <c r="X31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>294</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>295</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="K32" t="s">
+        <v>297</v>
+      </c>
+      <c r="L32" t="s">
+        <v>298</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>299</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>300</v>
+      </c>
+      <c r="X32" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>304</v>
+      </c>
+      <c r="J33" t="s">
+        <v>305</v>
+      </c>
+      <c r="K33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s">
+        <v>307</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>290</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>300</v>
+      </c>
+      <c r="X33" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>290</v>
+      </c>
+      <c r="O34" t="s">
+        <v>314</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>315</v>
+      </c>
+      <c r="X34" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" t="s">
+        <v>320</v>
+      </c>
+      <c r="K35" t="s">
+        <v>321</v>
+      </c>
+      <c r="L35" t="s">
+        <v>322</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>323</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>324</v>
+      </c>
+      <c r="X35" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" t="s">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>323</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>332</v>
+      </c>
+      <c r="X36" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>340</v>
+      </c>
+      <c r="O37" t="s">
+        <v>76</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>341</v>
+      </c>
+      <c r="X37" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>345</v>
+      </c>
+      <c r="J38" t="s">
+        <v>346</v>
+      </c>
+      <c r="K38" t="s">
+        <v>347</v>
+      </c>
+      <c r="L38" t="s">
+        <v>348</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>349</v>
+      </c>
+      <c r="X38" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>352</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>353</v>
+      </c>
+      <c r="J39" t="s">
+        <v>354</v>
+      </c>
+      <c r="K39" t="s">
+        <v>355</v>
+      </c>
+      <c r="L39" t="s">
+        <v>356</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>357</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>358</v>
+      </c>
+      <c r="X39" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>361</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>362</v>
+      </c>
+      <c r="J40" t="s">
+        <v>363</v>
+      </c>
+      <c r="K40" t="s">
+        <v>364</v>
+      </c>
+      <c r="L40" t="s">
+        <v>365</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>357</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>366</v>
+      </c>
+      <c r="X40" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>370</v>
+      </c>
+      <c r="J41" t="s">
+        <v>371</v>
+      </c>
+      <c r="K41" t="s">
+        <v>372</v>
+      </c>
+      <c r="L41" t="s">
+        <v>373</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>374</v>
+      </c>
+      <c r="X41" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>379</v>
+      </c>
+      <c r="K42" t="s">
+        <v>380</v>
+      </c>
+      <c r="L42" t="s">
+        <v>381</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>382</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>374</v>
+      </c>
+      <c r="X42" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>385</v>
+      </c>
+      <c r="J43" t="s">
+        <v>386</v>
+      </c>
+      <c r="K43" t="s">
+        <v>387</v>
+      </c>
+      <c r="L43" t="s">
+        <v>388</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>389</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>390</v>
+      </c>
+      <c r="X43" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>393</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>394</v>
+      </c>
+      <c r="J44" t="s">
+        <v>395</v>
+      </c>
+      <c r="K44" t="s">
+        <v>396</v>
+      </c>
+      <c r="L44" t="s">
+        <v>397</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>398</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>399</v>
+      </c>
+      <c r="X44" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>402</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>403</v>
+      </c>
+      <c r="J45" t="s">
+        <v>404</v>
+      </c>
+      <c r="K45" t="s">
+        <v>405</v>
+      </c>
+      <c r="L45" t="s">
+        <v>406</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>407</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>408</v>
+      </c>
+      <c r="X45" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>411</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>412</v>
+      </c>
+      <c r="J46" t="s">
+        <v>413</v>
+      </c>
+      <c r="K46" t="s">
+        <v>414</v>
+      </c>
+      <c r="L46" t="s">
+        <v>415</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>416</v>
+      </c>
+      <c r="X46" t="s">
+        <v>417</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>419</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>420</v>
+      </c>
+      <c r="J47" t="s">
+        <v>421</v>
+      </c>
+      <c r="K47" t="s">
+        <v>422</v>
+      </c>
+      <c r="L47" t="s">
+        <v>423</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>424</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>425</v>
+      </c>
+      <c r="X47" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>429</v>
+      </c>
+      <c r="J48" t="s">
+        <v>430</v>
+      </c>
+      <c r="K48" t="s">
+        <v>431</v>
+      </c>
+      <c r="L48" t="s">
+        <v>432</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>357</v>
+      </c>
+      <c r="O48" t="s">
+        <v>433</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>434</v>
+      </c>
+      <c r="X48" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>437</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>438</v>
+      </c>
+      <c r="J49" t="s">
+        <v>439</v>
+      </c>
+      <c r="K49" t="s">
+        <v>440</v>
+      </c>
+      <c r="L49" t="s">
+        <v>441</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>442</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>443</v>
+      </c>
+      <c r="X49" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>446</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>447</v>
+      </c>
+      <c r="J50" t="s">
+        <v>448</v>
+      </c>
+      <c r="K50" t="s">
+        <v>449</v>
+      </c>
+      <c r="L50" t="s">
+        <v>450</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>451</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>452</v>
+      </c>
+      <c r="X50" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>455</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>456</v>
+      </c>
+      <c r="J51" t="s">
+        <v>457</v>
+      </c>
+      <c r="K51" t="s">
+        <v>458</v>
+      </c>
+      <c r="L51" t="s">
+        <v>459</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>460</v>
+      </c>
+      <c r="X51" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>463</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>464</v>
+      </c>
+      <c r="J52" t="s">
+        <v>465</v>
+      </c>
+      <c r="K52" t="s">
+        <v>466</v>
+      </c>
+      <c r="L52" t="s">
+        <v>467</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>468</v>
+      </c>
+      <c r="O52" t="s">
+        <v>66</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>469</v>
+      </c>
+      <c r="X52" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>472</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>473</v>
+      </c>
+      <c r="J53" t="s">
+        <v>474</v>
+      </c>
+      <c r="K53" t="s">
+        <v>475</v>
+      </c>
+      <c r="L53" t="s">
+        <v>476</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>477</v>
+      </c>
+      <c r="O53" t="s">
+        <v>76</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>478</v>
+      </c>
+      <c r="X53" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>481</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>482</v>
+      </c>
+      <c r="J54" t="s">
+        <v>483</v>
+      </c>
+      <c r="K54" t="s">
+        <v>484</v>
+      </c>
+      <c r="L54" t="s">
+        <v>485</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>477</v>
+      </c>
+      <c r="O54" t="s">
+        <v>66</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>478</v>
+      </c>
+      <c r="X54" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>487</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>488</v>
+      </c>
+      <c r="J55" t="s">
+        <v>489</v>
+      </c>
+      <c r="K55" t="s">
+        <v>490</v>
+      </c>
+      <c r="L55" t="s">
+        <v>491</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>492</v>
+      </c>
+      <c r="O55" t="s">
+        <v>76</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>493</v>
+      </c>
+      <c r="X55" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>496</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>497</v>
+      </c>
+      <c r="J56" t="s">
+        <v>498</v>
+      </c>
+      <c r="K56" t="s">
+        <v>499</v>
+      </c>
+      <c r="L56" t="s">
+        <v>500</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>501</v>
+      </c>
+      <c r="O56" t="s">
+        <v>76</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>502</v>
+      </c>
+      <c r="X56" t="s">
+        <v>503</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>505</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>506</v>
+      </c>
+      <c r="J57" t="s">
+        <v>507</v>
+      </c>
+      <c r="K57" t="s">
+        <v>508</v>
+      </c>
+      <c r="L57" t="s">
+        <v>509</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>510</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>511</v>
+      </c>
+      <c r="X57" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>514</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>515</v>
+      </c>
+      <c r="J58" t="s">
+        <v>516</v>
+      </c>
+      <c r="K58" t="s">
+        <v>517</v>
+      </c>
+      <c r="L58" t="s">
+        <v>518</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>442</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>519</v>
+      </c>
+      <c r="X58" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>522</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>523</v>
+      </c>
+      <c r="J59" t="s">
+        <v>524</v>
+      </c>
+      <c r="K59" t="s">
+        <v>525</v>
+      </c>
+      <c r="L59" t="s">
+        <v>526</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>442</v>
+      </c>
+      <c r="O59" t="s">
+        <v>66</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>527</v>
+      </c>
+      <c r="X59" t="s">
+        <v>528</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>530</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>531</v>
+      </c>
+      <c r="J60" t="s">
+        <v>532</v>
+      </c>
+      <c r="K60" t="s">
+        <v>533</v>
+      </c>
+      <c r="L60" t="s">
+        <v>534</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>535</v>
+      </c>
+      <c r="O60" t="s">
+        <v>76</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>536</v>
+      </c>
+      <c r="X60" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>539</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>540</v>
+      </c>
+      <c r="J61" t="s">
+        <v>541</v>
+      </c>
+      <c r="K61" t="s">
+        <v>542</v>
+      </c>
+      <c r="L61" t="s">
+        <v>543</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>544</v>
+      </c>
+      <c r="O61" t="s">
+        <v>66</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>536</v>
+      </c>
+      <c r="X61" t="s">
+        <v>537</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>546</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>547</v>
+      </c>
+      <c r="J62" t="s">
+        <v>548</v>
+      </c>
+      <c r="K62" t="s">
+        <v>549</v>
+      </c>
+      <c r="L62" t="s">
+        <v>550</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>544</v>
+      </c>
+      <c r="O62" t="s">
+        <v>76</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>551</v>
+      </c>
+      <c r="X62" t="s">
+        <v>552</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>554</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>555</v>
+      </c>
+      <c r="J63" t="s">
+        <v>556</v>
+      </c>
+      <c r="K63" t="s">
+        <v>557</v>
+      </c>
+      <c r="L63" t="s">
+        <v>558</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>559</v>
+      </c>
+      <c r="O63" t="s">
+        <v>314</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>560</v>
+      </c>
+      <c r="X63" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>563</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>564</v>
+      </c>
+      <c r="J64" t="s">
+        <v>565</v>
+      </c>
+      <c r="K64" t="s">
+        <v>566</v>
+      </c>
+      <c r="L64" t="s">
+        <v>567</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>559</v>
+      </c>
+      <c r="O64" t="s">
+        <v>314</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>568</v>
+      </c>
+      <c r="X64" t="s">
+        <v>569</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>571</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>572</v>
+      </c>
+      <c r="J65" t="s">
+        <v>573</v>
+      </c>
+      <c r="K65" t="s">
+        <v>574</v>
+      </c>
+      <c r="L65" t="s">
+        <v>575</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>576</v>
+      </c>
+      <c r="O65" t="s">
+        <v>76</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>578</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>579</v>
+      </c>
+      <c r="J66" t="s">
+        <v>580</v>
+      </c>
+      <c r="K66" t="s">
+        <v>581</v>
+      </c>
+      <c r="L66" t="s">
+        <v>582</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>583</v>
+      </c>
+      <c r="O66" t="s">
+        <v>314</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>584</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>585</v>
+      </c>
+      <c r="J67" t="s">
+        <v>586</v>
+      </c>
+      <c r="K67" t="s">
+        <v>587</v>
+      </c>
+      <c r="L67" t="s">
+        <v>588</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>589</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>591</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>592</v>
+      </c>
+      <c r="J68" t="s">
+        <v>593</v>
+      </c>
+      <c r="K68" t="s">
+        <v>594</v>
+      </c>
+      <c r="L68" t="s">
+        <v>595</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>583</v>
+      </c>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>597</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>598</v>
+      </c>
+      <c r="J69" t="s">
+        <v>599</v>
+      </c>
+      <c r="K69" t="s">
+        <v>600</v>
+      </c>
+      <c r="L69" t="s">
+        <v>601</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>602</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>604</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>605</v>
+      </c>
+      <c r="J70" t="s">
+        <v>599</v>
+      </c>
+      <c r="K70" t="s">
+        <v>606</v>
+      </c>
+      <c r="L70" t="s">
+        <v>607</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>602</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>609</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>610</v>
+      </c>
+      <c r="J71" t="s">
+        <v>611</v>
+      </c>
+      <c r="K71" t="s">
+        <v>612</v>
+      </c>
+      <c r="L71" t="s">
+        <v>613</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>602</v>
+      </c>
+      <c r="O71" t="s">
+        <v>76</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>614</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>615</v>
+      </c>
+      <c r="J72" t="s">
+        <v>616</v>
+      </c>
+      <c r="K72" t="s">
+        <v>617</v>
+      </c>
+      <c r="L72" t="s">
+        <v>618</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>619</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>621</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>622</v>
+      </c>
+      <c r="J73" t="s">
+        <v>623</v>
+      </c>
+      <c r="K73" t="s">
+        <v>624</v>
+      </c>
+      <c r="L73" t="s">
+        <v>625</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>619</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>627</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>628</v>
+      </c>
+      <c r="J74" t="s">
+        <v>629</v>
+      </c>
+      <c r="K74" t="s">
+        <v>630</v>
+      </c>
+      <c r="L74" t="s">
+        <v>631</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>632</v>
+      </c>
+      <c r="O74" t="s">
+        <v>76</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>634</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>635</v>
+      </c>
+      <c r="J75" t="s">
+        <v>629</v>
+      </c>
+      <c r="K75" t="s">
+        <v>636</v>
+      </c>
+      <c r="L75" t="s">
+        <v>637</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>638</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>639</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>640</v>
+      </c>
+      <c r="J76" t="s">
+        <v>641</v>
+      </c>
+      <c r="K76" t="s">
+        <v>642</v>
+      </c>
+      <c r="L76" t="s">
+        <v>643</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>632</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>645</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>646</v>
+      </c>
+      <c r="J77" t="s">
+        <v>647</v>
+      </c>
+      <c r="K77" t="s">
+        <v>648</v>
+      </c>
+      <c r="L77" t="s">
+        <v>649</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>650</v>
+      </c>
+      <c r="O77" t="s">
+        <v>66</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>651</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>652</v>
+      </c>
+      <c r="J78" t="s">
+        <v>653</v>
+      </c>
+      <c r="K78" t="s">
+        <v>654</v>
+      </c>
+      <c r="L78" t="s">
+        <v>655</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>650</v>
+      </c>
+      <c r="O78" t="s">
+        <v>314</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>657</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>658</v>
+      </c>
+      <c r="J79" t="s">
+        <v>659</v>
+      </c>
+      <c r="K79" t="s">
+        <v>660</v>
+      </c>
+      <c r="L79" t="s">
+        <v>661</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>662</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>663</v>
+      </c>
+      <c r="J80" t="s">
+        <v>664</v>
+      </c>
+      <c r="K80" t="s">
+        <v>665</v>
+      </c>
+      <c r="L80" t="s">
+        <v>666</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>667</v>
+      </c>
+      <c r="O80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>669</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>670</v>
+      </c>
+      <c r="J81" t="s">
+        <v>671</v>
+      </c>
+      <c r="K81" t="s">
+        <v>672</v>
+      </c>
+      <c r="L81" t="s">
+        <v>673</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>667</v>
+      </c>
+      <c r="O81" t="s">
+        <v>66</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>674</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>675</v>
+      </c>
+      <c r="J82" t="s">
+        <v>676</v>
+      </c>
+      <c r="K82" t="s">
+        <v>677</v>
+      </c>
+      <c r="L82" t="s">
+        <v>678</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>667</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>679</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>680</v>
+      </c>
+      <c r="J83" t="s">
+        <v>681</v>
+      </c>
+      <c r="K83" t="s">
+        <v>682</v>
+      </c>
+      <c r="L83" t="s">
+        <v>683</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="s">
+        <v>684</v>
+      </c>
+      <c r="O83" t="s">
+        <v>314</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>1</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>686</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>687</v>
+      </c>
+      <c r="J84" t="s">
+        <v>688</v>
+      </c>
+      <c r="K84" t="s">
+        <v>50</v>
+      </c>
+      <c r="L84" t="s">
+        <v>689</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>690</v>
+      </c>
+      <c r="O84" t="s">
+        <v>66</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>692</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>693</v>
+      </c>
+      <c r="J85" t="s">
+        <v>694</v>
+      </c>
+      <c r="K85" t="s">
+        <v>695</v>
+      </c>
+      <c r="L85" t="s">
+        <v>696</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>697</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>699</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>700</v>
+      </c>
+      <c r="J86" t="s">
+        <v>701</v>
+      </c>
+      <c r="K86" t="s">
+        <v>702</v>
+      </c>
+      <c r="L86" t="s">
+        <v>703</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>704</v>
+      </c>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>706</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>707</v>
+      </c>
+      <c r="J87" t="s">
+        <v>708</v>
+      </c>
+      <c r="K87" t="s">
+        <v>709</v>
+      </c>
+      <c r="L87" t="s">
+        <v>710</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
+        <v>711</v>
+      </c>
+      <c r="O87" t="s">
+        <v>76</v>
+      </c>
+      <c r="P87" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>713</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>714</v>
+      </c>
+      <c r="J88" t="s">
+        <v>715</v>
+      </c>
+      <c r="K88" t="s">
+        <v>716</v>
+      </c>
+      <c r="L88" t="s">
+        <v>717</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>718</v>
+      </c>
+      <c r="O88" t="s">
+        <v>66</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>720</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>721</v>
+      </c>
+      <c r="J89" t="s">
+        <v>722</v>
+      </c>
+      <c r="K89" t="s">
+        <v>723</v>
+      </c>
+      <c r="L89" t="s">
+        <v>724</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>725</v>
+      </c>
+      <c r="O89" t="s">
+        <v>76</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>726</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>727</v>
+      </c>
+      <c r="J90" t="s">
+        <v>728</v>
+      </c>
+      <c r="K90" t="s">
+        <v>729</v>
+      </c>
+      <c r="L90" t="s">
+        <v>730</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>731</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>733</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>734</v>
+      </c>
+      <c r="J91" t="s">
+        <v>735</v>
+      </c>
+      <c r="K91" t="s">
+        <v>736</v>
+      </c>
+      <c r="L91" t="s">
+        <v>737</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>739</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>740</v>
+      </c>
+      <c r="J92" t="s">
+        <v>741</v>
+      </c>
+      <c r="K92" t="s">
+        <v>742</v>
+      </c>
+      <c r="L92" t="s">
+        <v>743</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>744</v>
+      </c>
+      <c r="O92" t="s">
+        <v>76</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>746</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>747</v>
+      </c>
+      <c r="J93" t="s">
+        <v>748</v>
+      </c>
+      <c r="K93" t="s">
+        <v>749</v>
+      </c>
+      <c r="L93" t="s">
+        <v>750</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>751</v>
+      </c>
+      <c r="O93" t="s">
+        <v>76</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>55677</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>752</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>753</v>
+      </c>
+      <c r="J94" t="s">
+        <v>754</v>
+      </c>
+      <c r="K94" t="s">
+        <v>755</v>
+      </c>
+      <c r="L94" t="s">
+        <v>756</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>757</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>758</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_664.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_664.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="852">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Rachael0621</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>MrSimonBall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r576040279-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>Phenomjet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r548135704-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>Terribly small bathrooms and bathtubs, poor quality rooms like a motel 6, terrible service, asked them to service room and they failed to.  AC very loud in bedroom. I would not recommend!!  Far better options like the Element.  More</t>
   </si>
   <si>
+    <t>Henry R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r520365068-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>TravelingGoose03</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r508488377-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>The trend in family-friendly hotels is a breakfast buffet. As one who travels frequently, I know that the quality of these buffets varies greatly. And then there is the new gold standard.Marriott's Residence Inn in Grapevine, TX, was a wonderful and convenient place to stay during a recent visit to Dallas. What puts this hotel in a category of its own was Nancy. During our stay she was the Marriott associate who made the breakfast buffet hum. My habit is to come down to breakfast early, have a light meal and then read the newspapers online over several cups of coffee. I got to watch Nancy work.She kept the food trays stocked, the coffee never ran out, she was quick to clear the tables as people finished and she was always there to help with the waffle maker. Well done.The hotel is near the north end of the Dallas-Fort Worth Airport. A shuttle runs between DFW and the hotel on demand. If you are meeting someone at the airport this saves you from paying the airport tolls.Nearby is downtown Grapevine with its historic buildings, wine bars and shopping.; a day trip not to be missed.Nancy, I will be back.More</t>
   </si>
   <si>
+    <t>countingmomma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r495930396-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -300,6 +318,9 @@
     <t>Comfortable stay (with room to stretch out) during a post-conference weekend.  We were close to the airport for an easy commute the day we departed, but also very close to a major connecting road for trips to Dallas, Ft. Worth, and Arlington.  We so appreciate the consistency found the Marriott brands.More</t>
   </si>
   <si>
+    <t>mauidawne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r481967676-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -327,6 +348,9 @@
     <t>Website stated limited airport shuttle on saturdays so I decided to call to be sure I could get shuttle around 7am Saturday.  Steven assured me I would have a lift &amp; would be here when I arrived as well as he was!  He arranged everything and his customer service was above and beyond!  He gave me a 1 bed suite with separate living room &amp; kitchen- see pics. Hotel smells and looks new.  Shuttle was prompt for pickup and drop off.  Windshield needs serious repair but that is my only complaint.  Breakfast is good as well! More</t>
   </si>
   <si>
+    <t>Ghost4314</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r481110580-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>Staff are fantastic! Unfortunately, the property is a bit tired. Internet is slow, television reception was non-existent for much of the stay. Breakfast is good, the restaurant is somewhat "Blah". SMOKERS as you enter the lobby. What a place to have people smoking! Perhaps relocating the smoking area from the front entrance to somewhere else...middle of the car park..would be nice. Air conditioning was set to "HIGH" yet remained in "AUTO", thus no constant flow of air. Found myself awakening to a hot room in the middle of the night. Not pleasant. Laundry room is spacious, but only two washers and two dryers.More</t>
   </si>
   <si>
+    <t>lisajsharkey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r472651058-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -378,6 +405,9 @@
     <t>Overall....we had a great stay. You can't beat it for the price. You don't get anything fancy with a Residence Inn, but the hotel is clean, rooms are nice, bed is comfortable. The breakfast is nice. It was good, and convenient. Although it only goes to 9:30, so don't sleep in. I am still giving 4 stars, although we had a few things that were weird with our stay: There was some confusion with some special requests. I am allergic to down, and requested a "feather free" room, but they left two feather pillows, and two foam pillows on our bed. You would think "feather free" means feather free. By the time we got there, housekeeping was gone for the day, so we had to use those pillows for that night. There is a complimentary airport shuttle, which we learned on our way to the airport, as we were leaving, that they give short rides to the Grapevine area. That would have been nice to know ahead of time. Everything in the area is very close by, but with the rainy weather when we visited, we didn't want to always walk somewhere, so we took uber a lot. Ubers are sometimes inconvenient. Also, the hotel is somewhat hard to get to/find. Most GPS took us past the driveway to turn in, then we were on the freeway. It was a long detour around to get back to the correct parking...Overall....we had a great stay. You can't beat it for the price. You don't get anything fancy with a Residence Inn, but the hotel is clean, rooms are nice, bed is comfortable. The breakfast is nice. It was good, and convenient. Although it only goes to 9:30, so don't sleep in. I am still giving 4 stars, although we had a few things that were weird with our stay: There was some confusion with some special requests. I am allergic to down, and requested a "feather free" room, but they left two feather pillows, and two foam pillows on our bed. You would think "feather free" means feather free. By the time we got there, housekeeping was gone for the day, so we had to use those pillows for that night. There is a complimentary airport shuttle, which we learned on our way to the airport, as we were leaving, that they give short rides to the Grapevine area. That would have been nice to know ahead of time. Everything in the area is very close by, but with the rainy weather when we visited, we didn't want to always walk somewhere, so we took uber a lot. Ubers are sometimes inconvenient. Also, the hotel is somewhat hard to get to/find. Most GPS took us past the driveway to turn in, then we were on the freeway. It was a long detour around to get back to the correct parking lot.More</t>
   </si>
   <si>
+    <t>Gary B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r456056721-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -405,6 +435,9 @@
     <t>I come to the area twice a year in business and in this occasion , I ended up here . I have been to most other hotels and long stays over the years and would put this one as lowest ranking .Rooms are fine if a little small , but the overall impression is no one really cares . Any customer relations is from the "teeth out " and meaningless .Breakfast is ok .Hallways were at 61 degrees with the outside temp at about 34 ..: when asked could the hallways and description be warmed I was told , I was first guest that asked such a thing ?!? Can't imagine most people accepting to be cold when it's cold outside .Complimentary coffee at reception is hit or miss affair and when asked ../ guess what ... I was the first guest the asked such a thing . !!?  Overall rooms are ok , but sound can be a factor from other rooms and doors .Staff really don't give a damm and as such won't be staying here again and ensuring no booking come from my Comany to here .There is far better value and standard , less then 300 m from here .:: take the optionMore</t>
   </si>
   <si>
+    <t>Thomas G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r453295204-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -429,6 +462,9 @@
     <t>Although the location of this hotel is a plus given it's proximity to DFW, I spent two sleepless nights here. Despite being a Platinum Elite in Marriott's Rewards program and my profile specifically noting that I prefer to be away from the elevator, you guessed it, I was given a room that shared a wall with the elevator equipment room! The constant clanking every time the elevator was called from any floor was like someone rattling hangers in a closet. I called the front desk to ask if they had earplugs but was told "of course not". Why did that seem like an unreasonable request, especially for a hotel in the flight path of a major airport? I complained to Marriott but was referred back to the hotel. I checked out a day early and will find somewhere else to stay. This was the worst Marriott experience I've had in years. When you're spending $225/night it seems like the least you should expect is a quiet room!More</t>
   </si>
   <si>
+    <t>osulacam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r452892259-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -453,6 +489,9 @@
     <t>I was in the hotel for an extended stay (~1 week), and found the location to be enjoyable.  The rooms were clean and quiet.  The internet was sufficient for checking email and general web surfing.  Even the shower pressure was decent.I found no problems with the people who worked in the building.  The front desk was helpful, the people tending to the (free) breakfast buffet were circulating constantly to keep the breakfast area clean, which was a challenge during the busy times.  The bartender in the hotel restaurant was also a good conversationalist.The hotel has a shuttle, but I had my own car.  Having your own car was quite maddening at times as the hotel is at the intersection of two busy limited access highways and it took time to figure out how to enter and exit the property from different directions (Heading towards the airport or the Gaylord Texan?  Exit near Fuddruckers and drive around the block).  I only used the housekeeping twice during my stay.  It was just me, and I was in the room to sleep and shower for most of the time.  I found that they do a good job of cleaning and straightening the room.The hotel is near several restaurants, the Grapevine Mills mall, and only a few miles from the airport.  I will try to stay again in the future, if I am back in the area again.More</t>
   </si>
   <si>
+    <t>Jennifer H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r441330229-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -480,6 +519,9 @@
     <t>This is one of those places where you say to yourself, "I can take it or leave". I'll definitely leave it. The housekeeping staff sucks. We waited for a cleaning for the better half of two hours, after calling down twice, and when I left out to run some errands, I stopped pass the front desk to see when they were going to send up someone and the receptionist told me that they were gone for the day. She said that the housekeeping manager said that she came to our door and we told her to come back, and then when she came back we were sleep. This was a complete and total LIE!!! All I could do was just walk away, to keep from cussing. Needless to say, out of a four day stay, we NEVER HAD OUR ROOM CLEANED!!! The only reason that I'm giving this place three stars, instead of two, is because the room was set up for an extended stay and the gentleman in their bar area was extremely nice and welcoming but I won't be coming back, nor do I recommend anyone else staying here either. They should never lie on the customer, just own up to it and say "we forgot" or "I'm sorry but we couldn't get to your room" but to LIE and make it MY FAULT is totally unacceptable.More</t>
   </si>
   <si>
+    <t>DonnaFortWorth_TX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r424856522-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -507,6 +549,9 @@
     <t>Here now.  The good.  The staff at check in  was great.  There was a mess up w our reservation and we were given a studio instead of a 1 bedroom and Maria (pretty sure that is her name) was excellent.  She corrected the mistake w outstanding customer service.  The hotel is recently renovated which its Embassy Suites neighbor sorely needs. The negative.  The nightly Managers Reception which I usually thoroughly enjoy was very sad.  Nothing more than some chips and veggies and ranch dip.  When we inquired about the traditional (and advertised) RI "Eat Meet Mix" receptions the employee looked at us like we were crazy and said.  "We can't do that in Texas". Ironically, the Embassy Suites next door has no problem doing it.  If a newly renovated room is important to you.  RI wins.  If the decent happy hour is important then Embassy Suites wins.  But RI shouldn't advertise something it doesn't plan to fulfill. Nor should its employees bait and switch and then make the guests feel bad for expecting what other RI's offer.More</t>
   </si>
   <si>
+    <t>Richard R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r418676397-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -534,6 +579,9 @@
     <t>First time to this property.  They have omelette bar 2 days/week.  This is the only Residence Inn that I've ever had omelettes. Free, fast shuttle to/from DFW and local shopping.  Many dining choices within a 10 minute drive.More</t>
   </si>
   <si>
+    <t>alwayssuperstylin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r381269064-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -561,6 +609,9 @@
     <t>Shuttle service from the airport was terrible.  We waited for over an hour after a 19 hour journey.  Matt the front desk guy was awesome! He really made the difference. Dining options in the sister property next door closed early because it was a slow night apparently! Breakfast is basic but very good.  We enjoyed the waffles! Will be back.  Thank you.  More</t>
   </si>
   <si>
+    <t>Cates622</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r378048199-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -579,6 +630,9 @@
     <t>We stayed 2 nights with our 2 toddlers. Our studio room was spacious and most importantly- clean! The staff was all extremely friendly and helpful. The breakfast was great with plenty of variety. Would definitely recommend and stay there again!More</t>
   </si>
   <si>
+    <t>ERICA A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r376918108-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -603,6 +657,9 @@
     <t>I call for shuttle service to hotel and wait right where they tell me.I waited 40 minutes on the shuttle . When he finally gets there he drives right past me. I chase him down and he keeps going.When he finally comes back around he says he didn't see me.  Doesn't attempt to help me with my bags.I said how can you see me when you are on the phone and don't even slow down.  He starts blaming me that I didn't wave big enough and then he starts blaming the hotel that he just got there and they should have sent out the driver before him.I told him in a customer service industry he should say I am so sorry that I didn't see you ... Instead he blamed everyone else from the hotel to me. Then he gets back on the phone to his personal call and talks on the phone the next 10 minutes to the hotel. Doesn't attempt to help me with my bags and then speeds off while still on the phone. I have to say.... First impressions of how this hotel is being run...horrible if that is the type of employee they hire.I check in and there is sweet Mariam.If everyone had employees like her we'd all be millionaires. Unfortunately the hotel shuttle driver ruined it for meMore</t>
   </si>
   <si>
+    <t>RedsThread</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r366589863-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -630,6 +687,9 @@
     <t>This Residence Inn is located north of DFW (10 minutes) near a Bass Pro Shop complex and a shopping mall. I'm not into fishing or malls so to me it's another clean hotel with a small bar and ample breakfast which gets 4 stars in the way of rating a clean hotel for business travel. I was on the 8th floor and the room was pretty sound proof...no airplane/highway noise. The suite style room was super clean. Bedding/towels were clean and not worn out...full size kitchen area was impressive which I had no use for, but great if you are there for an extended stay. I did eat dinner one night in the hotel bar. It was just okay- it filled the void for an exhausted traveller. But the shuttle will take you anywhere within reason for some great dinner options- so take advantage if you are willing. The drivers and front desk were very sociable and had plenty of nearby dinner recommendations. Breakfasts in the hotel were generous with the usual fresh assortment of pastry and fruit along with coffee and an extended assortment of teas with To Go cups (with good covers-win!)- waffles, eggs, egg bacon sandwiches...along with grab and go items. Overall- it's a good stay for business travelers especially if you are there for a few days. Fitness Center attached and whirlpool/swimming pool outside.More</t>
   </si>
   <si>
+    <t>Britany G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r366081329-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -651,6 +711,9 @@
     <t>We experienced a true "Marriott" stay at this property.  The breakfast attendant is out of this world amazing and makes you feel like the place is her own.  The room was amazing and you can tell the staff loves what they do.  The location is perfect and if you want a place that you don't have to get back in your car and fight traffic, this is the place!  We were the annoying guests that forgot our Ipad.  They immediately sent it back to me!  I have to mention that you can walk to Bass Pro and they offer a shuttle to all Grapevine venues including Grapevine Mills Mall.More</t>
   </si>
   <si>
+    <t>Edgy247</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r361012484-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -675,6 +738,9 @@
     <t>Performed the reservations with mobile phone application.   The check in was easy and fast.   The room and property were clean, the laundry room that was a very needed necessity since I had been traveling for over two weeks and needed a laundry room.   The laundry room was clean and had adequate number of machines for me to do all my laundry at once.   This hotel is right in the landing path of the airport and you can hear landing aircraft when outside, however I was surprised that I couldn't hear any airport noise inside my room.   I would stay here again if having an early morning flight out of DFW again.More</t>
   </si>
   <si>
+    <t>thumper114</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r350679825-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -702,6 +768,9 @@
     <t>Checked in today (on a Wed) for 3 days.  This chain is one of my favorites, as I enjoy the Manager's receptions Mon-Thur.Problem 1- this hotel only has it Mon-Wed.Problem 2- tonight, the so-called reception is some dessert squares and popcorn (which ran out).  Seriously?  What happened to finger food and beer and wine?  Have never seen this at a Residence Inn. Already regretting I even checked in.I stayed at the Staybridge Suites across the street for the last 3 nights.  I moved over to take advantage of a Marriott promotion.  Over there, they had beer and wine each night and some great finger food (tonight included).Also, the window's here don't open which is also disappointing.  I prefer fresh air to recycled air.  The windows opened across the street at the Staybridge.Lastly, I've been given a handicapped room.  I am far from handicapped.More</t>
   </si>
   <si>
+    <t>Christina L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r341581227-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -729,6 +798,9 @@
     <t>Lee working the front desk was amazing!!  He was super friendly and very knowledgeable.  Very accommodating!!  Sheran worked the front desk when we were waiting for our shuttle to take a family member to the airport.  We were down there on time and never saw the driver come in but we saw the shuttle waiting outside.  Next thing we knew he was driving off.  The next shuttle was not for another 30 minutes therefore a chance to miss the plane.  Sheran called the driver, etc. We signed up the night before for the shuttle but the driver left anyway without his count of passengers.  Sheran went above and beyond her scope of work.....she drove our family member to the airport herself to make sure the plane was not missed!!!  Kuddos to you Sheran for your great Customer Service and generosity!!  Will not stay anywhere else when taking a plane out of DFW!!!  The breakfast is SO good and the hotel is kept very clean.....  We stayed in the suite........bed was SO comfy, room was wonderful and the shower pressure was awesome...  The shower water backed up to my ankles and the caulking was coming off in some places.  The writing was still on the marble in the shower from when they were building it.  All in all, the events with the staff helped me over look the hiccups in the other stuff....More</t>
   </si>
   <si>
+    <t>montanarodoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r327222205-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -756,6 +828,9 @@
     <t>There is a free bus shuttle to the airport.Around the area there is a huge mall, food court and at walking distance from the hotel there are some restaurants and burgers. The hotel is quite good, clean. The breakfast could be more inviting but at the end for few days is quite honest.More</t>
   </si>
   <si>
+    <t>Brusta60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r301908094-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -783,6 +858,9 @@
     <t>Very pleased with the condition, cleanliness, and friendliness of the staff.There appeared to a major event taking place and the hotel had a lot of attendees staying there. Although there quite a few people checking in all at the same time there was plenty of staff and check in was quick.I'm always impressed when management anticipates potential situations and plans accordingly.Rooms were great! Everything in good repair and nicely furnished. Bed was very comfortable.I will stay here again and highly recommend it.More</t>
   </si>
   <si>
+    <t>Gerald M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r301022991-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -807,6 +885,9 @@
     <t>We used this hotel twice for our quarterly meetings because of its proximity to the airport. (Only 5-10 minutes away) In both of my experiences I called for the shuttle. The first tie i was left at the airport for 3 hours. The second time I was left for 1 hour. When I attempted to use the service to leave I was told at he front desk have a seat and the shuttle will leave shortly. The shuttle left me. I went to the desk and notified the attendant. He ran outside and tried to stop the shuttle.. He had to call him on the phone to get him to come back. Luckily I didn't have a close flight. The rooms are good the food is good the people seem nice but the shuttle service is un-organized. at least on the evening shifts. Have not experienced the morning shift.More</t>
   </si>
   <si>
+    <t>OklahomaSooner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r292141787-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -831,6 +912,9 @@
     <t>We had booked a one-bedroom King suite for our stay for our family of four.  We arrived prior to check-in time and Lee at the front desk was wonderful to us.  He found a room for us quickly, even though we were early.  He was very informative and gave us all sorts of tips and information for the area.  He told us of all the amenities and times of everything at the hotel.  Lee goes above and beyond and you can tell he loves helping people which is a great asset to this Residence Inn!  It was a very quiet hotel and was over 85% booked that particular Sunday.  It was booked even more the nights after and was extremely quiet.  It was very clean and organized.  We always like to stay at Residence Inn and I rank this particular location at the top!  They provide free Wi-Fi.  I had problems at first connecting our laptop and XBox and called the front desk and Lee called me by my name when he answered the phone.  Great personal touch!  He had their internet service provide call me back and they had us up and going in no time.  There is no indoor pool but the outdoor pool was clean and just right for our family.  The workout room worked out great for our sons and it was not crowded when they went which was later in the evening.  The breakfast was...We had booked a one-bedroom King suite for our stay for our family of four.  We arrived prior to check-in time and Lee at the front desk was wonderful to us.  He found a room for us quickly, even though we were early.  He was very informative and gave us all sorts of tips and information for the area.  He told us of all the amenities and times of everything at the hotel.  Lee goes above and beyond and you can tell he loves helping people which is a great asset to this Residence Inn!  It was a very quiet hotel and was over 85% booked that particular Sunday.  It was booked even more the nights after and was extremely quiet.  It was very clean and organized.  We always like to stay at Residence Inn and I rank this particular location at the top!  They provide free Wi-Fi.  I had problems at first connecting our laptop and XBox and called the front desk and Lee called me by my name when he answered the phone.  Great personal touch!  He had their internet service provide call me back and they had us up and going in no time.  There is no indoor pool but the outdoor pool was clean and just right for our family.  The workout room worked out great for our sons and it was not crowded when they went which was later in the evening.  The breakfast was great.  They had items such as scrambled eggs, bacon, sausage, waffles, oatmeal, yogurt, milk, juices, bagels, donuts, fruit and other things as well.  It was a well rounded breakfast with a great selection.  On Tuesdays and Wednesdays, the gentleman that appears to run the breakfast area will custom make omelettes for you and does an excellent job.  The entire staff at this hotel was excellent.  I can't say enough about this particular location.  We will definitely stay here again when we come back to Grapevine!  Thank you Residence Inn Grapevine for a wonderful stay and thank you Lee for your excellent customer service!More</t>
   </si>
   <si>
+    <t>RAINPO</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r273178995-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -858,6 +942,9 @@
     <t>Great location, staff and in a very central location to a huge outlet Mall, and lots of restaurants. Very near the center of Grapevine.Excellent free breakfast and some days, snacks at night. Too bad they discontinued free happy hour some of the days.Facilities for a BBQ and washer &amp; dryer.More</t>
   </si>
   <si>
+    <t>Ben W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r273118834-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -873,6 +960,9 @@
     <t>Stayed a night at Residence Inn DFW/Grapevine for a wedding. The location is close enough to the airport, also across the street from a giant mall, and a quick Uber ride to downtown Grapevine. The room was great, the customer service was unbeatable. The only issue I had was the "free shuttle". It seemed like it was always booked, and you had to call well ahead to get it to take you somewhere. Not the worst thing, but I didn't use it for Airport transportation at all because I didn't schedule it in advance.More</t>
   </si>
   <si>
+    <t>travelislifegal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r270839543-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -900,6 +990,9 @@
     <t>My husband and I stayed here for two nights for a family wedding in Grapevine.  When we checked in, we were given our room key and were surprised to find people already in our room...however, we weren't as surprised as the individuals we walked in on!   We went back to the front desk and she laughed at her mistake and just gave us a new key and room.  I kept our door bolted our entire stay...just in case that front desk lady had a habit of doing this.The room itself was clean and spacious.  The bed was comfortable and the breakfast each morning had plenty of options.  It was an affordable room with not much to walk to besides a burger place and a Bass Pro shop.  We had a pleasant stay and you will too, if you have a car.More</t>
   </si>
   <si>
+    <t>nancy_rhodes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r267008199-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1020,9 @@
     <t>I stayed here in October 2014, so my review is a little late. I'll start with the positives: this hotel has amazing staff, whether at the front desk, in the breakfast area, or at the bar. The bed was comfortable, water was hot, the food was decent, the coffee was great, and the TV was giant. Now the cons: whoever installed a motion controlled air conditioning system in Texas must not be from or live in Texas and should have to suffer through a hotel stay using it.  If you're asleep the A/C shuts off and it takes a while to kick on and cool the room down. Second, the location is a pain to get to/from by car. That being said, the mall is across the street and Bass Pro Shops is walking distance across the parking lot, and there are a few fast food places in the area.More</t>
   </si>
   <si>
+    <t>mandy721</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r266916928-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1041,9 @@
     <t>I just got back from a meeting held at this location.  The service at Residence Inn is outstanding.  Karen deserves a round of applause and commendation for the extraordinary care and attentiveness she brings to her job.  The room was spacious and clean, but I was disappointed to see water damage in the bathroom above the shower.  I brought it to the attention of the front desk, and was told it would be looked into.  I heard nothing more.  The room was functional, but I was disappointed that the room was not up to the standards I expected.More</t>
   </si>
   <si>
+    <t>4hends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r265760527-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1071,9 @@
     <t>This is my 2nd time to stay here. My handicap room was very nice. I don't understand why they are SO far from the elevators?Breakfast is great, service is attentive, hotel feels fresh &amp; clean after being recently remodeled. Would definitely stay here again. More</t>
   </si>
   <si>
+    <t>Polly11_11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r251196348-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -999,6 +1101,9 @@
     <t>Everything so cosy and neat, the staff is amazingly nice and welcoming, starting from the front desk, to the sweet lady at breakfast.the rooms are spacious and the kitchen is fully equipped.the location is good for a walk, or jogging session, or even going shopping or dining.More</t>
   </si>
   <si>
+    <t>Nathan D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r249053490-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1023,6 +1128,9 @@
     <t>Team was extremely helpful from the get go. Brandi answered me when I called and requested shuttle service from the airport to the hotel and she even coached me where to go to quickly get to a pick up spot. She was very helpful upon check in - particularly because I'm quite needy. Great place to stay if you're doing business close to the airport. The hotel restaurant is good and the service was solid. The entire team was pretty friendly and eager to help. I'd definitely stay here again!More</t>
   </si>
   <si>
+    <t>ExcellentAdventures</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r240491900-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1156,9 @@
   </si>
   <si>
     <t>We spent one night at the Residence Inn prior to travel from DFW.  The hotel shuttle was quick and efficient in getting us to/from the hotel.  The staff members were friendly and professional.  We stayed in a very nice suite with a stovetop, full-size refrigerator and a microwave.  We were at the property on a Sunday night and a dinner buffet was served from 5:30P – 7:30P.  It was a nice treat!  In addition to complimentary beer and wine, there was a baked rice dish, a pasta dish, chili and a mixed green salad.  There also were several desserts.  It was a filling and delicious meal!  The following morning, a breakfast buffet was served in the same area.  It featured both hot and cold items including scrambled eggs with cheese, breakfast meats, roasted potatoes, oatmeal, cold cereal, bagels, toast, etc. along with fresh fruit and juices.  We enjoyed our stay and recommend this property to others!More</t>
+  </si>
+  <si>
+    <t>Channie055</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r236819346-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
@@ -1080,6 +1191,9 @@
 The lobby is very pretty and gives a warm feeling. They have a bar/restaurant (very small) but...You could say this is a somewhat typical Residence Inn. Located north of DFW - our GPS could not find it. After much frustration, call to the property and getting on the expressway by accident, we were told when we arrived the address given on their website was their MAILING address. Now that would have been nice to know ahead of time! Was told to use the "Bass Pro Drive" address for GPS. Again, would have been nice to know ahead of time.  They do not have an entrance to their property off the main street in front of the hotel. So, if you are using your GPS, please save yourself much frustration and use the address for the Bass Pro Shop. Residence Inn is across the parking lot from them.  This hotel is what you'd typically expect. Initially, it had that hotel perfume smell which I do not care for at all.  Makes me wonder what they are trying to cover up!The staff was very friendly which was nice. The room was just about average - some minor cosmetic issues (loose tile in the bathroom, nicked tub, light bulbs out in light fixture).  Other than that, was o.k. for a few days. Don't hear any road noise despite the fact they are located between a major highway and a major thoroughfare.The lobby is very pretty and gives a warm feeling. They have a bar/restaurant (very small) but adequate if you don't want to go out. They will also take you anywhere within a 5 mile radius free of charge on their shuttle which is really a nice ammenity.  While we were sleeping the first night of our stay, we had a call at 1:30 AM. The man on the other end said he was sorry to call us at this time, but the hotel computer had a problem and lost 30% of the guests information. Due to Texas law and safety issues, we needed to give them all our information again.  Sounded very professional and convincing! Told him  we would come down to the lobby but was told since there was only one clerk, that would take 30 to 40 min.  My husband said he would return the call and was told "no" as the man calling had to be on the phone with other guests.  Yes, it was a potential scam. Other guests reported as well.  My husband called the front desk and asked the night clerk to call police to which she replied it wouldn't do any good. He insisted. The police came to the property (called us) and searched every floor. We were told it had to be someone in the hotel as no calls came from the outside. Not a very safe feeling.  Next morning we asked the desk clerk what the result of the investigation was and she had no idea what we were talking about. She said the night clerk had not mentioned it to her when she went off duty.  She phoned the property manager who was not on property and he subsequently called us. He was not aware either. Told us that the policy of the hotel is that if cops are called, the property manager must be notified immediately.  He was not informed.  Kind of makes you wonder.  If we had not had plans for the day and had to leave immediately, we would have checked out of the hotel. The manager did offer for us to change rooms, but we didn't really see the point in that with our checking out in the a.m.  We stayed the second night and no further incidents.The breakfast is good - only scrambled eggs with cheese on top though and one breakfast meat. The sausage patty seemed overcooked - probably from sitting in the heater. They had yogurt, fresh fruit, oatmeal, toast, bagels, waffle machine...all the usual. The lady who ran the breakfast was very accommodating and helpful.  They even had take out boxes in case you needed food to go. (Also had REAL coffee cups and silverware.)Overall, this was an average place to stay. The best was the friendly staff (although the housekeeper didn't speak English and we had a hard time asking her to bring us towels.). Would probably try someplace else next time.More</t>
   </si>
   <si>
+    <t>Frequent T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r234629512-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1107,6 +1221,9 @@
     <t>Check in was a breeze and room very clean.  Numerous places to eat and right next to bass pro shops. Walls are thin so if you have people above you, pray they don't have kids running back and forth. Very easy to get to DFW. Would stay here again.More</t>
   </si>
   <si>
+    <t>B T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r233560077-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1131,6 +1248,9 @@
     <t>Stayed here for several times. Always clean, friendly and helpful staff. Typically American hotel. Close to BrassPro Shop with a good steak house and Fuddruckers. The breakfast is Texas style with nice picco, jalapenos and several egg choices.More</t>
   </si>
   <si>
+    <t>remodelsbyus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r226526867-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1155,6 +1275,9 @@
     <t>When we go to grapevine, this is our favorite place to stay. Impeccable service and cleanliness.  Cannot say enough. You will be treated well from a proffessional staff and they are friendly and very helpful with whatever you need from directions to whatever else!! The rooms are a wonderful place to kick back and feel right at home with your kitchen and bar, couch, coffee table and bed. Dont hesitate to boom your grapevine stay here!More</t>
   </si>
   <si>
+    <t>Pedro S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r221449163-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1176,6 +1299,9 @@
     <t>Arrived early, no problem for an early check in, very welcoming. Rooms are big, spacious and with great light. Kitchenette available if you want to cook. I went to the near by places and there is also a outlet mall across the street. Perfect match for a 24h stop over for business next to the Airport. Reception service also impeccable. Will be back!More</t>
   </si>
   <si>
+    <t>LifetimePlatinum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r216925403-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1203,6 +1329,9 @@
     <t>This property brags about itself being an upscale RI in their in room welcome package.  Is there such a thing?  This property was just average in terms of RIs I have stayed in.  Desk staff could have been a bit more welcoming and receptive.  Airport shuttle was prompt and convenient - offering late night pick-up service. Somehow a shopping list that was dropped off at the front desk with promised delivery the next morning got thrown in the trash and the employee even admitted that they were confused and threw it away.  Room was average and well used - time for new mattresses.  Will likely look for another place to stay next time I have to overnight at DFW.More</t>
   </si>
   <si>
+    <t>bcs1973</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r204459175-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1230,6 +1359,9 @@
     <t>I stayed at this hotel for 2 weeks and had a great experience.  Hotel staff was helpful and friendly.    The rooms are large and standard for a residence inn.  It was quiet during the day and at night.  There are plenty of restaurants and shopping in the area.  Hotel shuttle takes you where you want to go if you don't have a car.  I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Mandi W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r203619223-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1389,9 @@
     <t>From the moment you walk in the door, the staff greets you with a smile and treats you like a valued guest. I got through check-in quickly, and was given a tip as to where to park and which entrance to use that was the most convenient to my room.When I got to my room, it was clean, quiet, spacious and comfortable. I slept great, and had a tasty breakfast the next morning.I can't say enough nice things about this property. If you need a hotel in the area, THIS is the place to choose!More</t>
   </si>
   <si>
+    <t>Patricia T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r201674321-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1416,9 @@
     <t>I'm writing this as a guest of this hotel right now.  This is probably one of the best properties I've stayed in during our many trips to Grapevine, TX.From the moment we checked in, everyone we encountered were professional and friendly.  We enjoyed our conversation with Terry, the sales manager as well as Karen who we found out was Marriott Employee of the Year. I can see why with her personality and helpfulness.  She keeps the breakfast top notch with adding her special touches such as blueberries for waffles.  Last night they had a light supper which included two types of soups, pasta, salad with all the trimmings and even included beer and wine.  Karen also had delicious pastries and cheese cake ice cream cones for dessert.  Along with her Easter decorations she went above and beyond.Our room is spacious and has all the comforts of home. King size bed, with pleasant tones of gold and blues for decor.  Kitchen area is fully stocked and immaculately clean.  Whenever I'm in Grapevine, this will be my home.  Great job done by a wonderful staff!More</t>
   </si>
   <si>
+    <t>Carmen A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r193568627-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1446,9 @@
     <t>An extraordinary staff, from the driver, jessica to the Director of sales and marketing Lori Bollman, We stayed one week and they treat us wonderful. I wish we would stayed longer. Nice rooms, with kitchen, outstanding breakfast, very well located. Highly recommended. To all of you thank you for making our statying so pleasent.More</t>
   </si>
   <si>
+    <t>corevel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r187296719-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1335,6 +1476,9 @@
     <t>I can't be more complemintary about how nice and friendly the hotel staff was.  The rooms were spacious and clean.  I will say this though, do not get a room anywhere near (I mean as far away as possible) the elevators.  It's weird, the elevators make this pounding noise that can be heard all the way down the hallway.More</t>
   </si>
   <si>
+    <t>NJ_Bus_Trvlr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r183978667-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1362,6 +1506,9 @@
     <t>My wife and I stayed here while I was in Dallas for business. So we combined a business's trip with a personal trip. We really enjoyed this hotel. Our  suite was perfect. We liked the having the on site Resturaunt but only used it for drinks and appetizers (which were great). The staff was friendly and attentive to our needs.  There was an fortune 100 executive convention nearby so there were many executives milling about and everyone got the VIP treatmentMore</t>
   </si>
   <si>
+    <t>451Texan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r175459187-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1389,6 +1536,9 @@
     <t>Our family rescued an 80 lbs Labrador Retriever in Jan. This would be our first "road trip" with him and we needed a pet friendly hotel. My husband found this hotel by calling Marriott directly. It was a perfect match for our needs. Also only 1 of 3 Residence Inn's in the country who offer a full restaurant/bar. Excellent location. Outlet Mall across the street. Bass Pro Shop next door. Multiple restaurantswithin walking distance.We found the staff friendly and helpful.  We stayed in a suite and had all the room we needed. The breakfast fare was excellent. Staffers in the breakfast area on hand to continue the service without interruption. We will stay here again.More</t>
   </si>
   <si>
+    <t>Gbriseno</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r171749228-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1411,6 +1561,9 @@
   </si>
   <si>
     <t>The rooms are smaller than they appear, with two kids we had to ask for towels and shampoo every single day, and some times had to call twice to remind them. Breakfast is really poor and the attendant will "close", before closure. The hotel is clean and probably well located if you are not going to downtown Dallas. Just in front of Grapevine Mills, which is a good outlet, better than Allen. I could have chosen another hotel.More</t>
+  </si>
+  <si>
+    <t>OccVegasTraveler</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r166923854-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
@@ -1446,6 +1599,9 @@
 I went up to my room. The room is very small if you are used to other Residence Inns. There was a used, open bottle of...Pros: Quiet, good locationCons: Customer Service, room sizeProbably one of the worst Residence Inns I have stayed (amongst 100s). When I walked in to check in, the front desk gal was stuffing cookies (from the cookie plate for guests) into her mouth. When she was able to talk she said hello while wiping crumbs off the counter. She checked me in and made no mention of my Marriott Rewards status. I asked her about it just to make sure I would get my points and to see if I was offered a complimentary upgraded room for being Gold. She had to look it up and finally said "it's in there". I asked if my room was upgraded, she said she had no idea, that it was all in the computer already. I then asked if there would be a manager's reception in the evening. Again she had no idea what that even was. Luckily the manager was walking by and jumped in. He said they only have the reception two days a week since this is one of two Residence Inns in the country with a restaurant and that the restaurant wouldn't make any money if they did manager's receptions every night (like all other Residence Inns). At least he was direct.I went up to my room. The room is very small if you are used to other Residence Inns. There was a used, open bottle of water in the freezer I am guessing came from the previous guest. The stay was fine. It was quiet despite the proximity to the freeway. Note that using your GPS on the address listed will get you lost. If you call the hotel, they will give you a different address to use or you can just use the Bass Pro Shop in Grapevine since it is right next door.On the final morning of my stay, I went down for coffee. I asked the same young lady who checked me in if there were any newspapers. She said she just took the last one. Later when leaving the hotel, she was nice enough to holler at me walking out the door and let me know she was now finished with the newspaper and that I could have it if I wanted it.The only other notable memory was that I had to call the front desk to get our garbage can under the sink emptied. It was overflowing but housekeeping somehow missed it when servicing the room.More</t>
   </si>
   <si>
+    <t>william d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r163119275-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1473,6 +1629,9 @@
     <t>Very nice property.  Rooms with full kitchen.  Very good complimentary hot breakfast.  What more can a guest ask for?  Well, for one a clean, made-up room on a daily basis.  Two days out of a five day stay, we had to call several times for someone to make up the room.  On both occasions the front desk promised someone "right away."  After several calls and a face to face conversation, a housekeeping staff arrived at 6:00pm.  We also asked about the free shuttle to the DFW airport.  We were told it operated on the half-hour.  But the front desk never informed us that they kept a reservation sheet.  So, the morning we needed to get to the airport we asked the front desk staff at 7:00am whether we could make the 8:00am shuttle.  Oh no, they replied, you didn't sign-up and it's full.  I won't stay there again simply because the hotel is run by amateurs.More</t>
   </si>
   <si>
+    <t>David B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r162958317-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1650,9 @@
     <t>This is a very well priced hotel and is convenient to the DFW area.  The breakfast was excellent - I usually am not very impressed with "hotel" breakfasts but there selection was great and the food was outstanding.  Bacon, eggs, sausage, biscuits - highly recommend for business and family travelers.  The room was nice and comfortable.  If you are wanting a reasonable rate for the area - note Great Wolf and Gaylord are nearby if you want a more luxury stay and don't mind spending another $100 more per night at those locations.  Front desk staff was adequate I certainly didn't feel valued for being a Marriott Gold customer but not rude just not very friendly.More</t>
   </si>
   <si>
+    <t>ivytiger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r162675655-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1680,9 @@
     <t>We chose this hotel because I wanted a hotel in the area with an outdoor pool and free breakfast. This place exceeded our expectations. The room was modern and very clean with a full kitchen. We not only had free breakfast but on Sunday and Thursday free dinners are also offered. On thursday the dinner was a very nice salad, bread, and two different kinds of pasta. Also free beer, wine and soft drinks. The kitchen and dining area were maintained well and very clean. Staff was friendly and helpful overall. Would definately return next time we're in the area. Be aware that with all the construction, your GPS may not take you there if you use the hotel address. We had to call the hotel when we couldn't find it a they gave us another address to put into the GPS.More</t>
   </si>
   <si>
+    <t>Jeana K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r156020177-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1545,6 +1710,9 @@
     <t>Stayed here 4 nights in comfortable, spacious room with full kitchen (full-sized refrig. which didn't work so we reported that but didn't need it), excellent hot breakfast choices &amp; cookies at front desk. Also had a Bar-B-Que Sunday night but we stayed too long at Bass Pro across the street so missed it. Friendly staff.  Newer area also close to Grapevine Mills Mall &amp; not too far from DFW airport.  Would have given it an excellent, but bed was a little too firm, refrig. issue, and no in-room safe.  Very friendly staff at desk &amp; at breakfast.   Free business area 24/7 for printing boarding passes, checking email.  Free WiFi in room if you register.  Plenty of parking.More</t>
   </si>
   <si>
+    <t>lookmarketing</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r154515191-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1740,9 @@
     <t>Clean, friendly helpful staff, good location if you need to be near DFW.  The bar was a good place to get food late.  Nice breakfast in the morning. Comfortable room and lots of restaurants nearby.  Grapevine is a nice little town too.More</t>
   </si>
   <si>
+    <t>Olineman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r153575292-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1596,6 +1767,9 @@
     <t>Recently stayed here while on a business trip.  Found the hotel to be clean and comfortable.  The hotel was very busy during my stay but the staff was always very friendly and helpful.Two of the things that I appreciated the most was the shuttle service to nerby attractions in Grapevine and the attentiveness of the kitchen staff to the breakfast items.  They really looked as if they took great pride in their work by keeping the food areas clean and the food refreshed at all times.I'll be in Grapevine again in May and plan on staying at the property again.More</t>
   </si>
   <si>
+    <t>TX0810</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r152292466-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1620,6 +1794,9 @@
     <t>Stayed at this RI in January and had a pleasant experience. Checkin was breeze and clerk informed us of the free breakfast and dining options they had. Room was clean, a bit dated though. Room is spacious, with a kitchenette like the rest of RI's propertys. AC in the room works great. Hotel is right across grapevine mall (legoland, sea life). Hotel restaurant offered some good choices but did not try it. Breakfast was good, a bit crowed at times. Loved the waffles! Bass pro is right next door and in between that and the hotel is  a whataburger. Also plenty of choices right across the street, and if you go in town to grapevine.More</t>
   </si>
   <si>
+    <t>Dam614Worthington_OH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r148818325-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1647,6 +1824,9 @@
     <t>Good location, nice amenities and great breakfast. Weekend stay with my wife. Close to my corp office and attractions. Staff was very helpful and friendly. Nice pool and hot tub area. Room was comfortable and spacious.More</t>
   </si>
   <si>
+    <t>jjax12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r146455732-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1668,6 +1848,9 @@
     <t>We were in town visiting family for Thanksgiving and stayed at this hotel for 3 nights.  The room was very spacious and kept very clean.  The staff was courteous, even when we walked in for a last minute dinner on our first night there (sometimes holidays can mean less than stellar service at some hotels, but we had no problems our entire stay).  We would definitely stay at this hotel again.More</t>
   </si>
   <si>
+    <t>jimmy42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r144556646-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1692,6 +1875,9 @@
     <t>Location is great with easy access to all the local attractions.  Rooms were comfortable and spacious.  Lack of a restaurant is made up by the fact that there are 2 in the parking lot. Texas Motor Speedway is about 10 miles away, but is an easy drive up 114.More</t>
   </si>
   <si>
+    <t>abibh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r143162893-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1719,6 +1905,9 @@
     <t>For a girls' getaway weekend, three of us met up in Grapevine and stayed at the Renaissance.  The location was perfect - close to shopping and restaurants.  We had no complaints whatsoever about our room, and the front desk graciously provided us with additional towels and washcloths when we asked.  Note: The address of the hotel may not map properly into some mapping software.  The hotel is aware of this and can provide a better address to plug into your GPS.More</t>
   </si>
   <si>
+    <t>momof2girlsArkansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r142393424-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1743,6 +1932,9 @@
     <t>I've stayed at 3 Residence Inns now, usually with family, and really like the set-up. This one was very nice. My friends and I stayed here for 2 nights for a shopping weekend. Directly across from Grapevine Mills Mall and shares the parking lot with Bass Pro Shop. We spent a great deal of time in South Lake, but the travel was quick to that area. Very quiet, despite its location next to the highway. Breakfast was fresh, staff was friendly, room was clean and comfortable.More</t>
   </si>
   <si>
+    <t>kjs686s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r139302553-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1764,6 +1956,9 @@
     <t>My boyfriend came in town to help the Delta staff at DFW with a special event this past Labor Day weekend. I was lucky fly out and stay here with him and I could not have been more pleased with this property. Clean, spacious rooms with a kitchenette, equipped with a stove, full-sized fridge, sink, etc. Sad I had to miss it, but the hotel offers a free happy-hour on Thursday and Sunday, with appetizers and drinks at either the Library Bar or poolside. Great pool with a jacuzzi! Also there's a nice little gym and the breakfast is amazing. It's a full breakfast complete with eggs, yogurt, cereal, bacon, biscuits and gravy, juice, coffee, potatoes, fruit and more. The main items changed daily, so it wasn't repetitious and the wifi is free. Great location, walking distance to a few restaurants and right across from the Grapevine Mills mall and the Sea Life Aquarium. The shuttle is free and goes back and forth to the airport as well as surrounding attractions. Staff was very friendly and I'm planning another trip to come back for holiday shopping. We will stay here!More</t>
   </si>
   <si>
+    <t>Angela F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r137184227-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1780,6 +1975,9 @@
   </si>
   <si>
     <t>June 2012</t>
+  </si>
+  <si>
+    <t>Rickwine</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r135031005-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
@@ -1809,6 +2007,9 @@
 The evening dinner was really something.  There was a shrimp fettuchini dish, home-made peach cobler and bread  by a nice lady who sure knows how to make them.    It really looked like they put some thought and pride into the food.  Free is my favorite price for this too.  If one were wanted to make...First a shout out to the young lady who went to the kitchen and gave me the milk and yogurt.  She is what hospitality is all about.  I was not feeling well and she went out of her way to help.Now.  The hotel is very convenient to DFW and shares a parking lot with the Bass Pro Shop.  There is plenty of parking and I was steps from the door everytime I returned to the hotel.  I arrived a little before check in time but they gave me a room without a bit of trouble.  My room was scrupulously clean and modern.  The  kitchen is wonderful and fully stocked with dishes and cookware.  I did not cook but one certainly could.  The air conditioning worked flawlessly and the bed was very comfortable.  Yes it has an old fashioned TV but is worked great.  The high-speed internet was fast and free.  One of the fastest internetsI have seen in a hotel.  I did not hear a sound from the adjoining room.  The area is very secure, in a good neighborhood and there are inside hallways.  The evening dinner was really something.  There was a shrimp fettuchini dish, home-made peach cobler and bread  by a nice lady who sure knows how to make them.    It really looked like they put some thought and pride into the food.  Free is my favorite price for this too.  If one were wanted to make that their main meal they could easily do it.  I did not eat in their restaurant but the menu looks super and very affordably priced.  It is quiet and well appointed.  Good wine list and fair prices for that too.  There is a Fudruckers and Whataburger in the parking lot as well but on my next trip I am going to try their restaurant.  Of course the super restaurants of Grapevine are within easy driving distance.   So here is the deal.  I was attending a conference down the road a short way at the Gaylord Texan.  The rooms there were more expensive, smaller and I was going to have to pay to park there even if I stayed there anyway.  So I chose the residence inn because I have had consistently good experiences with them.  This one is not the biggest Residence Inn but it is the nicest one I have stayed in.  Why?  Because of the staff.  This is a very well managed hotel.  I travel most of the time and I hold the bar pretty high.  If you find yourself in the DFW area you absolutely can't go wrong with this hotel.  You will be glad you stayed.More</t>
   </si>
   <si>
+    <t>rebekahj0</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r133790431-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1833,6 +2034,9 @@
 Once we were seated the food was...The rooms were beautiful, just as shown in the pictures. We swam but it was so windy we didn't stay out there very long! We opted to walk across the parking lot and visit Bass Pro Shop instead.Now, I am a single mom who was dropping a girlfriend off at the airport about 4:30 AM and we decided to stay close to the airport so it would be much more convenient to go back to sleep after such an early morning departure. My three young children and I went back to sleep after going to the airport and was completely unprepared for what awaited us at breakfast. It can be just a little chaotic trying to help three young children get breakfast at a hotel and as I was juggling this task a staff member stepped up and asked if they could help my son make a waffle. I was stunned because normally people walk the other way and come back later when they see a mom with several kids. Not only did this staff member help my son with the waffle but helped with the rest of his plate and while that was going on the chef came to check on food levels and stepped in to help my daughter with filling her plate while I was helping my other daughter. Again, I was pleasantly surprised, but it doesn't stop there. Once we were seated the food was wonderful! Definitely not your average breakfast. As our plates are being emptied the same chef came by and collected our plates and as we were getting up to leave he brought out three little bowls of candies for my kids to eat in the car on the way home. The staff went way above and beyond in helping me and it left me speechless. Without question if I am ever in need of a place to stay around the airport I won't even look anywhere else! I'd like to add in that the hotel has a shuttle that would have taken my friend to the airport that early but my kids and I really wanted to take her ourselves as we rarely get to see her.More</t>
   </si>
   <si>
+    <t>Bahnreise</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r131054184-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1854,6 +2058,9 @@
     <t>Exceptionally Quiet Room. Glass double or triple glazed. Hotel is minutes from the airport in Grapevine, next to I-635. Very convenient for commuting to meetings in the North Dallas area. I had a studio suite, but it was spacious. Oddly, my room still had an old CRT-screen TV, but it did work. Everything worked. Bed had a great feel to it. The kitchen was nicely arranged and had all the bits I needed to do minor cooking. Two-burner stove top even. Hotel offers standard complimentary breakfast 0630-0930 weekdays. 0700-1000 AM weekends. Evening snacks are a mite truncated compared to most Residence Inns, but this was a classier offering than most Residence Inns. Hotel has a bar/restaurant, "The Library", which offers reasonably priced real food and beverages of the adult kind. A free airport shuttle is offered. Very handy. Will pick up at the airport if one calls the hotel, or drop off as well. Hotel has three vans in rotation. Standard aerobics workout room with two treadmills, elliptical treadmill and stationary bike.  A Whataburger is next door to the right of the hotel, and a Fuddruckers is to the left. Around the corner from Uncle Bucks Brewery and Steakhouse (One could walk). Next to a Bass Pro Shop as well. This is a good extended-stay property.More</t>
   </si>
   <si>
+    <t>finewine57</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r131032970-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1869,6 +2076,9 @@
     <t>I never thought I'd base a review on the free breakfast, but seriously, the breakfast provided was a much higher quality than the standard hotel free breakfast offered at similar hotels I've stayed at in the last couple of years.  It didn't have that "pre-fab" look and taste that a lot of hotel breakfasts have (because they are pre-fabricated and ready to be warmed and served).  OK, so the breakfast was great, but so was the rest of my hotel experience. The room was clean and comfortable.  The maid staff was friendly and accomodating.  The front desk staff was very helpful in both hotel matters and in pointing out good places to eat and visit. Both check-in and check-out were fast and easy.   I was at the hotel for a group meeting.  The entire group was amazed at the great value associated with the meeting room cost (and the flexibility and provision associated with AV equipment).  The group was extremely pleased with the overall experience.More</t>
   </si>
   <si>
+    <t>BSinPNS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r129944404-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1884,6 +2094,9 @@
     <t>Typical Residence Inn with very quiet rooms - considering proximity to DFW.  Several restaurants nearby - ranging from fast food to sit down.  Outlet mall nearby.  Responsive and friendly front desk.  Nice bar in the lobby.  Good selection at breakfast.  Shuttle leaves for airport every half hour.  Will pick-up with phone call to desk.  Make sure you know where you are before calling.</t>
   </si>
   <si>
+    <t>grandslam941</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r129238944-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1905,6 +2118,9 @@
     <t>Residence Inns allow travelers on diets, and who who want a bit of space to have those things.This one is located across from Grapevine Mills Mall, LA fitness, and some other handy things.They do a good job with small meetings. The hotel is well kept, and provides a shuttle to the airport. Staff was pleasant, and it seems among the newer properties around.The only flaw was mid-morning before checking out that day, a big roach ran across the bathroom floor. Can't say that gave me a good feeling, so there may be need a of bit better upkeep in terms of pest control.There is handy little store in the hotel with usual snacks and junk food.There are lots of airport hotels around the north exit of DFW, so depending on needs, and likes and dislikes, I'd say look them all over.More</t>
   </si>
   <si>
+    <t>TheSpear</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r128956667-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1923,6 +2139,9 @@
     <t>Nice larger rooms, comfy beds, and a good breakfast as is true with most all Residence Inns.  The staff was friendly.   There was a decent exercise room and a basic business center (2 computers and printers).   Elevators were reasonably quick.It's located in walking distance of a few restaurants and the giant Outdoor World store.  It is possible to walk across the major street to the Hilton DFW Lakes conference center, but it takes a little finessing to make it over there.It is very near the airport but sound proofing for normal plane noise seemed pretty good.   There did seem to be loud motorcycles zooming by with some regularity and that noise came through pretty strongly.There were 2 negatives in our recent stay:1) the elevator made strange clanks and noises which were very audible in any room nearby (like ours).  Didn't keep me from sleeping, but was irritating.2) the internet, which worked ok in the day, was really slow in the evening and then went out completely on our last evening.   Couldn't even print a boarding pass and the front desk staff couldn't give any alternatives or an ETA on a fix.More</t>
   </si>
   <si>
+    <t>SteveSmith243</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r124926612-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1944,6 +2163,9 @@
     <t>We stayed one night in Feb. 2012 in a king suite and paid $139.00 + tax. The room was typical for a Residence Inn with kitchen, dining area, living room and separate bedroom. I've stayed at several Residence Inns over the years but this one is a little different. Instead of the typical one or two story buildings this one is a seven story with entry to all rooms via the lobby. It seems that the room was a little smaller than the others where I've stayed. The room was clean and comfortable. The kitchen well equipped as long as you don't plan on cooking a four course meal. The bed was pretty hard (uncomfortable) and that is unusual for Residence Inn. We enjoyed the hot breakfast and the dining room was comfortable. Our experience was not bad but for the money I don't think I would stay here again.More</t>
   </si>
   <si>
+    <t>FlyboyEric</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r124891607-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1957,6 +2179,9 @@
   </si>
   <si>
     <t>January 2012</t>
+  </si>
+  <si>
+    <t>Michael L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r124679563-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
@@ -1981,6 +2206,9 @@
 The Library (their dining/bar area) is cozy and fine for a after work cocktail or beer.  The menu doesn't offer much in the way of choices.  I did try a seafood soup that was very disapointing because I couldn't locate any seafood in it...flavor was good but that's about it.  The house salad looked like it came out of a bag of mixed greens, they threw in a couple of cherry tomatoes and that's it.  It was fresh out out of  bag though! Prices were reasonable.  Got a pizza the next night and it was fine.  Frankly, I think their food is probably fine in a pinch but with so many choices nearby  I think you'd be better off goinig across the street to the mall area or even...This hotel is located directly across the street from Grapevine Mills mall, and clustered with a group of large hotels including Embassy Suites and Hilton and some others.  Lots of choices for food, including fast food.  Bass Shop is right in between Embassy and Residence Inn...Bucks steak house and a great sports bar located in Embassy suites is easy walking distance from Residence Inn.Rooms are very good size, very clean and all the comforts of home with kitchen, utensils as most suite hotels have.  The included breakfest is very good quality and plenty of offerings from cold to hote items.  Excellent service and clean up in the morning by staff.The Library (their dining/bar area) is cozy and fine for a after work cocktail or beer.  The menu doesn't offer much in the way of choices.  I did try a seafood soup that was very disapointing because I couldn't locate any seafood in it...flavor was good but that's about it.  The house salad looked like it came out of a bag of mixed greens, they threw in a couple of cherry tomatoes and that's it.  It was fresh out out of  bag though! Prices were reasonable.  Got a pizza the next night and it was fine.  Frankly, I think their food is probably fine in a pinch but with so many choices nearby  I think you'd be better off goinig across the street to the mall area or even the other nearby hotels for more diverse dining choices.  Overall nice hote, very clean and service was very good.More</t>
   </si>
   <si>
+    <t>bblondee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r121086206-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -1999,6 +2227,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>HKTraveller2009</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r120746335-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2017,6 +2248,9 @@
     <t>We stay for 3 nights for the running race event in Grapevine in October. It took a while to wait for the hotel free shuttle upon arrival at DFW airport. The room is very spacious with good facilities but not much sport facilities in the hotel. The breakfast is included in room rates and it's good. We find the location very good by US standard even we did not rent a car. The Mills Shopping mall is just 10 minutes walk but need to cross the busy traffic !! There are several fast food restaurants in the area within walking distance but the food variety is almost identical which is typical in US!The only bad experience was the shuttle driver as he was very rude to tourists. We got up very early in morning to catch flight back to Hong Kong and he kept talking loudly and asking questions non-shop! Instead of calling Sir or Mr, he screamed at us and force us to talk to him while he was driving. Honest speaking, we just want to be left alone and not interest in knowing his view on US politics or gossip as not everyone are interested in US politics !!I advise the hotel to find another driver with good attitude and manner to their customers and remember to keep their mouth shut and to focus while driving !!More</t>
   </si>
   <si>
+    <t>TravelingAli</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r118251996-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2032,6 +2266,9 @@
     <t>Great location in Grapevine. Beautiful rooms with full kitchens. Comfy beds. Great service</t>
   </si>
   <si>
+    <t>edato74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r114789985-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2053,6 +2290,9 @@
     <t>It was our first time in the area and we weren't sure where best to stay.  Residence Inn was conveniently located across the mall and Legoland so we went in with no reservation which made me nervous a bit.  The receptionist (Uza) was so warm and friendly and gave us a great room with a great view.  They had a welcome box with toys and goodies for my 5 yr old which was surprising gift and a nice touch.  Breakfast buffet had a nice healthy selection and the hotel overall was super clean and well maintained.   All the staff that we met were friendly and had a smile on their face.   It was a great experience overall.  Would highly recommend this hotel!  Thank you.More</t>
   </si>
   <si>
+    <t>TxMaggie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r114765645-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2068,6 +2308,9 @@
     <t>We held our family reunion at this hotel.  We had approximately 35 people for 2 nights.  The hotel staff was extremely pleasant to work with and went the extra step to ensure our reunion was a pleasant event even though not all aspects were handled by the hotel.  They provided us ice for our coolers for boating trips, they provided meeting space for impromptu gatherings, the housekeeping staff went above the minimum to meet our needs.The rooms were pleasant and more than met our needs as well.</t>
   </si>
   <si>
+    <t>Chuck539</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r112714839-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2083,6 +2326,9 @@
     <t>Quite exceptional Residence Inn. Close by to Grapevine Mills and the airport as well as the Gaylord convention center. Property looks fairly new. Pool and gym are decent sized. Rooms are large and well appointed. They have room service which worked for us as well as a surpisingly nice bar/restaurant downstairs. Overall it exceeded my expectations and would surely stay here again.</t>
   </si>
   <si>
+    <t>Thetowerguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r104556706-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2104,6 +2350,9 @@
     <t>We were inpressed with the facility and enjoyed our stay. We got to know several of the staff by name during the stay and had absolutely NO complaints till after we checked out. Two days after our checkout we were billed $250.00 on credit card with no explanation. I called the business and politely asked if I could have the charges explained to me. I was transferred to an employee (with no name) who was rude with me from hello. She started by saying "You know what the charges is for and I do not want to hear your argument, I have heard it all before". I insisted on the reason for the charge and was told that it was because we smoked in our room. The staff member continued to be rude and informed me "I have heard it all before, thats what they all say" when I explained that we did not smoke in our room. We spent half our time there outside in the beautiful weather smoking in the smoking area. I feel that this is a scam and that customers should beware due to the fact the hotel does not have to produce ANY proof in order to charge you the fee. I was planning on staying at this location repeatedly in the future but will NOT ever stay there again after this charge topped by the unbelievably rude employee!More</t>
   </si>
   <si>
+    <t>HoneyBunny2001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r89619071-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2122,6 +2371,9 @@
     <t>I always have a great stay at the Residence Inn. This particular one has King suites with a queen sofa bed. The rooms are modern but noy flat screen TV. My son is autistic and is very picky about where we stay.  He loved the room and had no problem sleeping on the sofa sleeper. This means the hotel passed the clean test.    The front desk employees were friendly and efficient. We used the shuttle for transportation to and from the cheer competition we were participating in. That worked out perfectly for us on Saturday but not so well on Sunday. The shuttle only runs every 30 minutes on Sunday and my husband and son missed the competition on that day.     The breakfast was great. They had real sausage and not that microwave junk. There was whip cream and chocolate chips for the Texas waffles. My children loved those extra toppings.     The Internet and parking was free. This is very important to a family that travels with 5 laptops.More</t>
   </si>
   <si>
+    <t>highwayMan_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r83981164-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2143,6 +2395,9 @@
     <t>This hotel was the most unprofessional, rudest staff I have ever met!  I travel alot and I am a Marriott rewards card holder, but now am thinking I will be switching to Hilton Honors after this horrific stay.  This hotel is very plain and the pics on the website are nothing like it looks like in person.  The shuttle driver was incredably rude, and the General Manager charged my credit card that was on file $740.00!!!!  My rate was suppossed to be $72.00 plus tax!  This is illegle and fraud just in case you do not know!  No one should ever pay more than $70.00 to stay at this property.  IT is a rip off, and nothing more then a over priced Motel 6.  They advertise the restraunt to open daily, it wasn't , tried to call front desk serveral times with no answer, and the room smelled like dog pee when we arrived.More</t>
   </si>
   <si>
+    <t>mdavis390</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r72899041-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2162,6 +2417,9 @@
   </si>
   <si>
     <t>My husband and I, along with two 7 year old twins, stayed overnight here on a trip to visit family in Muenster, Texas. We arrived late on a Thursday evening, and were happy to find a What-a-Burger still open right next door. Our room was clean, spacious, and looked very inviting with new looking furniture and stainless appliances in the kitchen. The bed was very comfortable. The next day our family picked us up. When we left Texas, the following Tuesday, we were unaware how awful the traffic is from Muenster to the DFW airport. I called the hotel and Caroline, the front desk manager graciously allowed us to use the hotel van to go to the airport, so our relatives could drop us off at the hotel and return to Muenster therby avoiding the worst of the traffic. We have decided that we will always stay here at the beginning and the end of any trip we make to the area. The staff is wonderful and the property exceeded our expectations.More</t>
+  </si>
+  <si>
+    <t>jimn8r</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r59444084-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
@@ -2187,6 +2445,9 @@
 Four calls and three months later. I finally called back one final time to check on the status. Caroline, the front desk manager, rudely interrupted me as I was trying to explain the situation, flat out lied to my face, telling me that they always call back on these situations. If that was true, I would be calling them three months later to check on the situation that still didn't have...I stayed at this Marriott on my way home from my wedding. I realized on the day that I checked out, that I had left my video camera on the bedside table. I immediately called the hotel to ask them if they could go to the room and retrieve my camera for me. The guy on the phone told me he would go see if it was there. I explained to him that I wasn't asking to see if I had left it in the room, and if he could check...I told him I know I left it there. He told me he would call me back in about an hour. I ended up calling him about three hours later with a response of "I will need to check with housekeeping to see if anything was turned in. He told me the next day that housekeeping didn't turn in anything. My questions is, where did it go? I left it right there! If housekeeping didn't find it, who did?Four calls and three months later. I finally called back one final time to check on the status. Caroline, the front desk manager, rudely interrupted me as I was trying to explain the situation, flat out lied to my face, telling me that they always call back on these situations. If that was true, I would be calling them three months later to check on the situation that still didn't have a resolution.Long story short, I left me camera with my wedding video on it, and called about it. The answer I got was "we are not responsible for items left in the room". I guess they're not responsible for returning phone calls or being rude to a paying customers either.More</t>
   </si>
   <si>
+    <t>ManUtdinOK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r33307677-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2208,6 +2469,9 @@
     <t>I have stayed here with my family twice in the past four weeks.  This is a new property  with very nice and relatively large rooms with full sized refrigerators as well as a cooktop and microwave.  Rooms are well insulated and quiet.  Pool area is outdoors and very nice.  Included breakfast is standard fare ... good but not great.  Apparently they have a reception on Thursday nights with free food and drink.  Unfortunately we had other plans so didn't stick around.  Unfortunately, between our first and second visit the roof seam was torn by a storm and water leaked in most of the rooms from the 5th floor on up.  They were working hard to get everything cleaned up.  We hardly noticed the workers and I'm confident it will be fully opened and as good as ever soon.  I highly recommend this place.  Walking distance to Grapevine Mills Mall, Bass Pro Shop and Whataburger!More</t>
   </si>
   <si>
+    <t>lcpnj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r14420682-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2226,6 +2490,9 @@
     <t>March 2008</t>
   </si>
   <si>
+    <t>neatfreak08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r14026181-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2247,6 +2514,9 @@
     <t>My husband and I chose to stay at this Residence Inn only because of the its close proximity to DFW airport, as we had an early flight to take and did not want to fight morning traffic.  However, we enjoyed our stay so much AND the hotel was so nice that we chose to book a couple of extra nights upon our return flight.This hotel seems brand new and has many upgrades like: granite countertops, tiled floor, full sized stainless steel appliances, wireless connection; it felt just like home! They also have free airport shuttle service, a great complimentary breakfast (not your typical bagel, juice and coffee) with bacon, sausage, scrambled eggs, a State of Texas-shaped waffle maker, etc. very neat!They even have an Italian restaurant on the premises.I would absolutely recommend this hotel to anyone looking for a hotel close to DFW!   Great deal for the price of the room too.More</t>
   </si>
   <si>
+    <t>cmlleus</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r13315266-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2265,6 +2535,9 @@
     <t>I travel for business, and I have enough days away from home that I don't like staying at hotels unless I'm sure they will be full-service, absolutely comfortable, clean, etc.  I called Marriott reservations at the last minute because Hyatt at the airport had lost my reservation and was over-booked.  I didn't have high expectations for the Residence Inn (based on previous stays at extended stay hotels), but I knew that the hotel had been built in 2006.  I have to say that I would rank this hotel as one of the highest quality hotels I've visited.  The room is very nice - stainless steel appliances, granite countertops, spotlessly clean, comfortable bed - but it's really the service that gives this hotel the extra points.  I ran out of toothpaste and the front desk gave me a new tube.  The hotel will take your grocery orders and deliver (free of charge) your order before the end of the day.  They will shuttle you anywhere within 5 miles of the hotel.  The breakfast has just about everything, and it's all fresh and custom-prepared (for example, they bent over backwards to make hard-boiled eggs for me.)  Granted, you will probably notice the difference between this hotel and the Ritz if you are picky about plush towels and top-of-the-line bed sheets, but otherwise I would say that this is just an excellent hotel and one I would recommend without any hesitation.More</t>
   </si>
   <si>
+    <t>rednan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r7772322-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2286,6 +2559,9 @@
     <t>Although near the airport, this hotel is very quiet.  The included breakfast has pancakes/waffles/eggs/bacon/sausage/ biscuits &amp; gravy/muffins/donuts/cereals/fresh fruit/yogurt - much too numerous to mention everything, but you get the point.  The rooms are spotlessly clean and include a full size kitchen, including refrigerator and dishwasher.  All countertops granite.  Although bathroom counterspace is lacking, there are drawers in the vanity in which to store everything.  You truly feel like you are in a home.  Internet access is free.  The outdoor pool is kept very clean.  The one day they had a chemical problem they offered us the Springhill Suites pool across the street and offered us transportation there.  Huge outlet mall across the street, Bass Pro Shop in attached parking lot.  The staff is very helpful, outgoing and friendly.  Great Place to Stay!More</t>
   </si>
   <si>
+    <t>TravelRatings</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r7350485-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
   </si>
   <si>
@@ -2302,6 +2578,9 @@
   </si>
   <si>
     <t>March 2007</t>
+  </si>
+  <si>
+    <t>rcase</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55930-d634997-r6842358-Residence_Inn_DFW_Airport_North_Grapevine-Grapevine_Texas.html</t>
@@ -2827,43 +3106,47 @@
       <c r="A2" t="n">
         <v>55677</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>113628</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2881,50 +3164,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>55677</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>175890</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
         <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2938,50 +3225,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>55677</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175891</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2993,56 +3284,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>55677</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>5845</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -3062,41 +3357,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>55677</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>175892</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
@@ -3113,56 +3412,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>55677</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175893</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3178,56 +3481,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>55677</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>175894</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3239,56 +3546,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="X8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>55677</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175895</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -3304,56 +3615,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55677</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175896</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>116</v>
       </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="s">
-        <v>108</v>
-      </c>
       <c r="O10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3369,56 +3684,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>55677</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>700</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3430,56 +3749,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>55677</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>13227</v>
+      </c>
+      <c r="C12" t="s">
+        <v>139</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3497,56 +3820,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>55677</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175897</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3562,56 +3889,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>55677</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>7874</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -3629,56 +3960,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>55677</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175898</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3690,56 +4025,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="X15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Y15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>55677</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>12067</v>
+      </c>
+      <c r="C16" t="s">
+        <v>177</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="J16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="L16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -3755,56 +4094,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>55677</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175899</v>
+      </c>
+      <c r="C17" t="s">
+        <v>187</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="J17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="K17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="L17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3816,56 +4159,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>55677</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>20964</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3877,56 +4224,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>55677</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175900</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3938,56 +4289,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>55677</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175901</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4003,56 +4358,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>55677</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>175902</v>
+      </c>
+      <c r="C21" t="s">
+        <v>223</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4068,56 +4427,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X21" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>55677</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175903</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4135,56 +4498,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="X22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="Y22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>55677</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175904</v>
+      </c>
+      <c r="C23" t="s">
+        <v>240</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="J23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="K23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="L23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4202,56 +4569,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="X23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="Y23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>55677</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>17786</v>
+      </c>
+      <c r="C24" t="s">
+        <v>250</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="J24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="K24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4269,56 +4640,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>55677</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>175905</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4330,56 +4705,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>55677</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>91954</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4391,56 +4770,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>55677</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>8326</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4456,47 +4839,51 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="X27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>55677</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175906</v>
+      </c>
+      <c r="C28" t="s">
+        <v>289</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
@@ -4513,56 +4900,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="X28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="Y28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>55677</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>175907</v>
+      </c>
+      <c r="C29" t="s">
+        <v>298</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="J29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="L29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4578,56 +4969,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="X29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>55677</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>62855</v>
+      </c>
+      <c r="C30" t="s">
+        <v>308</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="K30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="O30" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4645,56 +5040,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="Y30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>55677</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175908</v>
+      </c>
+      <c r="C31" t="s">
+        <v>314</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="J31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="K31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="L31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4712,56 +5111,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="X31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="Y31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>55677</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>175909</v>
+      </c>
+      <c r="C32" t="s">
+        <v>324</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="J32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="K32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L32" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4777,56 +5180,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="X32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="Y32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>55677</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>175910</v>
+      </c>
+      <c r="C33" t="s">
+        <v>334</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="J33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="L33" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4842,56 +5249,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="X33" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="Y33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>55677</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175911</v>
+      </c>
+      <c r="C34" t="s">
+        <v>341</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="J34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="K34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="L34" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="O34" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4903,56 +5314,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="X34" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="Y34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>55677</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>175912</v>
+      </c>
+      <c r="C35" t="s">
+        <v>351</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="J35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="K35" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4968,56 +5383,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="X35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="Y35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>55677</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>83852</v>
+      </c>
+      <c r="C36" t="s">
+        <v>361</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="J36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="K36" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="L36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -5033,56 +5452,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="X36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="Y36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>55677</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175913</v>
+      </c>
+      <c r="C37" t="s">
+        <v>370</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="J37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="K37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="L37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="O37" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -5100,56 +5523,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="X37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="Y37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>55677</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>175914</v>
+      </c>
+      <c r="C38" t="s">
+        <v>380</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="J38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="K38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="L38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="O38" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5165,56 +5592,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="X38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="Y38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>55677</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>175915</v>
+      </c>
+      <c r="C39" t="s">
+        <v>389</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="J39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="K39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="L39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5226,56 +5657,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="X39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="Y39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>55677</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>12676</v>
+      </c>
+      <c r="C40" t="s">
+        <v>399</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="J40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="L40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -5293,47 +5728,51 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="X40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="Y40" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>55677</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175916</v>
+      </c>
+      <c r="C41" t="s">
+        <v>408</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="J41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="K41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="L41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -5360,56 +5799,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="X41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Y41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>55677</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>38347</v>
+      </c>
+      <c r="C42" t="s">
+        <v>417</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="L42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5427,56 +5870,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="X42" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Y42" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>55677</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>175917</v>
+      </c>
+      <c r="C43" t="s">
+        <v>425</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="J43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="K43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="L43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5492,56 +5939,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="X43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
       <c r="Y43" t="s">
-        <v>392</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>55677</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>175918</v>
+      </c>
+      <c r="C44" t="s">
+        <v>435</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="J44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="K44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="L44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5563,56 +6014,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="X44" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="Y44" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>55677</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>175919</v>
+      </c>
+      <c r="C45" t="s">
+        <v>445</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="J45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="K45" t="s">
-        <v>405</v>
+        <v>449</v>
       </c>
       <c r="L45" t="s">
-        <v>406</v>
+        <v>450</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -5634,47 +6089,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>408</v>
+        <v>452</v>
       </c>
       <c r="X45" t="s">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>454</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>55677</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>13854</v>
+      </c>
+      <c r="C46" t="s">
+        <v>455</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="J46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
       <c r="K46" t="s">
-        <v>414</v>
+        <v>459</v>
       </c>
       <c r="L46" t="s">
-        <v>415</v>
+        <v>460</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
@@ -5691,56 +6150,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>416</v>
+        <v>461</v>
       </c>
       <c r="X46" t="s">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="Y46" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>55677</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>20508</v>
+      </c>
+      <c r="C47" t="s">
+        <v>464</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="J47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="K47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="L47" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5760,56 +6223,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="X47" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="Y47" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>55677</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>3233</v>
+      </c>
+      <c r="C48" t="s">
+        <v>474</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="J48" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="K48" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="L48" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="O48" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5829,56 +6296,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="X48" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="Y48" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>55677</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>175920</v>
+      </c>
+      <c r="C49" t="s">
+        <v>484</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="J49" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="K49" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="L49" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -5900,56 +6371,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="X49" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="Y49" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>55677</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>175921</v>
+      </c>
+      <c r="C50" t="s">
+        <v>494</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="J50" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="K50" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="L50" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="O50" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5971,47 +6446,51 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="X50" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="Y50" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>55677</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>175922</v>
+      </c>
+      <c r="C51" t="s">
+        <v>504</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="J51" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="K51" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="L51" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
@@ -6038,56 +6517,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="X51" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="Y51" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>55677</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175923</v>
+      </c>
+      <c r="C52" t="s">
+        <v>513</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="J52" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="K52" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="L52" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="O52" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6109,56 +6592,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="X52" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="Y52" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>55677</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>48214</v>
+      </c>
+      <c r="C53" t="s">
+        <v>523</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="J53" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="K53" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="L53" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="O53" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6180,56 +6667,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="X53" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="Y53" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>55677</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>304</v>
+      </c>
+      <c r="C54" t="s">
+        <v>533</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="J54" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="K54" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="L54" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="O54" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6251,56 +6742,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="X54" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="Y54" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>55677</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>175924</v>
+      </c>
+      <c r="C55" t="s">
+        <v>540</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="J55" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="K55" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="L55" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="O55" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -6322,56 +6817,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
       <c r="X55" t="s">
-        <v>494</v>
+        <v>548</v>
       </c>
       <c r="Y55" t="s">
-        <v>495</v>
+        <v>549</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55677</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>38253</v>
+      </c>
+      <c r="C56" t="s">
+        <v>550</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="J56" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="K56" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="L56" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="O56" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -6393,56 +6892,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="X56" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="Y56" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>55677</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>175925</v>
+      </c>
+      <c r="C57" t="s">
+        <v>560</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="J57" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="K57" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="L57" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6464,56 +6967,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="X57" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="Y57" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>55677</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>80165</v>
+      </c>
+      <c r="C58" t="s">
+        <v>570</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="J58" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="K58" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="L58" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>4</v>
@@ -6535,56 +7042,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="X58" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="Y58" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>55677</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>175926</v>
+      </c>
+      <c r="C59" t="s">
+        <v>579</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>522</v>
+        <v>580</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>523</v>
+        <v>581</v>
       </c>
       <c r="J59" t="s">
-        <v>524</v>
+        <v>582</v>
       </c>
       <c r="K59" t="s">
-        <v>525</v>
+        <v>583</v>
       </c>
       <c r="L59" t="s">
-        <v>526</v>
+        <v>584</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="O59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6606,56 +7117,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>527</v>
+        <v>585</v>
       </c>
       <c r="X59" t="s">
-        <v>528</v>
+        <v>586</v>
       </c>
       <c r="Y59" t="s">
-        <v>529</v>
+        <v>587</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>55677</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>613</v>
+      </c>
+      <c r="C60" t="s">
+        <v>588</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
       <c r="J60" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="K60" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
       <c r="L60" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
       <c r="O60" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6677,56 +7192,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="X60" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="Y60" t="s">
-        <v>538</v>
+        <v>597</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>55677</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>175927</v>
+      </c>
+      <c r="C61" t="s">
+        <v>598</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>540</v>
+        <v>600</v>
       </c>
       <c r="J61" t="s">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="K61" t="s">
-        <v>542</v>
+        <v>602</v>
       </c>
       <c r="L61" t="s">
-        <v>543</v>
+        <v>603</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="O61" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6748,56 +7267,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>536</v>
+        <v>595</v>
       </c>
       <c r="X61" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="Y61" t="s">
-        <v>545</v>
+        <v>605</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>55677</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>175928</v>
+      </c>
+      <c r="C62" t="s">
+        <v>606</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>546</v>
+        <v>607</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="J62" t="s">
-        <v>548</v>
+        <v>609</v>
       </c>
       <c r="K62" t="s">
-        <v>549</v>
+        <v>610</v>
       </c>
       <c r="L62" t="s">
-        <v>550</v>
+        <v>611</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>544</v>
+        <v>604</v>
       </c>
       <c r="O62" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6819,56 +7342,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>551</v>
+        <v>612</v>
       </c>
       <c r="X62" t="s">
-        <v>552</v>
+        <v>613</v>
       </c>
       <c r="Y62" t="s">
-        <v>553</v>
+        <v>614</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>55677</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>175929</v>
+      </c>
+      <c r="C63" t="s">
+        <v>615</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>554</v>
+        <v>616</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>555</v>
+        <v>617</v>
       </c>
       <c r="J63" t="s">
-        <v>556</v>
+        <v>618</v>
       </c>
       <c r="K63" t="s">
-        <v>557</v>
+        <v>619</v>
       </c>
       <c r="L63" t="s">
-        <v>558</v>
+        <v>620</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="O63" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6890,56 +7417,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>560</v>
+        <v>622</v>
       </c>
       <c r="X63" t="s">
-        <v>561</v>
+        <v>623</v>
       </c>
       <c r="Y63" t="s">
-        <v>562</v>
+        <v>624</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>55677</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>114652</v>
+      </c>
+      <c r="C64" t="s">
+        <v>625</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>563</v>
+        <v>626</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>564</v>
+        <v>627</v>
       </c>
       <c r="J64" t="s">
-        <v>565</v>
+        <v>628</v>
       </c>
       <c r="K64" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="L64" t="s">
-        <v>567</v>
+        <v>630</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>559</v>
+        <v>621</v>
       </c>
       <c r="O64" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6961,56 +7492,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>568</v>
+        <v>631</v>
       </c>
       <c r="X64" t="s">
-        <v>569</v>
+        <v>632</v>
       </c>
       <c r="Y64" t="s">
-        <v>570</v>
+        <v>633</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>55677</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>175930</v>
+      </c>
+      <c r="C65" t="s">
+        <v>634</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>571</v>
+        <v>635</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>572</v>
+        <v>636</v>
       </c>
       <c r="J65" t="s">
-        <v>573</v>
+        <v>637</v>
       </c>
       <c r="K65" t="s">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="L65" t="s">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>576</v>
+        <v>640</v>
       </c>
       <c r="O65" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7034,50 +7569,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>577</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>55677</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>56193</v>
+      </c>
+      <c r="C66" t="s">
+        <v>642</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
       <c r="J66" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="K66" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
       <c r="L66" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="O66" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7101,50 +7640,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>55677</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>84544</v>
+      </c>
+      <c r="C67" t="s">
+        <v>649</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>585</v>
+        <v>651</v>
       </c>
       <c r="J67" t="s">
-        <v>586</v>
+        <v>652</v>
       </c>
       <c r="K67" t="s">
-        <v>587</v>
+        <v>653</v>
       </c>
       <c r="L67" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7168,50 +7711,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>55677</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>175931</v>
+      </c>
+      <c r="C68" t="s">
+        <v>657</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>592</v>
+        <v>659</v>
       </c>
       <c r="J68" t="s">
-        <v>593</v>
+        <v>660</v>
       </c>
       <c r="K68" t="s">
-        <v>594</v>
+        <v>661</v>
       </c>
       <c r="L68" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="O68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7235,50 +7782,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>55677</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>69850</v>
+      </c>
+      <c r="C69" t="s">
+        <v>664</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
       <c r="J69" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="K69" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="L69" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7302,50 +7853,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>55677</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>50990</v>
+      </c>
+      <c r="C70" t="s">
+        <v>672</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>605</v>
+        <v>674</v>
       </c>
       <c r="J70" t="s">
-        <v>599</v>
+        <v>667</v>
       </c>
       <c r="K70" t="s">
-        <v>606</v>
+        <v>675</v>
       </c>
       <c r="L70" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7369,50 +7924,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>55677</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>175932</v>
+      </c>
+      <c r="C71" t="s">
+        <v>678</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="J71" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
       <c r="K71" t="s">
-        <v>612</v>
+        <v>682</v>
       </c>
       <c r="L71" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="O71" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7436,50 +7995,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>613</v>
+        <v>683</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>55677</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>175933</v>
+      </c>
+      <c r="C72" t="s">
+        <v>684</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="J72" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="K72" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
       <c r="L72" t="s">
-        <v>618</v>
+        <v>689</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7503,50 +8066,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>55677</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>149550</v>
+      </c>
+      <c r="C73" t="s">
+        <v>692</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="J73" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="K73" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="L73" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>619</v>
+        <v>690</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7570,50 +8137,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>55677</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>175934</v>
+      </c>
+      <c r="C74" t="s">
+        <v>699</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="J74" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="K74" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="L74" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="O74" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7635,50 +8206,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>55677</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>175935</v>
+      </c>
+      <c r="C75" t="s">
+        <v>707</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>635</v>
+        <v>709</v>
       </c>
       <c r="J75" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="K75" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
       <c r="L75" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7702,50 +8277,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>55677</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>876</v>
+      </c>
+      <c r="C76" t="s">
+        <v>713</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>639</v>
+        <v>714</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>640</v>
+        <v>715</v>
       </c>
       <c r="J76" t="s">
-        <v>641</v>
+        <v>716</v>
       </c>
       <c r="K76" t="s">
-        <v>642</v>
+        <v>717</v>
       </c>
       <c r="L76" t="s">
-        <v>643</v>
+        <v>718</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -7769,50 +8348,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>55677</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>175936</v>
+      </c>
+      <c r="C77" t="s">
+        <v>720</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>645</v>
+        <v>721</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>646</v>
+        <v>722</v>
       </c>
       <c r="J77" t="s">
-        <v>647</v>
+        <v>723</v>
       </c>
       <c r="K77" t="s">
-        <v>648</v>
+        <v>724</v>
       </c>
       <c r="L77" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="O77" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P77" t="n">
         <v>5</v>
@@ -7836,50 +8419,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>649</v>
+        <v>725</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>55677</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>175937</v>
+      </c>
+      <c r="C78" t="s">
+        <v>727</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>651</v>
+        <v>728</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>652</v>
+        <v>729</v>
       </c>
       <c r="J78" t="s">
-        <v>653</v>
+        <v>730</v>
       </c>
       <c r="K78" t="s">
-        <v>654</v>
+        <v>731</v>
       </c>
       <c r="L78" t="s">
-        <v>655</v>
+        <v>732</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>650</v>
+        <v>726</v>
       </c>
       <c r="O78" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="P78" t="n">
         <v>3</v>
@@ -7903,41 +8490,45 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>656</v>
+        <v>733</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>55677</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>175938</v>
+      </c>
+      <c r="C79" t="s">
+        <v>734</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>657</v>
+        <v>735</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>658</v>
+        <v>736</v>
       </c>
       <c r="J79" t="s">
-        <v>659</v>
+        <v>737</v>
       </c>
       <c r="K79" t="s">
-        <v>660</v>
+        <v>738</v>
       </c>
       <c r="L79" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
@@ -7966,50 +8557,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>661</v>
+        <v>739</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>55677</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>175939</v>
+      </c>
+      <c r="C80" t="s">
+        <v>740</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>662</v>
+        <v>741</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>663</v>
+        <v>742</v>
       </c>
       <c r="J80" t="s">
-        <v>664</v>
+        <v>743</v>
       </c>
       <c r="K80" t="s">
-        <v>665</v>
+        <v>744</v>
       </c>
       <c r="L80" t="s">
-        <v>666</v>
+        <v>745</v>
       </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="O80" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8029,50 +8624,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>55677</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>175940</v>
+      </c>
+      <c r="C81" t="s">
+        <v>748</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>669</v>
+        <v>749</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>670</v>
+        <v>750</v>
       </c>
       <c r="J81" t="s">
-        <v>671</v>
+        <v>751</v>
       </c>
       <c r="K81" t="s">
-        <v>672</v>
+        <v>752</v>
       </c>
       <c r="L81" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="O81" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8092,50 +8691,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>673</v>
+        <v>753</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>55677</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>5238</v>
+      </c>
+      <c r="C82" t="s">
+        <v>754</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>674</v>
+        <v>755</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>675</v>
+        <v>756</v>
       </c>
       <c r="J82" t="s">
-        <v>676</v>
+        <v>757</v>
       </c>
       <c r="K82" t="s">
-        <v>677</v>
+        <v>758</v>
       </c>
       <c r="L82" t="s">
-        <v>678</v>
+        <v>759</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>667</v>
+        <v>746</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8155,50 +8758,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>678</v>
+        <v>759</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>55677</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>175941</v>
+      </c>
+      <c r="C83" t="s">
+        <v>760</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="J83" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="K83" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="L83" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>684</v>
+        <v>766</v>
       </c>
       <c r="O83" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -8222,50 +8829,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>685</v>
+        <v>767</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>55677</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>21749</v>
+      </c>
+      <c r="C84" t="s">
+        <v>768</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>687</v>
+        <v>770</v>
       </c>
       <c r="J84" t="s">
-        <v>688</v>
+        <v>771</v>
       </c>
       <c r="K84" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L84" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>690</v>
+        <v>773</v>
       </c>
       <c r="O84" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8289,50 +8900,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>691</v>
+        <v>774</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>55677</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>175942</v>
+      </c>
+      <c r="C85" t="s">
+        <v>775</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>692</v>
+        <v>776</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="J85" t="s">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="K85" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="L85" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
       <c r="N85" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -8356,50 +8971,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>55677</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>175943</v>
+      </c>
+      <c r="C86" t="s">
+        <v>783</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>699</v>
+        <v>784</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>700</v>
+        <v>785</v>
       </c>
       <c r="J86" t="s">
-        <v>701</v>
+        <v>786</v>
       </c>
       <c r="K86" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
       <c r="L86" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="O86" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8423,50 +9042,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>55677</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>175944</v>
+      </c>
+      <c r="C87" t="s">
+        <v>791</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>706</v>
+        <v>792</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>707</v>
+        <v>793</v>
       </c>
       <c r="J87" t="s">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="K87" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="L87" t="s">
-        <v>710</v>
+        <v>796</v>
       </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
       <c r="N87" t="s">
-        <v>711</v>
+        <v>797</v>
       </c>
       <c r="O87" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P87" t="n">
         <v>1</v>
@@ -8486,50 +9109,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>55677</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>175945</v>
+      </c>
+      <c r="C88" t="s">
+        <v>799</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>713</v>
+        <v>800</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>714</v>
+        <v>801</v>
       </c>
       <c r="J88" t="s">
-        <v>715</v>
+        <v>802</v>
       </c>
       <c r="K88" t="s">
-        <v>716</v>
+        <v>803</v>
       </c>
       <c r="L88" t="s">
-        <v>717</v>
+        <v>804</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>718</v>
+        <v>805</v>
       </c>
       <c r="O88" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8553,50 +9180,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>719</v>
+        <v>806</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>55677</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>175946</v>
+      </c>
+      <c r="C89" t="s">
+        <v>807</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>721</v>
+        <v>809</v>
       </c>
       <c r="J89" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
       <c r="K89" t="s">
-        <v>723</v>
+        <v>811</v>
       </c>
       <c r="L89" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="O89" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8620,50 +9251,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>55677</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>87</v>
+      </c>
+      <c r="C90" t="s">
+        <v>814</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>726</v>
+        <v>815</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>727</v>
+        <v>816</v>
       </c>
       <c r="J90" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="K90" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="L90" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -8687,41 +9322,45 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>55677</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>175947</v>
+      </c>
+      <c r="C91" t="s">
+        <v>822</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>734</v>
+        <v>824</v>
       </c>
       <c r="J91" t="s">
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="K91" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="L91" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
@@ -8750,50 +9389,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>55677</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>175948</v>
+      </c>
+      <c r="C92" t="s">
+        <v>829</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>739</v>
+        <v>830</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>740</v>
+        <v>831</v>
       </c>
       <c r="J92" t="s">
-        <v>741</v>
+        <v>832</v>
       </c>
       <c r="K92" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="L92" t="s">
-        <v>743</v>
+        <v>834</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>744</v>
+        <v>835</v>
       </c>
       <c r="O92" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8817,50 +9460,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>55677</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>175949</v>
+      </c>
+      <c r="C93" t="s">
+        <v>837</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>746</v>
+        <v>838</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="J93" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="K93" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="L93" t="s">
-        <v>750</v>
+        <v>842</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="O93" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8884,50 +9531,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>750</v>
+        <v>842</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>55677</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>175950</v>
+      </c>
+      <c r="C94" t="s">
+        <v>844</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>752</v>
+        <v>845</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="J94" t="s">
-        <v>754</v>
+        <v>847</v>
       </c>
       <c r="K94" t="s">
-        <v>755</v>
+        <v>848</v>
       </c>
       <c r="L94" t="s">
-        <v>756</v>
+        <v>849</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>757</v>
+        <v>850</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8951,7 +9602,7 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>758</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
